--- a/file raw.xlsx
+++ b/file raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indosat 2025\1 website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00442E48-A8D5-4F9B-917B-8FEA572A50C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE6E59E-C4D7-49AE-B886-D94F081F9B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="3390" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="705" windowWidth="25470" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW 3Kiosk" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -541,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -556,6 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -896,10 +898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BR85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -910,11 +913,11 @@
     <col min="4" max="4" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="23.375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
@@ -940,7 +943,7 @@
     <col min="57" max="58" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="60" width="22.125" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="62" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="66" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="11.875" style="1" bestFit="1" customWidth="1"/>
@@ -1371,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -1391,34 +1394,34 @@
         <v>44</v>
       </c>
       <c r="G3" s="6">
-        <v>10150206.225225231</v>
+        <v>10342826.045045041</v>
       </c>
       <c r="H3" s="6">
-        <v>8076866.0180180185</v>
+        <v>8591443.4954954963</v>
       </c>
       <c r="I3" s="6">
-        <v>7637336.0810810812</v>
+        <v>7829955.9009009013</v>
       </c>
       <c r="J3" s="6">
-        <v>5673018.9189189188</v>
+        <v>6030479.2792792805</v>
       </c>
       <c r="K3" s="6">
         <v>2512870.1441441439</v>
       </c>
       <c r="L3" s="6">
-        <v>2403847.0990990992</v>
+        <v>2560964.2162162159</v>
       </c>
       <c r="M3" s="6">
-        <v>1.869565217391304</v>
+        <v>1.791666666666667</v>
       </c>
       <c r="N3" s="6">
-        <v>1.2608695652173909</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="O3" s="6">
-        <v>3637094.6216216218</v>
+        <v>3791409.9369369368</v>
       </c>
       <c r="P3" s="6">
-        <v>2575271.1981981979</v>
+        <v>2641353.1801801799</v>
       </c>
       <c r="Q3" s="6">
         <v>107657.65765765771</v>
@@ -1433,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="6">
-        <v>3466373.9009009008</v>
+        <v>3575644.1711711711</v>
       </c>
       <c r="V3" s="6">
-        <v>1595238.7657657659</v>
+        <v>1661320.7477477479</v>
       </c>
       <c r="W3" s="6">
         <v>18018.018018018021</v>
@@ -1445,28 +1448,28 @@
         <v>16667.56756756757</v>
       </c>
       <c r="Y3" s="6">
-        <v>1200884.684684685</v>
+        <v>1229263.063063063</v>
       </c>
       <c r="Z3" s="6">
         <v>335576.60360360361</v>
       </c>
       <c r="AA3" s="6">
-        <v>372036.03603603598</v>
+        <v>384909.90990990988</v>
       </c>
       <c r="AB3" s="6">
-        <v>682463.06306306308</v>
+        <v>697463.96396396391</v>
       </c>
       <c r="AC3" s="6">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AD3" s="6">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AE3" s="6">
-        <v>100356372.7988288</v>
+        <v>104820199.65468469</v>
       </c>
       <c r="AF3" s="6">
-        <v>92632068.701801807</v>
+        <v>96630324.728828833</v>
       </c>
       <c r="AG3" s="6">
         <v>15</v>
@@ -1484,7 +1487,7 @@
         <v>115</v>
       </c>
       <c r="AL3" s="6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AM3" s="6">
         <v>2</v>
@@ -1502,7 +1505,7 @@
         <v>111</v>
       </c>
       <c r="AR3" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AS3" s="6">
         <v>2</v>
@@ -1520,13 +1523,13 @@
         <v>17</v>
       </c>
       <c r="AX3" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY3" s="6">
-        <v>5507657.6576576577</v>
+        <v>5777927.927927928</v>
       </c>
       <c r="AZ3" s="6">
-        <v>2425675.6756756762</v>
+        <v>2623873.8738738741</v>
       </c>
       <c r="BA3" s="6">
         <v>1</v>
@@ -1547,43 +1550,43 @@
         <v>0</v>
       </c>
       <c r="BG3" s="6">
-        <v>7637336.0810810812</v>
+        <v>7829955.9009009013</v>
       </c>
       <c r="BH3" s="6">
-        <v>5673018.9189189188</v>
+        <v>6030479.2792792805</v>
       </c>
       <c r="BI3" s="6">
         <v>2512870.1441441439</v>
       </c>
       <c r="BJ3" s="6">
-        <v>2403847.0990990992</v>
+        <v>2560964.2162162159</v>
       </c>
       <c r="BK3" s="6">
-        <v>6536199.0990990987</v>
+        <v>6672991.8918918921</v>
       </c>
       <c r="BL3" s="6">
-        <v>4785118.0180180185</v>
+        <v>5280866.666666667</v>
       </c>
       <c r="BM3" s="6">
-        <v>5489627.927927928</v>
+        <v>5626420.7207207195</v>
       </c>
       <c r="BN3" s="6">
-        <v>3469181.0810810812</v>
+        <v>3826641.441441441</v>
       </c>
       <c r="BO3" s="6">
         <v>1046571.171171171</v>
       </c>
       <c r="BP3" s="6">
-        <v>1315936.936936937</v>
+        <v>1454225.2252252251</v>
       </c>
       <c r="BQ3" s="6">
-        <v>3752931.5315315309</v>
+        <v>3889724.3243243238</v>
       </c>
       <c r="BR3" s="6">
-        <v>2207443.2432432431</v>
+        <v>2285623.423423423</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1675,10 +1678,10 @@
         <v>4</v>
       </c>
       <c r="AE4" s="6">
-        <v>9793250.5952252261</v>
+        <v>10212664.225855861</v>
       </c>
       <c r="AF4" s="6">
-        <v>8242810.1849549552</v>
+        <v>8633933.6173873879</v>
       </c>
       <c r="AG4" s="6">
         <v>0</v>
@@ -1795,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1818,13 +1821,13 @@
         <v>468775.4954954955</v>
       </c>
       <c r="H5" s="6">
-        <v>545148.41441441444</v>
+        <v>606563.32432432438</v>
       </c>
       <c r="I5" s="6">
         <v>377874.77477477479</v>
       </c>
       <c r="J5" s="6">
-        <v>353166.43243243243</v>
+        <v>414581.34234234242</v>
       </c>
       <c r="K5" s="6">
         <v>90900.720720720725</v>
@@ -1887,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="AE5" s="6">
-        <v>4680395.5306306304</v>
+        <v>4935424.5126126129</v>
       </c>
       <c r="AF5" s="6">
-        <v>4015085.582342342</v>
+        <v>4181202.9967567571</v>
       </c>
       <c r="AG5" s="6">
         <v>0</v>
@@ -1974,7 +1977,7 @@
         <v>377874.77477477479</v>
       </c>
       <c r="BH5" s="6">
-        <v>353166.43243243243</v>
+        <v>414581.34234234242</v>
       </c>
       <c r="BI5" s="6">
         <v>90900.720720720725</v>
@@ -1986,13 +1989,13 @@
         <v>359496.39639639639</v>
       </c>
       <c r="BL5" s="6">
-        <v>194774.77477477479</v>
+        <v>210693.6936936937</v>
       </c>
       <c r="BM5" s="6">
         <v>287424.32432432432</v>
       </c>
       <c r="BN5" s="6">
-        <v>121351.3513513513</v>
+        <v>137270.2702702703</v>
       </c>
       <c r="BO5" s="6">
         <v>72072.072072072071</v>
@@ -2007,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -2045,10 +2048,10 @@
         <v>113306.3333333333</v>
       </c>
       <c r="M6" s="6">
-        <v>0.13043478260869559</v>
+        <v>0.125</v>
       </c>
       <c r="N6" s="6">
-        <v>0.17391304347826089</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="O6" s="6">
         <v>19340.54054054054</v>
@@ -2099,16 +2102,16 @@
         <v>6</v>
       </c>
       <c r="AE6" s="6">
-        <v>2032303.911801802</v>
+        <v>2142739.8847747748</v>
       </c>
       <c r="AF6" s="6">
-        <v>2148442.4458558559</v>
+        <v>2228033.5359459459</v>
       </c>
       <c r="AG6" s="6">
         <v>0</v>
       </c>
       <c r="AH6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="6">
         <v>0</v>
@@ -2216,10 +2219,10 @@
         <v>675188.28828828828</v>
       </c>
       <c r="BR6" s="6">
-        <v>361369.36936936929</v>
+        <v>403265.76576576568</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
@@ -2239,16 +2242,16 @@
         <v>44</v>
       </c>
       <c r="G7" s="6">
-        <v>3896958.8018018021</v>
+        <v>4004801.1441441439</v>
       </c>
       <c r="H7" s="6">
-        <v>5234372.9549549548</v>
+        <v>5878808.9909909908</v>
       </c>
       <c r="I7" s="6">
-        <v>3274469.369369369</v>
+        <v>3382311.7117117122</v>
       </c>
       <c r="J7" s="6">
-        <v>4187849.5495495489</v>
+        <v>4832285.5855855858</v>
       </c>
       <c r="K7" s="6">
         <v>622489.43243243243</v>
@@ -2257,22 +2260,22 @@
         <v>1046523.405405405</v>
       </c>
       <c r="M7" s="6">
-        <v>0.52173913043478259</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="6">
-        <v>0.2608695652173913</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O7" s="6">
-        <v>1095768.1531531529</v>
+        <v>1113786.1711711709</v>
       </c>
       <c r="P7" s="6">
-        <v>1136233.333333333</v>
+        <v>1717495.4954954949</v>
       </c>
       <c r="Q7" s="6">
         <v>0</v>
       </c>
       <c r="R7" s="6">
-        <v>75225.225225225222</v>
+        <v>107657.65765765771</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
@@ -2281,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="6">
-        <v>1095768.1531531529</v>
+        <v>1113786.1711711709</v>
       </c>
       <c r="V7" s="6">
-        <v>1061008.1081081079</v>
+        <v>1609837.8378378381</v>
       </c>
       <c r="W7" s="6">
         <v>0</v>
@@ -2296,13 +2299,13 @@
         <v>173323.4234234234</v>
       </c>
       <c r="Z7" s="6">
-        <v>141701.8018018018</v>
+        <v>231026.1261261261</v>
       </c>
       <c r="AA7" s="6">
         <v>268709.59459459462</v>
       </c>
       <c r="AB7" s="6">
-        <v>637504.5045045045</v>
+        <v>1097009.9099099101</v>
       </c>
       <c r="AC7" s="6">
         <v>94</v>
@@ -2311,16 +2314,16 @@
         <v>48</v>
       </c>
       <c r="AE7" s="6">
-        <v>25352531.26369369</v>
+        <v>26571500.398828831</v>
       </c>
       <c r="AF7" s="6">
-        <v>24904262.729369368</v>
+        <v>25908986.40504504</v>
       </c>
       <c r="AG7" s="6">
         <v>1</v>
       </c>
       <c r="AH7" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI7" s="6">
         <v>3</v>
@@ -2332,13 +2335,13 @@
         <v>20</v>
       </c>
       <c r="AL7" s="6">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="AM7" s="6">
         <v>0</v>
       </c>
       <c r="AN7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO7" s="6">
         <v>0</v>
@@ -2350,7 +2353,7 @@
         <v>19</v>
       </c>
       <c r="AR7" s="6">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="AS7" s="6">
         <v>1</v>
@@ -2362,16 +2365,16 @@
         <v>2</v>
       </c>
       <c r="AV7" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="6">
         <v>6</v>
       </c>
       <c r="AX7" s="6">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="AY7" s="6">
-        <v>1342342.342342342</v>
+        <v>1522522.5225225231</v>
       </c>
       <c r="AZ7" s="6">
         <v>1450450.4504504499</v>
@@ -2380,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="BB7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="6">
         <v>0</v>
       </c>
       <c r="BD7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="6">
         <v>0</v>
@@ -2395,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="BG7" s="6">
-        <v>3274469.369369369</v>
+        <v>3382311.7117117122</v>
       </c>
       <c r="BH7" s="6">
-        <v>4187849.5495495489</v>
+        <v>4832285.5855855858</v>
       </c>
       <c r="BI7" s="6">
         <v>622489.43243243243</v>
@@ -2407,16 +2410,16 @@
         <v>1046523.405405405</v>
       </c>
       <c r="BK7" s="6">
-        <v>2780922.5225225231</v>
+        <v>2888764.8648648649</v>
       </c>
       <c r="BL7" s="6">
-        <v>2994268.4684684691</v>
+        <v>3609544.1441441439</v>
       </c>
       <c r="BM7" s="6">
-        <v>2353143.2432432431</v>
+        <v>2460985.5855855858</v>
       </c>
       <c r="BN7" s="6">
-        <v>2308379.2792792791</v>
+        <v>2923654.9549549548</v>
       </c>
       <c r="BO7" s="6">
         <v>427779.27927927929</v>
@@ -2425,13 +2428,13 @@
         <v>685889.18918918923</v>
       </c>
       <c r="BQ7" s="6">
-        <v>857758.55855855858</v>
+        <v>965600.90090090095</v>
       </c>
       <c r="BR7" s="6">
-        <v>1040154.954954955</v>
+        <v>1057483.7837837839</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -2451,13 +2454,13 @@
         <v>44</v>
       </c>
       <c r="G8" s="6">
-        <v>1685060.8648648651</v>
+        <v>1703889.693693694</v>
       </c>
       <c r="H8" s="6">
-        <v>2079519.8288288291</v>
+        <v>2125014.8738738741</v>
       </c>
       <c r="I8" s="6">
-        <v>1162236.936936937</v>
+        <v>1181065.7657657659</v>
       </c>
       <c r="J8" s="6">
         <v>1543712.612612613</v>
@@ -2466,16 +2469,16 @@
         <v>522823.92792792793</v>
       </c>
       <c r="L8" s="6">
-        <v>535807.21621621621</v>
+        <v>581302.2612612613</v>
       </c>
       <c r="M8" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="N8" s="6">
-        <v>0.52173913043478259</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="O8" s="6">
-        <v>40332.432432432433</v>
+        <v>50827.927927927929</v>
       </c>
       <c r="P8" s="6">
         <v>623296.39639639645</v>
@@ -2493,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="6">
-        <v>40332.432432432433</v>
+        <v>50827.927927927929</v>
       </c>
       <c r="V8" s="6">
         <v>454377.47747747751</v>
@@ -2523,16 +2526,16 @@
         <v>18</v>
       </c>
       <c r="AE8" s="6">
-        <v>13177154.93189189</v>
+        <v>13787555.58054054</v>
       </c>
       <c r="AF8" s="6">
-        <v>11384319.293333329</v>
+        <v>11853153.824864861</v>
       </c>
       <c r="AG8" s="6">
         <v>1</v>
       </c>
       <c r="AH8" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI8" s="6">
         <v>1</v>
@@ -2607,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="6">
-        <v>1162236.936936937</v>
+        <v>1181065.7657657659</v>
       </c>
       <c r="BH8" s="6">
         <v>1543712.612612613</v>
@@ -2616,7 +2619,7 @@
         <v>522823.92792792793</v>
       </c>
       <c r="BJ8" s="6">
-        <v>535807.21621621621</v>
+        <v>581302.2612612613</v>
       </c>
       <c r="BK8" s="6">
         <v>555580.18018018024</v>
@@ -2643,7 +2646,7 @@
         <v>169130.63063063059</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
@@ -2663,16 +2666,16 @@
         <v>44</v>
       </c>
       <c r="G9" s="6">
-        <v>8657280.3423423432</v>
+        <v>8809691.1531531531</v>
       </c>
       <c r="H9" s="6">
-        <v>7110000.9009009013</v>
+        <v>7526340.5405405406</v>
       </c>
       <c r="I9" s="6">
-        <v>7928496.3963963967</v>
+        <v>8080907.2072072076</v>
       </c>
       <c r="J9" s="6">
-        <v>6422795.4954954954</v>
+        <v>6839135.1351351347</v>
       </c>
       <c r="K9" s="6">
         <v>728783.94594594592</v>
@@ -2681,16 +2684,16 @@
         <v>687205.40540540544</v>
       </c>
       <c r="M9" s="6">
-        <v>0.78260869565217395</v>
+        <v>0.75</v>
       </c>
       <c r="N9" s="6">
-        <v>0.73913043478260865</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6">
-        <v>3000192.7927927929</v>
+        <v>3006183.7837837841</v>
       </c>
       <c r="P9" s="6">
-        <v>1322596.396396396</v>
+        <v>1556854.054054054</v>
       </c>
       <c r="Q9" s="6">
         <v>0</v>
@@ -2705,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="U9" s="6">
-        <v>3000192.7927927929</v>
+        <v>3006183.7837837841</v>
       </c>
       <c r="V9" s="6">
-        <v>1186560.36036036</v>
+        <v>1420818.018018018</v>
       </c>
       <c r="W9" s="6">
         <v>0</v>
@@ -2723,31 +2726,31 @@
         <v>367090.09009009012</v>
       </c>
       <c r="AA9" s="6">
-        <v>135413.51351351349</v>
+        <v>141404.5045045045</v>
       </c>
       <c r="AB9" s="6">
-        <v>342728.82882882882</v>
+        <v>576986.48648648651</v>
       </c>
       <c r="AC9" s="6">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AD9" s="6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AE9" s="6">
-        <v>22609893.62288288</v>
+        <v>23646598.64990991</v>
       </c>
       <c r="AF9" s="6">
-        <v>20463771.45621622</v>
+        <v>21385398.35711712</v>
       </c>
       <c r="AG9" s="6">
         <v>8</v>
       </c>
       <c r="AH9" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI9" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ9" s="6">
         <v>6</v>
@@ -2756,7 +2759,7 @@
         <v>146</v>
       </c>
       <c r="AL9" s="6">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="AM9" s="6">
         <v>0</v>
@@ -2774,7 +2777,7 @@
         <v>146</v>
       </c>
       <c r="AR9" s="6">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="AS9" s="6">
         <v>0</v>
@@ -2792,10 +2795,10 @@
         <v>6</v>
       </c>
       <c r="AX9" s="6">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AY9" s="6">
-        <v>7540540.5405405406</v>
+        <v>7810810.8108108109</v>
       </c>
       <c r="AZ9" s="6">
         <v>4649099.0990990987</v>
@@ -2804,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="BB9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="6">
         <v>1</v>
       </c>
       <c r="BD9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="6">
         <v>1</v>
@@ -2819,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="BG9" s="6">
-        <v>7928496.3963963967</v>
+        <v>8080907.2072072076</v>
       </c>
       <c r="BH9" s="6">
-        <v>6422795.4954954954</v>
+        <v>6839135.1351351347</v>
       </c>
       <c r="BI9" s="6">
         <v>728783.94594594592</v>
@@ -2831,16 +2834,16 @@
         <v>687205.40540540544</v>
       </c>
       <c r="BK9" s="6">
-        <v>5482659.4594594594</v>
+        <v>5595578.3783783782</v>
       </c>
       <c r="BL9" s="6">
-        <v>4626941.4414414419</v>
+        <v>4994239.6396396393</v>
       </c>
       <c r="BM9" s="6">
-        <v>4997490.9909909908</v>
+        <v>5110409.9099099096</v>
       </c>
       <c r="BN9" s="6">
-        <v>4194085.5855855858</v>
+        <v>4561383.7837837841</v>
       </c>
       <c r="BO9" s="6">
         <v>485168.46846846852</v>
@@ -2849,13 +2852,13 @@
         <v>432855.85585585592</v>
       </c>
       <c r="BQ9" s="6">
-        <v>4655628.8288288284</v>
+        <v>4768547.7477477482</v>
       </c>
       <c r="BR9" s="6">
-        <v>3316251.351351351</v>
+        <v>3359584.684684685</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
@@ -2893,10 +2896,10 @@
         <v>68738.738738738743</v>
       </c>
       <c r="M10" s="6">
-        <v>0.21739130434782611</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="N10" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="O10" s="6">
         <v>19549.549549549549</v>
@@ -2947,10 +2950,10 @@
         <v>1</v>
       </c>
       <c r="AE10" s="6">
-        <v>3011746.2581981979</v>
+        <v>3148514.3302702699</v>
       </c>
       <c r="AF10" s="6">
-        <v>2750544.1631531529</v>
+        <v>2845118.7307207212</v>
       </c>
       <c r="AG10" s="6">
         <v>2</v>
@@ -3067,7 +3070,7 @@
         <v>147472.97297297299</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3090,19 +3093,19 @@
         <v>1457427.8648648651</v>
       </c>
       <c r="H11" s="6">
-        <v>1238319.8198198201</v>
+        <v>1317209.9099099101</v>
       </c>
       <c r="I11" s="6">
         <v>1172246.8468468471</v>
       </c>
       <c r="J11" s="6">
-        <v>779073.07207207207</v>
+        <v>839945.14414414414</v>
       </c>
       <c r="K11" s="6">
         <v>285181.01801801799</v>
       </c>
       <c r="L11" s="6">
-        <v>459246.74774774781</v>
+        <v>477264.76576576568</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -3159,10 +3162,10 @@
         <v>3</v>
       </c>
       <c r="AE11" s="6">
-        <v>9352508.0555855855</v>
+        <v>9781697.9654954951</v>
       </c>
       <c r="AF11" s="6">
-        <v>9589708.1880180184</v>
+        <v>9939434.0709009003</v>
       </c>
       <c r="AG11" s="6">
         <v>0</v>
@@ -3222,7 +3225,7 @@
         <v>2792792.7927927929</v>
       </c>
       <c r="AZ11" s="6">
-        <v>1389107.2072072071</v>
+        <v>1569287.387387387</v>
       </c>
       <c r="BA11" s="6">
         <v>0</v>
@@ -3246,40 +3249,40 @@
         <v>1172246.8468468471</v>
       </c>
       <c r="BH11" s="6">
-        <v>779073.07207207207</v>
+        <v>839945.14414414414</v>
       </c>
       <c r="BI11" s="6">
         <v>285181.01801801799</v>
       </c>
       <c r="BJ11" s="6">
-        <v>459246.74774774781</v>
+        <v>477264.76576576568</v>
       </c>
       <c r="BK11" s="6">
         <v>826900.90090090095</v>
       </c>
       <c r="BL11" s="6">
-        <v>703112.61261261266</v>
+        <v>752842.34234234237</v>
       </c>
       <c r="BM11" s="6">
         <v>620351.35135135136</v>
       </c>
       <c r="BN11" s="6">
-        <v>352121.6216216216</v>
+        <v>383833.33333333331</v>
       </c>
       <c r="BO11" s="6">
         <v>206549.54954954961</v>
       </c>
       <c r="BP11" s="6">
-        <v>350990.99099099101</v>
+        <v>369009.00900900899</v>
       </c>
       <c r="BQ11" s="6">
         <v>995285.58558558556</v>
       </c>
       <c r="BR11" s="6">
-        <v>1917481.981981982</v>
+        <v>1949193.693693694</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>955490</v>
       </c>
       <c r="H12" s="6">
-        <v>1494050.054054054</v>
+        <v>1524230.2342342341</v>
       </c>
       <c r="I12" s="6">
         <v>514046.43243243243</v>
@@ -3314,7 +3317,7 @@
         <v>441443.56756756757</v>
       </c>
       <c r="L12" s="6">
-        <v>599121.63063063065</v>
+        <v>629301.81081081077</v>
       </c>
       <c r="M12" s="6">
         <v>0</v>
@@ -3371,10 +3374,10 @@
         <v>9</v>
       </c>
       <c r="AE12" s="6">
-        <v>9598518.9206306301</v>
+        <v>9960379.9927027021</v>
       </c>
       <c r="AF12" s="6">
-        <v>9290513.917117117</v>
+        <v>9644161.7819819823</v>
       </c>
       <c r="AG12" s="6">
         <v>0</v>
@@ -3464,13 +3467,13 @@
         <v>441443.56756756757</v>
       </c>
       <c r="BJ12" s="6">
-        <v>599121.63063063065</v>
+        <v>629301.81081081077</v>
       </c>
       <c r="BK12" s="6">
         <v>686985.58558558556</v>
       </c>
       <c r="BL12" s="6">
-        <v>958067.56756756757</v>
+        <v>988247.74774774769</v>
       </c>
       <c r="BM12" s="6">
         <v>353686.48648648651</v>
@@ -3482,7 +3485,7 @@
         <v>333299.09909909911</v>
       </c>
       <c r="BP12" s="6">
-        <v>493471.17117117118</v>
+        <v>523651.35135135142</v>
       </c>
       <c r="BQ12" s="6">
         <v>23878.37837837838</v>
@@ -3491,7 +3494,7 @@
         <v>171540.5405405405</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -3583,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="AE13" s="6">
-        <v>239101.36684684691</v>
+        <v>249984.86234234241</v>
       </c>
       <c r="AF13" s="6">
-        <v>194159.1145945946</v>
+        <v>203107.24972972969</v>
       </c>
       <c r="AG13" s="6">
         <v>0</v>
@@ -3703,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -3723,34 +3726,34 @@
         <v>44</v>
       </c>
       <c r="G14" s="6">
-        <v>7238832.8558558561</v>
+        <v>7849489.6126126125</v>
       </c>
       <c r="H14" s="6">
-        <v>6878964.0990990987</v>
+        <v>7155185.1891891891</v>
       </c>
       <c r="I14" s="6">
-        <v>5739468.333333333</v>
+        <v>6350125.0900900904</v>
       </c>
       <c r="J14" s="6">
-        <v>5310104.7927927924</v>
+        <v>5544087.1441441439</v>
       </c>
       <c r="K14" s="6">
         <v>1499364.5225225231</v>
       </c>
       <c r="L14" s="6">
-        <v>1568859.306306306</v>
+        <v>1611098.045045045</v>
       </c>
       <c r="M14" s="6">
-        <v>0.69565217391304346</v>
+        <v>0.75</v>
       </c>
       <c r="N14" s="6">
-        <v>0.2608695652173913</v>
+        <v>0.25</v>
       </c>
       <c r="O14" s="6">
-        <v>1315619.8108108109</v>
+        <v>1411699.0900900899</v>
       </c>
       <c r="P14" s="6">
-        <v>1139415.369369369</v>
+        <v>1184460.414414414</v>
       </c>
       <c r="Q14" s="6">
         <v>0</v>
@@ -3765,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="6">
-        <v>1315619.8108108109</v>
+        <v>1328845.036036036</v>
       </c>
       <c r="V14" s="6">
         <v>1044910.864864865</v>
@@ -3777,7 +3780,7 @@
         <v>94504.504504504512</v>
       </c>
       <c r="Y14" s="6">
-        <v>374216.20720720722</v>
+        <v>401243.23423423432</v>
       </c>
       <c r="Z14" s="6">
         <v>573405.43243243243</v>
@@ -3792,16 +3795,16 @@
         <v>31</v>
       </c>
       <c r="AD14" s="6">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AE14" s="6">
-        <v>28325238.945945941</v>
+        <v>29630045.58558559</v>
       </c>
       <c r="AF14" s="6">
-        <v>27890012.016036041</v>
+        <v>28996889.088108111</v>
       </c>
       <c r="AG14" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" s="6">
         <v>0</v>
@@ -3813,7 +3816,7 @@
         <v>6</v>
       </c>
       <c r="AK14" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AL14" s="6">
         <v>20</v>
@@ -3843,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="AU14" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV14" s="6">
         <v>11</v>
@@ -3855,10 +3858,10 @@
         <v>1</v>
       </c>
       <c r="AY14" s="6">
-        <v>4195801.8018018017</v>
+        <v>4745351.3513513505</v>
       </c>
       <c r="AZ14" s="6">
-        <v>4072072.072072072</v>
+        <v>4117117.1171171172</v>
       </c>
       <c r="BA14" s="6">
         <v>0</v>
@@ -3879,43 +3882,43 @@
         <v>0</v>
       </c>
       <c r="BG14" s="6">
-        <v>5739468.333333333</v>
+        <v>6350125.0900900904</v>
       </c>
       <c r="BH14" s="6">
-        <v>5310104.7927927924</v>
+        <v>5544087.1441441439</v>
       </c>
       <c r="BI14" s="6">
         <v>1499364.5225225231</v>
       </c>
       <c r="BJ14" s="6">
-        <v>1568859.306306306</v>
+        <v>1611098.045045045</v>
       </c>
       <c r="BK14" s="6">
-        <v>5172633.333333333</v>
+        <v>5344951.3513513505</v>
       </c>
       <c r="BL14" s="6">
-        <v>5077439.6396396393</v>
+        <v>5235912.6126126125</v>
       </c>
       <c r="BM14" s="6">
-        <v>3831236.9369369368</v>
+        <v>4003554.9549549548</v>
       </c>
       <c r="BN14" s="6">
-        <v>3660385.5855855858</v>
+        <v>3776619.8198198201</v>
       </c>
       <c r="BO14" s="6">
         <v>1341396.396396396</v>
       </c>
       <c r="BP14" s="6">
-        <v>1417054.054054054</v>
+        <v>1459292.7927927929</v>
       </c>
       <c r="BQ14" s="6">
-        <v>2945139.6396396402</v>
+        <v>3090430.630630631</v>
       </c>
       <c r="BR14" s="6">
-        <v>2400087.387387387</v>
+        <v>2474681.981981982</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -3935,34 +3938,34 @@
         <v>44</v>
       </c>
       <c r="G15" s="6">
-        <v>4803652.1081081079</v>
+        <v>4894445.8018018017</v>
       </c>
       <c r="H15" s="6">
-        <v>5246272.9729729732</v>
+        <v>5343562.1621621624</v>
       </c>
       <c r="I15" s="6">
-        <v>4082153.1801801799</v>
+        <v>4172946.8738738741</v>
       </c>
       <c r="J15" s="6">
-        <v>4610198.1981981983</v>
+        <v>4697155.8558558561</v>
       </c>
       <c r="K15" s="6">
         <v>721498.92792792793</v>
       </c>
       <c r="L15" s="6">
-        <v>636074.77477477479</v>
+        <v>646406.30630630627</v>
       </c>
       <c r="M15" s="6">
-        <v>1.2608695652173909</v>
+        <v>1.208333333333333</v>
       </c>
       <c r="N15" s="6">
-        <v>1.956521739130435</v>
+        <v>1.958333333333333</v>
       </c>
       <c r="O15" s="6">
-        <v>2741403.594594595</v>
+        <v>2862682.8738738741</v>
       </c>
       <c r="P15" s="6">
-        <v>2310562.1981981979</v>
+        <v>2472724.3603603598</v>
       </c>
       <c r="Q15" s="6">
         <v>0</v>
@@ -3977,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="U15" s="6">
-        <v>2741403.594594595</v>
+        <v>2862682.8738738741</v>
       </c>
       <c r="V15" s="6">
-        <v>2310562.1981981979</v>
+        <v>2472724.3603603598</v>
       </c>
       <c r="W15" s="6">
         <v>0</v>
@@ -3992,10 +3995,10 @@
         <v>89117.117117117115</v>
       </c>
       <c r="Z15" s="6">
-        <v>1554540.5405405411</v>
+        <v>1716702.702702703</v>
       </c>
       <c r="AA15" s="6">
-        <v>275996.39639639639</v>
+        <v>321491.89189189189</v>
       </c>
       <c r="AB15" s="6">
         <v>671877.51351351349</v>
@@ -4007,10 +4010,10 @@
         <v>227</v>
       </c>
       <c r="AE15" s="6">
-        <v>28759915.316576581</v>
+        <v>30085044.226486489</v>
       </c>
       <c r="AF15" s="6">
-        <v>25763616.042882878</v>
+        <v>27074362.691531532</v>
       </c>
       <c r="AG15" s="6">
         <v>9</v>
@@ -4028,7 +4031,7 @@
         <v>115</v>
       </c>
       <c r="AL15" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM15" s="6">
         <v>0</v>
@@ -4046,7 +4049,7 @@
         <v>115</v>
       </c>
       <c r="AR15" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AS15" s="6">
         <v>0</v>
@@ -4058,7 +4061,7 @@
         <v>2</v>
       </c>
       <c r="AV15" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AW15" s="6">
         <v>4</v>
@@ -4067,10 +4070,10 @@
         <v>40</v>
       </c>
       <c r="AY15" s="6">
-        <v>6383783.7837837841</v>
+        <v>6473873.8738738736</v>
       </c>
       <c r="AZ15" s="6">
-        <v>4711711.7117117113</v>
+        <v>4828828.8288288284</v>
       </c>
       <c r="BA15" s="6">
         <v>1</v>
@@ -4091,28 +4094,28 @@
         <v>0</v>
       </c>
       <c r="BG15" s="6">
-        <v>4082153.1801801799</v>
+        <v>4172946.8738738741</v>
       </c>
       <c r="BH15" s="6">
-        <v>4610198.1981981983</v>
+        <v>4697155.8558558561</v>
       </c>
       <c r="BI15" s="6">
         <v>721498.92792792793</v>
       </c>
       <c r="BJ15" s="6">
-        <v>636074.77477477479</v>
+        <v>646406.30630630627</v>
       </c>
       <c r="BK15" s="6">
-        <v>3956044.1441441439</v>
+        <v>4012553.1531531531</v>
       </c>
       <c r="BL15" s="6">
-        <v>4285404.5045045046</v>
+        <v>4362030.630630631</v>
       </c>
       <c r="BM15" s="6">
-        <v>3386254.054054054</v>
+        <v>3442763.0630630632</v>
       </c>
       <c r="BN15" s="6">
-        <v>3808850.4504504511</v>
+        <v>3885476.576576577</v>
       </c>
       <c r="BO15" s="6">
         <v>569790.09009009006</v>
@@ -4121,13 +4124,13 @@
         <v>476554.05405405402</v>
       </c>
       <c r="BQ15" s="6">
-        <v>3933794.594594595</v>
+        <v>3990303.6036036038</v>
       </c>
       <c r="BR15" s="6">
-        <v>4041694.594594595</v>
+        <v>4146654.054054054</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
@@ -4147,31 +4150,31 @@
         <v>44</v>
       </c>
       <c r="G16" s="6">
-        <v>4759560.7927927924</v>
+        <v>4850101.3423423423</v>
       </c>
       <c r="H16" s="6">
-        <v>4268940.7387387389</v>
+        <v>4441849.5855855858</v>
       </c>
       <c r="I16" s="6">
-        <v>4466247.8378378376</v>
+        <v>4556788.3873873875</v>
       </c>
       <c r="J16" s="6">
-        <v>3833706.315315315</v>
+        <v>3890245.7927927929</v>
       </c>
       <c r="K16" s="6">
         <v>293312.95495495503</v>
       </c>
       <c r="L16" s="6">
-        <v>435234.42342342337</v>
+        <v>551603.79279279278</v>
       </c>
       <c r="M16" s="6">
-        <v>1.3913043478260869</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="N16" s="6">
-        <v>0.91304347826086951</v>
+        <v>0.875</v>
       </c>
       <c r="O16" s="6">
-        <v>2719659.4504504511</v>
+        <v>2814965.7567567569</v>
       </c>
       <c r="P16" s="6">
         <v>2280247.2702702698</v>
@@ -4189,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="6">
-        <v>2674614.405405405</v>
+        <v>2769920.7117117122</v>
       </c>
       <c r="V16" s="6">
         <v>1862995.018018018</v>
@@ -4216,13 +4219,13 @@
         <v>149</v>
       </c>
       <c r="AD16" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE16" s="6">
-        <v>27348512.53288288</v>
+        <v>28661614.217567571</v>
       </c>
       <c r="AF16" s="6">
-        <v>24863295.511441439</v>
+        <v>26025130.250180181</v>
       </c>
       <c r="AG16" s="6">
         <v>10</v>
@@ -4279,10 +4282,10 @@
         <v>29</v>
       </c>
       <c r="AY16" s="6">
-        <v>5852054.0540540544</v>
+        <v>5870072.072072072</v>
       </c>
       <c r="AZ16" s="6">
-        <v>4729729.7297297297</v>
+        <v>4864864.8648648653</v>
       </c>
       <c r="BA16" s="6">
         <v>2</v>
@@ -4303,43 +4306,43 @@
         <v>0</v>
       </c>
       <c r="BG16" s="6">
-        <v>4466247.8378378376</v>
+        <v>4556788.3873873875</v>
       </c>
       <c r="BH16" s="6">
-        <v>3833706.315315315</v>
+        <v>3890245.7927927929</v>
       </c>
       <c r="BI16" s="6">
         <v>293312.95495495503</v>
       </c>
       <c r="BJ16" s="6">
-        <v>435234.42342342337</v>
+        <v>551603.79279279278</v>
       </c>
       <c r="BK16" s="6">
         <v>3359761.2612612611</v>
       </c>
       <c r="BL16" s="6">
-        <v>3127004.5045045051</v>
+        <v>3264846.8468468469</v>
       </c>
       <c r="BM16" s="6">
         <v>3193067.5675675669</v>
       </c>
       <c r="BN16" s="6">
-        <v>2799914.4144144142</v>
+        <v>2821387.387387387</v>
       </c>
       <c r="BO16" s="6">
         <v>166693.6936936937</v>
       </c>
       <c r="BP16" s="6">
-        <v>327090.09009009012</v>
+        <v>443459.45945945953</v>
       </c>
       <c r="BQ16" s="6">
-        <v>3408853.1531531531</v>
+        <v>3462907.2072072071</v>
       </c>
       <c r="BR16" s="6">
-        <v>3293947.7477477482</v>
+        <v>3408591.8918918921</v>
       </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
@@ -4359,28 +4362,28 @@
         <v>44</v>
       </c>
       <c r="G17" s="6">
-        <v>1233983.5225225231</v>
+        <v>1241911.4504504499</v>
       </c>
       <c r="H17" s="6">
-        <v>1174391.8918918921</v>
+        <v>1256469.8378378381</v>
       </c>
       <c r="I17" s="6">
-        <v>604427.92792792793</v>
+        <v>612355.85585585586</v>
       </c>
       <c r="J17" s="6">
-        <v>563052.25225225231</v>
+        <v>583715.31531531527</v>
       </c>
       <c r="K17" s="6">
         <v>629555.59459459456</v>
       </c>
       <c r="L17" s="6">
-        <v>611339.63963963964</v>
+        <v>672754.52252252249</v>
       </c>
       <c r="M17" s="6">
         <v>0</v>
       </c>
       <c r="N17" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="O17" s="6">
         <v>437848.64864864858</v>
@@ -4425,16 +4428,16 @@
         <v>9009.9099099099094</v>
       </c>
       <c r="AC17" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD17" s="6">
         <v>7</v>
       </c>
       <c r="AE17" s="6">
-        <v>9988745.9660360366</v>
+        <v>10444387.47954955</v>
       </c>
       <c r="AF17" s="6">
-        <v>8757579.9997297302</v>
+        <v>9122232.7835135143</v>
       </c>
       <c r="AG17" s="6">
         <v>0</v>
@@ -4494,7 +4497,7 @@
         <v>585585.58558558556</v>
       </c>
       <c r="AZ17" s="6">
-        <v>324324.32432432432</v>
+        <v>594594.59459459456</v>
       </c>
       <c r="BA17" s="6">
         <v>0</v>
@@ -4515,25 +4518,25 @@
         <v>0</v>
       </c>
       <c r="BG17" s="6">
-        <v>604427.92792792793</v>
+        <v>612355.85585585586</v>
       </c>
       <c r="BH17" s="6">
-        <v>563052.25225225231</v>
+        <v>583715.31531531527</v>
       </c>
       <c r="BI17" s="6">
         <v>629555.59459459456</v>
       </c>
       <c r="BJ17" s="6">
-        <v>611339.63963963964</v>
+        <v>672754.52252252249</v>
       </c>
       <c r="BK17" s="6">
-        <v>701108.10810810816</v>
+        <v>709036.03603603609</v>
       </c>
       <c r="BL17" s="6">
-        <v>738417.11711711716</v>
+        <v>754336.03603603609</v>
       </c>
       <c r="BM17" s="6">
-        <v>185700</v>
+        <v>193627.9279279279</v>
       </c>
       <c r="BN17" s="6">
         <v>337863.06306306308</v>
@@ -4542,16 +4545,16 @@
         <v>515408.10810810811</v>
       </c>
       <c r="BP17" s="6">
-        <v>400554.05405405402</v>
+        <v>416472.97297297302</v>
       </c>
       <c r="BQ17" s="6">
-        <v>52004.504504504497</v>
+        <v>59932.432432432433</v>
       </c>
       <c r="BR17" s="6">
-        <v>42929.729729729726</v>
+        <v>51938.738738738743</v>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>68</v>
       </c>
@@ -4589,13 +4592,13 @@
         <v>360081.97297297302</v>
       </c>
       <c r="M18" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="N18" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="O18" s="6">
-        <v>132047.75675675669</v>
+        <v>149254.98198198201</v>
       </c>
       <c r="P18" s="6">
         <v>100000.9009009009</v>
@@ -4613,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="6">
-        <v>132047.75675675669</v>
+        <v>149254.98198198201</v>
       </c>
       <c r="V18" s="6">
         <v>100000.9009009009</v>
@@ -4631,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="6">
-        <v>112707.2162162162</v>
+        <v>129914.44144144141</v>
       </c>
       <c r="AB18" s="6">
         <v>100000.9009009009</v>
@@ -4643,16 +4646,16 @@
         <v>1</v>
       </c>
       <c r="AE18" s="6">
-        <v>8183671.2901801802</v>
+        <v>8559227.0469369367</v>
       </c>
       <c r="AF18" s="6">
-        <v>6630076.9653153149</v>
+        <v>6862230.6860360363</v>
       </c>
       <c r="AG18" s="6">
         <v>1</v>
       </c>
       <c r="AH18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="6">
         <v>0</v>
@@ -4763,7 +4766,7 @@
         <v>254414.41441441441</v>
       </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
@@ -4783,22 +4786,22 @@
         <v>44</v>
       </c>
       <c r="G19" s="6">
-        <v>2037042.0810810809</v>
+        <v>2071789.8198198201</v>
       </c>
       <c r="H19" s="6">
-        <v>2498115.351351351</v>
+        <v>2569444.8828828828</v>
       </c>
       <c r="I19" s="6">
-        <v>1721425.2792792791</v>
+        <v>1756173.018018018</v>
       </c>
       <c r="J19" s="6">
-        <v>2093702.7387387389</v>
+        <v>2130284.5225225231</v>
       </c>
       <c r="K19" s="6">
         <v>315616.80180180178</v>
       </c>
       <c r="L19" s="6">
-        <v>404412.6126126126</v>
+        <v>439160.36036036041</v>
       </c>
       <c r="M19" s="6">
         <v>0</v>
@@ -4807,10 +4810,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="6">
-        <v>254526.14414414411</v>
+        <v>273866.68468468467</v>
       </c>
       <c r="P19" s="6">
-        <v>251488.28828828831</v>
+        <v>296983.78378378379</v>
       </c>
       <c r="Q19" s="6">
         <v>0</v>
@@ -4828,7 +4831,7 @@
         <v>254526.14414414411</v>
       </c>
       <c r="V19" s="6">
-        <v>251488.28828828831</v>
+        <v>296983.78378378379</v>
       </c>
       <c r="W19" s="6">
         <v>0</v>
@@ -4846,7 +4849,7 @@
         <v>131668.47747747751</v>
       </c>
       <c r="AB19" s="6">
-        <v>117118.91891891891</v>
+        <v>162614.41441441441</v>
       </c>
       <c r="AC19" s="6">
         <v>4</v>
@@ -4855,10 +4858,10 @@
         <v>7</v>
       </c>
       <c r="AE19" s="6">
-        <v>14854359.27945946</v>
+        <v>15501767.84702703</v>
       </c>
       <c r="AF19" s="6">
-        <v>13988951.7372973</v>
+        <v>14544321.277837841</v>
       </c>
       <c r="AG19" s="6">
         <v>0</v>
@@ -4873,10 +4876,10 @@
         <v>1</v>
       </c>
       <c r="AK19" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL19" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM19" s="6">
         <v>0</v>
@@ -4894,7 +4897,7 @@
         <v>7</v>
       </c>
       <c r="AR19" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS19" s="6">
         <v>0</v>
@@ -4912,10 +4915,10 @@
         <v>3</v>
       </c>
       <c r="AX19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY19" s="6">
-        <v>1351351.351351351</v>
+        <v>1801801.8018018019</v>
       </c>
       <c r="AZ19" s="6">
         <v>1351351.351351351</v>
@@ -4939,43 +4942,43 @@
         <v>0</v>
       </c>
       <c r="BG19" s="6">
-        <v>1721425.2792792791</v>
+        <v>1756173.018018018</v>
       </c>
       <c r="BH19" s="6">
-        <v>2093702.7387387389</v>
+        <v>2130284.5225225231</v>
       </c>
       <c r="BI19" s="6">
         <v>315616.80180180178</v>
       </c>
       <c r="BJ19" s="6">
-        <v>404412.6126126126</v>
+        <v>439160.36036036041</v>
       </c>
       <c r="BK19" s="6">
-        <v>1437744.1441441439</v>
+        <v>1453663.063063063</v>
       </c>
       <c r="BL19" s="6">
-        <v>1860302.702702703</v>
+        <v>1892140.5405405411</v>
       </c>
       <c r="BM19" s="6">
-        <v>1270167.567567568</v>
+        <v>1286086.4864864859</v>
       </c>
       <c r="BN19" s="6">
-        <v>1668913.5135135141</v>
+        <v>1684832.432432432</v>
       </c>
       <c r="BO19" s="6">
         <v>167576.5765765766</v>
       </c>
       <c r="BP19" s="6">
-        <v>191389.1891891892</v>
+        <v>207308.10810810811</v>
       </c>
       <c r="BQ19" s="6">
-        <v>1176465.7657657659</v>
+        <v>1192384.684684685</v>
       </c>
       <c r="BR19" s="6">
         <v>1362976.576576577</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>68</v>
       </c>
@@ -4998,13 +5001,13 @@
         <v>210511.9279279279</v>
       </c>
       <c r="H20" s="6">
-        <v>168666.66666666669</v>
+        <v>184585.58558558559</v>
       </c>
       <c r="I20" s="6">
         <v>46818.027027027027</v>
       </c>
       <c r="J20" s="6">
-        <v>45495.495495495503</v>
+        <v>61414.414414414423</v>
       </c>
       <c r="K20" s="6">
         <v>163693.90090090089</v>
@@ -5016,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="6">
-        <v>0.17391304347826089</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="O20" s="6">
         <v>0</v>
@@ -5067,10 +5070,10 @@
         <v>1</v>
       </c>
       <c r="AE20" s="6">
-        <v>1774960.017297297</v>
+        <v>1860646.8731531531</v>
       </c>
       <c r="AF20" s="6">
-        <v>1151931.19981982</v>
+        <v>1191199.280900901</v>
       </c>
       <c r="AG20" s="6">
         <v>0</v>
@@ -5154,7 +5157,7 @@
         <v>46818.027027027027</v>
       </c>
       <c r="BH20" s="6">
-        <v>45495.495495495503</v>
+        <v>61414.414414414423</v>
       </c>
       <c r="BI20" s="6">
         <v>163693.90090090089</v>
@@ -5166,13 +5169,13 @@
         <v>144864.86486486491</v>
       </c>
       <c r="BL20" s="6">
-        <v>123171.1711711712</v>
+        <v>139090.09009009009</v>
       </c>
       <c r="BM20" s="6">
         <v>0</v>
       </c>
       <c r="BN20" s="6">
-        <v>0</v>
+        <v>15918.91891891892</v>
       </c>
       <c r="BO20" s="6">
         <v>144864.86486486491</v>
@@ -5184,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="6">
-        <v>162162.16216216219</v>
+        <v>171171.17117117121</v>
       </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>68</v>
       </c>
@@ -5422,31 +5425,31 @@
         <v>1262248.666666667</v>
       </c>
       <c r="H22" s="6">
-        <v>1501836.432432432</v>
+        <v>1976343.5405405411</v>
       </c>
       <c r="I22" s="6">
         <v>876777.47747747751</v>
       </c>
       <c r="J22" s="6">
-        <v>1017450.4504504499</v>
+        <v>1487453.054054054</v>
       </c>
       <c r="K22" s="6">
         <v>385471.18918918917</v>
       </c>
       <c r="L22" s="6">
-        <v>484385.98198198201</v>
+        <v>488890.48648648651</v>
       </c>
       <c r="M22" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="N22" s="6">
-        <v>0.21739130434782611</v>
+        <v>0.25</v>
       </c>
       <c r="O22" s="6">
         <v>970765.7657657658</v>
       </c>
       <c r="P22" s="6">
-        <v>859639.63963963964</v>
+        <v>1265045.045045045</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
@@ -5464,7 +5467,7 @@
         <v>970765.7657657658</v>
       </c>
       <c r="V22" s="6">
-        <v>701531.53153153148</v>
+        <v>1106936.936936937</v>
       </c>
       <c r="W22" s="6">
         <v>0</v>
@@ -5476,7 +5479,7 @@
         <v>54054.054054054053</v>
       </c>
       <c r="Z22" s="6">
-        <v>577702.70270270272</v>
+        <v>983108.10810810816</v>
       </c>
       <c r="AA22" s="6">
         <v>71669.369369369364</v>
@@ -5491,10 +5494,10 @@
         <v>37</v>
       </c>
       <c r="AE22" s="6">
-        <v>18814765.692342341</v>
+        <v>19671552.944594599</v>
       </c>
       <c r="AF22" s="6">
-        <v>15833835.412252249</v>
+        <v>16795544.223063059</v>
       </c>
       <c r="AG22" s="6">
         <v>1</v>
@@ -5512,7 +5515,7 @@
         <v>34</v>
       </c>
       <c r="AL22" s="6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AM22" s="6">
         <v>0</v>
@@ -5530,7 +5533,7 @@
         <v>34</v>
       </c>
       <c r="AR22" s="6">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AS22" s="6">
         <v>0</v>
@@ -5542,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="AV22" s="6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AW22" s="6">
         <v>3</v>
@@ -5560,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="BB22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="6">
         <v>0</v>
@@ -5578,31 +5581,31 @@
         <v>876777.47747747751</v>
       </c>
       <c r="BH22" s="6">
-        <v>1017450.4504504499</v>
+        <v>1487453.054054054</v>
       </c>
       <c r="BI22" s="6">
         <v>385471.18918918917</v>
       </c>
       <c r="BJ22" s="6">
-        <v>484385.98198198201</v>
+        <v>488890.48648648651</v>
       </c>
       <c r="BK22" s="6">
         <v>978345.04504504509</v>
       </c>
       <c r="BL22" s="6">
-        <v>1137090.0900900899</v>
+        <v>1601265.7657657659</v>
       </c>
       <c r="BM22" s="6">
         <v>876777.47747747751</v>
       </c>
       <c r="BN22" s="6">
-        <v>870153.15315315314</v>
+        <v>1329824.324324324</v>
       </c>
       <c r="BO22" s="6">
         <v>101567.5675675676</v>
       </c>
       <c r="BP22" s="6">
-        <v>266936.93693693692</v>
+        <v>271441.44144144142</v>
       </c>
       <c r="BQ22" s="6">
         <v>92983.783783783787</v>
@@ -5611,7 +5614,7 @@
         <v>940090.09009009006</v>
       </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
@@ -5631,13 +5634,13 @@
         <v>44</v>
       </c>
       <c r="G23" s="6">
-        <v>2225614.0990990992</v>
+        <v>2244442.927927928</v>
       </c>
       <c r="H23" s="6">
-        <v>2287675.5855855858</v>
+        <v>2294432.3423423418</v>
       </c>
       <c r="I23" s="6">
-        <v>887589.87387387385</v>
+        <v>906418.70270270272</v>
       </c>
       <c r="J23" s="6">
         <v>1112236.1441441439</v>
@@ -5646,16 +5649,16 @@
         <v>1338024.2252252251</v>
       </c>
       <c r="L23" s="6">
-        <v>1175439.441441441</v>
+        <v>1182196.1981981981</v>
       </c>
       <c r="M23" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="N23" s="6">
-        <v>0.43478260869565222</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O23" s="6">
-        <v>249464.93693693689</v>
+        <v>250257.7297297297</v>
       </c>
       <c r="P23" s="6">
         <v>652478.43243243243</v>
@@ -5673,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="6">
-        <v>249464.93693693689</v>
+        <v>250257.7297297297</v>
       </c>
       <c r="V23" s="6">
         <v>334325.27927927929</v>
@@ -5685,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="6">
-        <v>211423.46846846849</v>
+        <v>212216.2612612613</v>
       </c>
       <c r="Z23" s="6">
         <v>163000.05405405411</v>
@@ -5703,10 +5706,10 @@
         <v>45</v>
       </c>
       <c r="AE23" s="6">
-        <v>16566854.24414414</v>
+        <v>17325830.3972973</v>
       </c>
       <c r="AF23" s="6">
-        <v>17191924.33324324</v>
+        <v>17803416.06297297</v>
       </c>
       <c r="AG23" s="6">
         <v>0</v>
@@ -5787,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="BG23" s="6">
-        <v>887589.87387387385</v>
+        <v>906418.70270270272</v>
       </c>
       <c r="BH23" s="6">
         <v>1112236.1441441439</v>
@@ -5796,13 +5799,13 @@
         <v>1338024.2252252251</v>
       </c>
       <c r="BJ23" s="6">
-        <v>1175439.441441441</v>
+        <v>1182196.1981981981</v>
       </c>
       <c r="BK23" s="6">
         <v>1326174.7747747749</v>
       </c>
       <c r="BL23" s="6">
-        <v>1346438.7387387389</v>
+        <v>1353195.4954954949</v>
       </c>
       <c r="BM23" s="6">
         <v>476606.30630630627</v>
@@ -5814,7 +5817,7 @@
         <v>849568.46846846852</v>
       </c>
       <c r="BP23" s="6">
-        <v>727932.43243243243</v>
+        <v>734689.18918918923</v>
       </c>
       <c r="BQ23" s="6">
         <v>555028.82882882887</v>
@@ -5823,7 +5826,7 @@
         <v>456382.8828828829</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
@@ -5846,31 +5849,31 @@
         <v>1163853.1801801799</v>
       </c>
       <c r="H24" s="6">
-        <v>438627.92792792793</v>
+        <v>499860.36036036041</v>
       </c>
       <c r="I24" s="6">
         <v>1049974.7747747749</v>
       </c>
       <c r="J24" s="6">
-        <v>311600.90090090089</v>
+        <v>354844.14414414408</v>
       </c>
       <c r="K24" s="6">
         <v>113878.4054054054</v>
       </c>
       <c r="L24" s="6">
-        <v>127027.027027027</v>
+        <v>145016.21621621621</v>
       </c>
       <c r="M24" s="6">
         <v>0</v>
       </c>
       <c r="N24" s="6">
-        <v>0.13043478260869559</v>
+        <v>0.125</v>
       </c>
       <c r="O24" s="6">
         <v>65045.045045045037</v>
       </c>
       <c r="P24" s="6">
-        <v>261316.21621621621</v>
+        <v>306361.26126126118</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -5915,10 +5918,10 @@
         <v>5</v>
       </c>
       <c r="AE24" s="6">
-        <v>5491930.3372972971</v>
+        <v>5715598.9048648644</v>
       </c>
       <c r="AF24" s="6">
-        <v>4458673.2721621618</v>
+        <v>4655545.4973873878</v>
       </c>
       <c r="AG24" s="6">
         <v>0</v>
@@ -5978,7 +5981,7 @@
         <v>489639.63963963959</v>
       </c>
       <c r="AZ24" s="6">
-        <v>702702.70270270272</v>
+        <v>747747.74774774769</v>
       </c>
       <c r="BA24" s="6">
         <v>0</v>
@@ -6002,19 +6005,19 @@
         <v>1049974.7747747749</v>
       </c>
       <c r="BH24" s="6">
-        <v>311600.90090090089</v>
+        <v>354844.14414414408</v>
       </c>
       <c r="BI24" s="6">
         <v>113878.4054054054</v>
       </c>
       <c r="BJ24" s="6">
-        <v>127027.027027027</v>
+        <v>145016.21621621621</v>
       </c>
       <c r="BK24" s="6">
         <v>687233.33333333337</v>
       </c>
       <c r="BL24" s="6">
-        <v>323132.43243243243</v>
+        <v>330790.09009009012</v>
       </c>
       <c r="BM24" s="6">
         <v>592183.78378378379</v>
@@ -6026,16 +6029,16 @@
         <v>95049.549549549556</v>
       </c>
       <c r="BP24" s="6">
-        <v>49189.189189189186</v>
+        <v>56846.846846846849</v>
       </c>
       <c r="BQ24" s="6">
         <v>190555.85585585589</v>
       </c>
       <c r="BR24" s="6">
-        <v>477837.83783783781</v>
+        <v>523094.59459459462</v>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>68</v>
       </c>
@@ -6055,16 +6058,16 @@
         <v>44</v>
       </c>
       <c r="G25" s="6">
-        <v>1615579.432432432</v>
+        <v>1621485.7387387389</v>
       </c>
       <c r="H25" s="6">
-        <v>1182528.8288288291</v>
+        <v>1281001.8018018019</v>
       </c>
       <c r="I25" s="6">
-        <v>1247406.306306306</v>
+        <v>1253312.612612613</v>
       </c>
       <c r="J25" s="6">
-        <v>713996.39639639645</v>
+        <v>812469.36936936935</v>
       </c>
       <c r="K25" s="6">
         <v>368173.12612612621</v>
@@ -6073,13 +6076,13 @@
         <v>468532.43243243243</v>
       </c>
       <c r="M25" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="N25" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="O25" s="6">
-        <v>39369.369369369371</v>
+        <v>129459.4594594595</v>
       </c>
       <c r="P25" s="6">
         <v>92747.747747747751</v>
@@ -6097,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="6">
-        <v>39369.369369369371</v>
+        <v>129459.4594594595</v>
       </c>
       <c r="V25" s="6">
         <v>92747.747747747751</v>
@@ -6127,10 +6130,10 @@
         <v>7</v>
       </c>
       <c r="AE25" s="6">
-        <v>11054609.67063063</v>
+        <v>11514908.643603601</v>
       </c>
       <c r="AF25" s="6">
-        <v>11017383.4336036</v>
+        <v>11444214.064234231</v>
       </c>
       <c r="AG25" s="6">
         <v>1</v>
@@ -6187,10 +6190,10 @@
         <v>0</v>
       </c>
       <c r="AY25" s="6">
-        <v>1084234.2342342341</v>
+        <v>1534684.684684685</v>
       </c>
       <c r="AZ25" s="6">
-        <v>1082432.432432432</v>
+        <v>1442792.7927927929</v>
       </c>
       <c r="BA25" s="6">
         <v>0</v>
@@ -6211,10 +6214,10 @@
         <v>0</v>
       </c>
       <c r="BG25" s="6">
-        <v>1247406.306306306</v>
+        <v>1253312.612612613</v>
       </c>
       <c r="BH25" s="6">
-        <v>713996.39639639645</v>
+        <v>812469.36936936935</v>
       </c>
       <c r="BI25" s="6">
         <v>368173.12612612621</v>
@@ -6226,13 +6229,13 @@
         <v>1168815.315315315</v>
       </c>
       <c r="BL25" s="6">
-        <v>818391.89189189184</v>
+        <v>916864.86486486485</v>
       </c>
       <c r="BM25" s="6">
         <v>962328.82882882887</v>
       </c>
       <c r="BN25" s="6">
-        <v>528540.54054054059</v>
+        <v>627013.51351351349</v>
       </c>
       <c r="BO25" s="6">
         <v>206486.48648648651</v>
@@ -6244,10 +6247,10 @@
         <v>760923.42342342343</v>
       </c>
       <c r="BR25" s="6">
-        <v>884549.54954954959</v>
+        <v>945725.22522522521</v>
       </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
@@ -6285,13 +6288,13 @@
         <v>314666.66666666669</v>
       </c>
       <c r="M26" s="6">
-        <v>0.21739130434782611</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="N26" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="O26" s="6">
-        <v>261928.82882882879</v>
+        <v>281269.36936936929</v>
       </c>
       <c r="P26" s="6">
         <v>288246.84684684692</v>
@@ -6339,10 +6342,10 @@
         <v>2</v>
       </c>
       <c r="AE26" s="6">
-        <v>6024515.1977477474</v>
+        <v>6243875.5761261266</v>
       </c>
       <c r="AF26" s="6">
-        <v>5394103.9992792793</v>
+        <v>5620408.287567568</v>
       </c>
       <c r="AG26" s="6">
         <v>3</v>
@@ -6357,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL26" s="6">
         <v>5</v>
@@ -6459,7 +6462,7 @@
         <v>243243.24324324331</v>
       </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>68</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>914196.33333333337</v>
       </c>
       <c r="H27" s="6">
-        <v>813457.65765765763</v>
+        <v>865412.61261261266</v>
       </c>
       <c r="I27" s="6">
         <v>625069.36936936935</v>
@@ -6494,13 +6497,13 @@
         <v>289126.96396396402</v>
       </c>
       <c r="L27" s="6">
-        <v>583213.51351351349</v>
+        <v>635168.46846846852</v>
       </c>
       <c r="M27" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="N27" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="O27" s="6">
         <v>356936.93693693692</v>
@@ -6551,10 +6554,10 @@
         <v>12</v>
       </c>
       <c r="AE27" s="6">
-        <v>11545371.772882881</v>
+        <v>12045250.079189191</v>
       </c>
       <c r="AF27" s="6">
-        <v>11264435.200900899</v>
+        <v>11728387.534234241</v>
       </c>
       <c r="AG27" s="6">
         <v>0</v>
@@ -6644,13 +6647,13 @@
         <v>289126.96396396402</v>
       </c>
       <c r="BJ27" s="6">
-        <v>583213.51351351349</v>
+        <v>635168.46846846852</v>
       </c>
       <c r="BK27" s="6">
         <v>759428.82882882887</v>
       </c>
       <c r="BL27" s="6">
-        <v>522207.20720720722</v>
+        <v>574162.16216216213</v>
       </c>
       <c r="BM27" s="6">
         <v>511274.77477477479</v>
@@ -6662,7 +6665,7 @@
         <v>248154.05405405411</v>
       </c>
       <c r="BP27" s="6">
-        <v>350283.78378378379</v>
+        <v>402238.73873873882</v>
       </c>
       <c r="BQ27" s="6">
         <v>170828.82882882879</v>
@@ -6671,7 +6674,7 @@
         <v>527027.02702702698</v>
       </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>81</v>
       </c>
@@ -6763,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="AE28" s="6">
-        <v>2388794.8736036038</v>
+        <v>2466345.0177477482</v>
       </c>
       <c r="AF28" s="6">
-        <v>2491459.762612612</v>
+        <v>2578451.8617117121</v>
       </c>
       <c r="AG28" s="6">
         <v>0</v>
@@ -6883,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
@@ -6903,28 +6906,28 @@
         <v>44</v>
       </c>
       <c r="G29" s="6">
-        <v>1152343.351351351</v>
+        <v>1175964.972972973</v>
       </c>
       <c r="H29" s="6">
-        <v>1433059.2522522521</v>
+        <v>1486275.4684684679</v>
       </c>
       <c r="I29" s="6">
-        <v>971453.15315315314</v>
+        <v>995074.77477477479</v>
       </c>
       <c r="J29" s="6">
-        <v>1013942.135135135</v>
+        <v>1029861.054054054</v>
       </c>
       <c r="K29" s="6">
         <v>180890.1981981982</v>
       </c>
       <c r="L29" s="6">
-        <v>419117.1171171171</v>
+        <v>456414.41441441438</v>
       </c>
       <c r="M29" s="6">
-        <v>0.43478260869565222</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N29" s="6">
-        <v>0.2608695652173913</v>
+        <v>0.25</v>
       </c>
       <c r="O29" s="6">
         <v>347436.03603603598</v>
@@ -6975,10 +6978,10 @@
         <v>33</v>
       </c>
       <c r="AE29" s="6">
-        <v>8741025.6274774782</v>
+        <v>9091570.8887387384</v>
       </c>
       <c r="AF29" s="6">
-        <v>8029732.4585585576</v>
+        <v>8346488.4765765769</v>
       </c>
       <c r="AG29" s="6">
         <v>6</v>
@@ -7059,43 +7062,43 @@
         <v>1</v>
       </c>
       <c r="BG29" s="6">
-        <v>971453.15315315314</v>
+        <v>995074.77477477479</v>
       </c>
       <c r="BH29" s="6">
-        <v>1013942.135135135</v>
+        <v>1029861.054054054</v>
       </c>
       <c r="BI29" s="6">
         <v>180890.1981981982</v>
       </c>
       <c r="BJ29" s="6">
-        <v>419117.1171171171</v>
+        <v>456414.41441441438</v>
       </c>
       <c r="BK29" s="6">
-        <v>985863.96396396391</v>
+        <v>1009485.585585586</v>
       </c>
       <c r="BL29" s="6">
-        <v>1000507.207207207</v>
+        <v>1053723.423423423</v>
       </c>
       <c r="BM29" s="6">
-        <v>815305.40540540544</v>
+        <v>838927.02702702698</v>
       </c>
       <c r="BN29" s="6">
-        <v>744186.48648648651</v>
+        <v>760105.40540540544</v>
       </c>
       <c r="BO29" s="6">
         <v>170558.55855855861</v>
       </c>
       <c r="BP29" s="6">
-        <v>256320.72072072071</v>
+        <v>293618.01801801799</v>
       </c>
       <c r="BQ29" s="6">
-        <v>1030788.2882882881</v>
+        <v>1054409.9099099101</v>
       </c>
       <c r="BR29" s="6">
         <v>790396.39639639645</v>
       </c>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -7115,34 +7118,34 @@
         <v>44</v>
       </c>
       <c r="G30" s="6">
-        <v>12163205.747747749</v>
+        <v>12618688.630630629</v>
       </c>
       <c r="H30" s="6">
-        <v>9074431.1171171162</v>
+        <v>9384572.7567567565</v>
       </c>
       <c r="I30" s="6">
-        <v>8642613.5225225221</v>
+        <v>9098096.4054054059</v>
       </c>
       <c r="J30" s="6">
-        <v>6606277.4774774779</v>
+        <v>6783172.072072072</v>
       </c>
       <c r="K30" s="6">
         <v>3520592.2252252251</v>
       </c>
       <c r="L30" s="6">
-        <v>2468153.6396396402</v>
+        <v>2601400.684684685</v>
       </c>
       <c r="M30" s="6">
-        <v>2.3913043478260869</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="N30" s="6">
-        <v>2.5217391304347831</v>
+        <v>2.458333333333333</v>
       </c>
       <c r="O30" s="6">
-        <v>5053080.1711711716</v>
+        <v>5947361.2522522518</v>
       </c>
       <c r="P30" s="6">
-        <v>2638560.423423423</v>
+        <v>2709734.297297298</v>
       </c>
       <c r="Q30" s="6">
         <v>152252.25225225219</v>
@@ -7157,10 +7160,10 @@
         <v>0</v>
       </c>
       <c r="U30" s="6">
-        <v>4810737.8288288284</v>
+        <v>4847134.2252252251</v>
       </c>
       <c r="V30" s="6">
-        <v>1883943.306306306</v>
+        <v>1955117.1801801799</v>
       </c>
       <c r="W30" s="6">
         <v>90090.090090090089</v>
@@ -7169,10 +7172,10 @@
         <v>0</v>
       </c>
       <c r="Y30" s="6">
-        <v>0</v>
+        <v>27027.02702702703</v>
       </c>
       <c r="Z30" s="6">
-        <v>0</v>
+        <v>71173.873873873876</v>
       </c>
       <c r="AA30" s="6">
         <v>108109.00900900899</v>
@@ -7184,13 +7187,13 @@
         <v>103</v>
       </c>
       <c r="AD30" s="6">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE30" s="6">
-        <v>112460718.4382883</v>
+        <v>117106363.9337838</v>
       </c>
       <c r="AF30" s="6">
-        <v>98380643.125765771</v>
+        <v>103521032.14378379</v>
       </c>
       <c r="AG30" s="6">
         <v>28</v>
@@ -7205,10 +7208,10 @@
         <v>7</v>
       </c>
       <c r="AK30" s="6">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="AL30" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AM30" s="6">
         <v>3</v>
@@ -7226,7 +7229,7 @@
         <v>222</v>
       </c>
       <c r="AR30" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AS30" s="6">
         <v>10</v>
@@ -7235,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AU30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW30" s="6">
         <v>11</v>
@@ -7247,13 +7250,13 @@
         <v>25</v>
       </c>
       <c r="AY30" s="6">
-        <v>13227972.97297297</v>
+        <v>14218963.963963959</v>
       </c>
       <c r="AZ30" s="6">
-        <v>5521621.6216216218</v>
+        <v>5919819.8198198201</v>
       </c>
       <c r="BA30" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB30" s="6">
         <v>0</v>
@@ -7271,43 +7274,43 @@
         <v>0</v>
       </c>
       <c r="BG30" s="6">
-        <v>8642613.5225225221</v>
+        <v>9098096.4054054059</v>
       </c>
       <c r="BH30" s="6">
-        <v>6606277.4774774779</v>
+        <v>6783172.072072072</v>
       </c>
       <c r="BI30" s="6">
         <v>3520592.2252252251</v>
       </c>
       <c r="BJ30" s="6">
-        <v>2468153.6396396402</v>
+        <v>2601400.684684685</v>
       </c>
       <c r="BK30" s="6">
-        <v>7686663.0630630627</v>
+        <v>8072012.6126126125</v>
       </c>
       <c r="BL30" s="6">
-        <v>5515469.369369369</v>
+        <v>5682962.1621621624</v>
       </c>
       <c r="BM30" s="6">
-        <v>6011557.6576576577</v>
+        <v>6396907.2072072076</v>
       </c>
       <c r="BN30" s="6">
-        <v>4301254.0540540544</v>
+        <v>4366494.594594595</v>
       </c>
       <c r="BO30" s="6">
         <v>1675105.405405405</v>
       </c>
       <c r="BP30" s="6">
-        <v>1214215.315315315</v>
+        <v>1316467.567567568</v>
       </c>
       <c r="BQ30" s="6">
-        <v>8662397.297297297</v>
+        <v>8752100</v>
       </c>
       <c r="BR30" s="6">
-        <v>3522641.441441441</v>
+        <v>3665918.018018018</v>
       </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>50</v>
       </c>
@@ -7327,16 +7330,16 @@
         <v>44</v>
       </c>
       <c r="G31" s="6">
-        <v>1217359.432432432</v>
+        <v>1243546.8198198201</v>
       </c>
       <c r="H31" s="6">
-        <v>1358976.576576577</v>
+        <v>1406183.7837837839</v>
       </c>
       <c r="I31" s="6">
-        <v>958307.20720720722</v>
+        <v>984494.59459459456</v>
       </c>
       <c r="J31" s="6">
-        <v>1005512.612612613</v>
+        <v>1052719.8198198201</v>
       </c>
       <c r="K31" s="6">
         <v>259052.22522522521</v>
@@ -7345,10 +7348,10 @@
         <v>353463.96396396402</v>
       </c>
       <c r="M31" s="6">
-        <v>0.52173913043478259</v>
+        <v>0.5</v>
       </c>
       <c r="N31" s="6">
-        <v>0.17391304347826089</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="O31" s="6">
         <v>510646.84684684692</v>
@@ -7399,16 +7402,16 @@
         <v>15</v>
       </c>
       <c r="AE31" s="6">
-        <v>8876704.0074774772</v>
+        <v>9234088.5029729735</v>
       </c>
       <c r="AF31" s="6">
-        <v>8852715.4403603598</v>
+        <v>9255232.7556756753</v>
       </c>
       <c r="AG31" s="6">
         <v>4</v>
       </c>
       <c r="AH31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="6">
         <v>4</v>
@@ -7459,10 +7462,10 @@
         <v>2</v>
       </c>
       <c r="AY31" s="6">
-        <v>2126126.1261261259</v>
+        <v>2216216.2162162159</v>
       </c>
       <c r="AZ31" s="6">
-        <v>855855.85585585586</v>
+        <v>990990.99099099101</v>
       </c>
       <c r="BA31" s="6">
         <v>0</v>
@@ -7483,10 +7486,10 @@
         <v>0</v>
       </c>
       <c r="BG31" s="6">
-        <v>958307.20720720722</v>
+        <v>984494.59459459456</v>
       </c>
       <c r="BH31" s="6">
-        <v>1005512.612612613</v>
+        <v>1052719.8198198201</v>
       </c>
       <c r="BI31" s="6">
         <v>259052.22522522521</v>
@@ -7495,13 +7498,13 @@
         <v>353463.96396396402</v>
       </c>
       <c r="BK31" s="6">
-        <v>921838.7387387387</v>
+        <v>937694.59459459456</v>
       </c>
       <c r="BL31" s="6">
         <v>884915.31531531527</v>
       </c>
       <c r="BM31" s="6">
-        <v>673118.01801801799</v>
+        <v>688973.87387387385</v>
       </c>
       <c r="BN31" s="6">
         <v>682081.98198198201</v>
@@ -7513,13 +7516,13 @@
         <v>202833.33333333331</v>
       </c>
       <c r="BQ31" s="6">
-        <v>1803415.315315315</v>
+        <v>1819271.1711711709</v>
       </c>
       <c r="BR31" s="6">
         <v>610796.39639639645</v>
       </c>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
@@ -7539,28 +7542,28 @@
         <v>44</v>
       </c>
       <c r="G32" s="6">
-        <v>610547.74774774769</v>
+        <v>795993.69369369373</v>
       </c>
       <c r="H32" s="6">
-        <v>154750.45045045039</v>
+        <v>159254.95495495491</v>
       </c>
       <c r="I32" s="6">
-        <v>588624.32432432438</v>
+        <v>774070.2702702703</v>
       </c>
       <c r="J32" s="6">
-        <v>120002.70270270271</v>
+        <v>124507.2072072072</v>
       </c>
       <c r="K32" s="6">
         <v>21923.423423423421</v>
       </c>
       <c r="L32" s="6">
-        <v>34747.747747747737</v>
+        <v>34747.747747747751</v>
       </c>
       <c r="M32" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="N32" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="O32" s="6">
         <v>377344.14414414408</v>
@@ -7611,10 +7614,10 @@
         <v>14</v>
       </c>
       <c r="AE32" s="6">
-        <v>3529912.501441441</v>
+        <v>3675194.8618018022</v>
       </c>
       <c r="AF32" s="6">
-        <v>2670937.5264864871</v>
+        <v>2810308.373333334</v>
       </c>
       <c r="AG32" s="6">
         <v>0</v>
@@ -7695,28 +7698,28 @@
         <v>0</v>
       </c>
       <c r="BG32" s="6">
-        <v>588624.32432432438</v>
+        <v>774070.2702702703</v>
       </c>
       <c r="BH32" s="6">
-        <v>120002.70270270271</v>
+        <v>124507.2072072072</v>
       </c>
       <c r="BI32" s="6">
         <v>21923.423423423421</v>
       </c>
       <c r="BJ32" s="6">
-        <v>34747.747747747737</v>
+        <v>34747.747747747751</v>
       </c>
       <c r="BK32" s="6">
-        <v>589884.68468468473</v>
+        <v>732087.38738738734</v>
       </c>
       <c r="BL32" s="6">
-        <v>110725.22522522519</v>
+        <v>115229.7297297297</v>
       </c>
       <c r="BM32" s="6">
-        <v>567961.2612612613</v>
+        <v>710163.96396396391</v>
       </c>
       <c r="BN32" s="6">
-        <v>94806.306306306302</v>
+        <v>99310.810810810814</v>
       </c>
       <c r="BO32" s="6">
         <v>21923.423423423421</v>
@@ -7725,13 +7728,13 @@
         <v>15918.91891891892</v>
       </c>
       <c r="BQ32" s="6">
-        <v>1201917.1171171169</v>
+        <v>1344119.8198198201</v>
       </c>
       <c r="BR32" s="6">
-        <v>1949163.063063063</v>
+        <v>1990757.657657658</v>
       </c>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -7751,34 +7754,34 @@
         <v>44</v>
       </c>
       <c r="G33" s="6">
-        <v>6473747.1801801799</v>
+        <v>6588696.7297297297</v>
       </c>
       <c r="H33" s="6">
-        <v>5883797.297297297</v>
+        <v>6201113.5135135138</v>
       </c>
       <c r="I33" s="6">
-        <v>5593417.1171171172</v>
+        <v>5708366.666666667</v>
       </c>
       <c r="J33" s="6">
-        <v>5160598.1981981983</v>
+        <v>5420121.6216216218</v>
       </c>
       <c r="K33" s="6">
         <v>880330.06306306308</v>
       </c>
       <c r="L33" s="6">
-        <v>723199.09909909905</v>
+        <v>780991.89189189184</v>
       </c>
       <c r="M33" s="6">
-        <v>0.39130434782608697</v>
+        <v>0.375</v>
       </c>
       <c r="N33" s="6">
-        <v>0.13043478260869559</v>
+        <v>0.125</v>
       </c>
       <c r="O33" s="6">
-        <v>617457.65765765763</v>
+        <v>632372.97297297302</v>
       </c>
       <c r="P33" s="6">
-        <v>177838.7387387387</v>
+        <v>281037.83783783781</v>
       </c>
       <c r="Q33" s="6">
         <v>0</v>
@@ -7793,10 +7796,10 @@
         <v>0</v>
       </c>
       <c r="U33" s="6">
-        <v>617457.65765765763</v>
+        <v>632372.97297297302</v>
       </c>
       <c r="V33" s="6">
-        <v>110090.99099099101</v>
+        <v>213290.09009009009</v>
       </c>
       <c r="W33" s="6">
         <v>0</v>
@@ -7808,25 +7811,25 @@
         <v>0</v>
       </c>
       <c r="Z33" s="6">
-        <v>0</v>
+        <v>54054.054054054053</v>
       </c>
       <c r="AA33" s="6">
-        <v>86668.468468468462</v>
+        <v>95677.477477477471</v>
       </c>
       <c r="AB33" s="6">
-        <v>54505.405405405407</v>
+        <v>103650.4504504504</v>
       </c>
       <c r="AC33" s="6">
         <v>51</v>
       </c>
       <c r="AD33" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE33" s="6">
-        <v>25864202.775045041</v>
+        <v>27047408.018288288</v>
       </c>
       <c r="AF33" s="6">
-        <v>22238944.874504499</v>
+        <v>23156644.523153149</v>
       </c>
       <c r="AG33" s="6">
         <v>4</v>
@@ -7844,7 +7847,7 @@
         <v>25</v>
       </c>
       <c r="AL33" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM33" s="6">
         <v>0</v>
@@ -7862,25 +7865,25 @@
         <v>25</v>
       </c>
       <c r="AR33" s="6">
+        <v>5</v>
+      </c>
+      <c r="AS33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="6">
         <v>2</v>
-      </c>
-      <c r="AS33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="6">
-        <v>0</v>
       </c>
       <c r="AW33" s="6">
         <v>2</v>
       </c>
       <c r="AX33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY33" s="6">
         <v>3055855.8558558561</v>
@@ -7907,43 +7910,43 @@
         <v>0</v>
       </c>
       <c r="BG33" s="6">
-        <v>5593417.1171171172</v>
+        <v>5708366.666666667</v>
       </c>
       <c r="BH33" s="6">
-        <v>5160598.1981981983</v>
+        <v>5420121.6216216218</v>
       </c>
       <c r="BI33" s="6">
         <v>880330.06306306308</v>
       </c>
       <c r="BJ33" s="6">
-        <v>723199.09909909905</v>
+        <v>780991.89189189184</v>
       </c>
       <c r="BK33" s="6">
-        <v>3866979.2792792791</v>
+        <v>3920195.4954954949</v>
       </c>
       <c r="BL33" s="6">
-        <v>3619905.405405405</v>
+        <v>3782356.7567567569</v>
       </c>
       <c r="BM33" s="6">
-        <v>3297081.981981982</v>
+        <v>3350298.1981981979</v>
       </c>
       <c r="BN33" s="6">
-        <v>3171718.9189189188</v>
+        <v>3276377.4774774769</v>
       </c>
       <c r="BO33" s="6">
         <v>569897.29729729728</v>
       </c>
       <c r="BP33" s="6">
-        <v>448186.48648648651</v>
+        <v>505979.27927927929</v>
       </c>
       <c r="BQ33" s="6">
-        <v>2468600.9009009008</v>
+        <v>2521817.1171171172</v>
       </c>
       <c r="BR33" s="6">
-        <v>893901.80180180178</v>
+        <v>898406.30630630627</v>
       </c>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
@@ -7966,31 +7969,31 @@
         <v>1304891.2342342341</v>
       </c>
       <c r="H34" s="6">
-        <v>1910359.4594594589</v>
+        <v>1970540.5405405411</v>
       </c>
       <c r="I34" s="6">
         <v>546571.17117117113</v>
       </c>
       <c r="J34" s="6">
-        <v>718318.91891891893</v>
+        <v>746157.65765765763</v>
       </c>
       <c r="K34" s="6">
         <v>758320.06306306308</v>
       </c>
       <c r="L34" s="6">
-        <v>1192040.5405405411</v>
+        <v>1224382.8828828831</v>
       </c>
       <c r="M34" s="6">
         <v>0</v>
       </c>
       <c r="N34" s="6">
-        <v>0.17391304347826089</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="O34" s="6">
-        <v>167990.09009009009</v>
+        <v>204027.02702702701</v>
       </c>
       <c r="P34" s="6">
-        <v>1391876.576576577</v>
+        <v>1420030.630630631</v>
       </c>
       <c r="Q34" s="6">
         <v>0</v>
@@ -8005,10 +8008,10 @@
         <v>0</v>
       </c>
       <c r="U34" s="6">
-        <v>167990.09009009009</v>
+        <v>195017.1171171171</v>
       </c>
       <c r="V34" s="6">
-        <v>1391876.576576577</v>
+        <v>1420030.630630631</v>
       </c>
       <c r="W34" s="6">
         <v>0</v>
@@ -8017,16 +8020,16 @@
         <v>0</v>
       </c>
       <c r="Y34" s="6">
-        <v>72072.072072072071</v>
+        <v>99099.099099099098</v>
       </c>
       <c r="Z34" s="6">
         <v>72072.072072072071</v>
       </c>
       <c r="AA34" s="6">
-        <v>31532.43243243243</v>
+        <v>40542.342342342337</v>
       </c>
       <c r="AB34" s="6">
-        <v>1175074.7747747749</v>
+        <v>1203228.8288288291</v>
       </c>
       <c r="AC34" s="6">
         <v>26</v>
@@ -8035,16 +8038,16 @@
         <v>80</v>
       </c>
       <c r="AE34" s="6">
-        <v>20205628.110090092</v>
+        <v>21131084.010990988</v>
       </c>
       <c r="AF34" s="6">
-        <v>20979519.05054054</v>
+        <v>21853940.97846847</v>
       </c>
       <c r="AG34" s="6">
         <v>0</v>
       </c>
       <c r="AH34" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI34" s="6">
         <v>0</v>
@@ -8053,10 +8056,10 @@
         <v>0</v>
       </c>
       <c r="AK34" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL34" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM34" s="6">
         <v>0</v>
@@ -8074,7 +8077,7 @@
         <v>4</v>
       </c>
       <c r="AR34" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AS34" s="6">
         <v>0</v>
@@ -8089,10 +8092,10 @@
         <v>1</v>
       </c>
       <c r="AW34" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX34" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AY34" s="6">
         <v>180180.18018018021</v>
@@ -8122,31 +8125,31 @@
         <v>546571.17117117113</v>
       </c>
       <c r="BH34" s="6">
-        <v>718318.91891891893</v>
+        <v>746157.65765765763</v>
       </c>
       <c r="BI34" s="6">
         <v>758320.06306306308</v>
       </c>
       <c r="BJ34" s="6">
-        <v>1192040.5405405411</v>
+        <v>1224382.8828828831</v>
       </c>
       <c r="BK34" s="6">
         <v>800330.63063063065</v>
       </c>
       <c r="BL34" s="6">
-        <v>954781.08108108107</v>
+        <v>977304.5045045045</v>
       </c>
       <c r="BM34" s="6">
         <v>442243.24324324331</v>
       </c>
       <c r="BN34" s="6">
-        <v>628207.20720720722</v>
+        <v>637217.11711711716</v>
       </c>
       <c r="BO34" s="6">
         <v>358087.3873873874</v>
       </c>
       <c r="BP34" s="6">
-        <v>326573.87387387379</v>
+        <v>340087.3873873874</v>
       </c>
       <c r="BQ34" s="6">
         <v>248288.28828828831</v>
@@ -8155,7 +8158,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -8175,16 +8178,16 @@
         <v>44</v>
       </c>
       <c r="G35" s="6">
-        <v>2289560.558558559</v>
+        <v>2359745.2432432431</v>
       </c>
       <c r="H35" s="6">
-        <v>1931350.4504504499</v>
+        <v>1979282.8828828831</v>
       </c>
       <c r="I35" s="6">
-        <v>2179918.0270270272</v>
+        <v>2250102.7117117122</v>
       </c>
       <c r="J35" s="6">
-        <v>1799995.4954954949</v>
+        <v>1847927.927927928</v>
       </c>
       <c r="K35" s="6">
         <v>109642.53153153149</v>
@@ -8193,16 +8196,16 @@
         <v>131354.95495495491</v>
       </c>
       <c r="M35" s="6">
-        <v>0.13043478260869559</v>
+        <v>0.125</v>
       </c>
       <c r="N35" s="6">
-        <v>0.13043478260869559</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="O35" s="6">
-        <v>327134.24324324331</v>
+        <v>348060.36936936929</v>
       </c>
       <c r="P35" s="6">
-        <v>869506.30630630627</v>
+        <v>908200</v>
       </c>
       <c r="Q35" s="6">
         <v>0</v>
@@ -8217,10 +8220,10 @@
         <v>0</v>
       </c>
       <c r="U35" s="6">
-        <v>327134.24324324331</v>
+        <v>328719.82882882882</v>
       </c>
       <c r="V35" s="6">
-        <v>869506.30630630627</v>
+        <v>908200</v>
       </c>
       <c r="W35" s="6">
         <v>0</v>
@@ -8244,13 +8247,13 @@
         <v>11</v>
       </c>
       <c r="AD35" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AE35" s="6">
-        <v>15375334.289639641</v>
+        <v>16064047.983333331</v>
       </c>
       <c r="AF35" s="6">
-        <v>14701923.9327027</v>
+        <v>15300101.202972971</v>
       </c>
       <c r="AG35" s="6">
         <v>1</v>
@@ -8265,10 +8268,10 @@
         <v>5</v>
       </c>
       <c r="AK35" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL35" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AM35" s="6">
         <v>0</v>
@@ -8286,7 +8289,7 @@
         <v>11</v>
       </c>
       <c r="AR35" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AS35" s="6">
         <v>0</v>
@@ -8331,10 +8334,10 @@
         <v>0</v>
       </c>
       <c r="BG35" s="6">
-        <v>2179918.0270270272</v>
+        <v>2250102.7117117122</v>
       </c>
       <c r="BH35" s="6">
-        <v>1799995.4954954949</v>
+        <v>1847927.927927928</v>
       </c>
       <c r="BI35" s="6">
         <v>109642.53153153149</v>
@@ -8343,16 +8346,16 @@
         <v>131354.95495495491</v>
       </c>
       <c r="BK35" s="6">
-        <v>1625427.027027027</v>
+        <v>1695611.7117117119</v>
       </c>
       <c r="BL35" s="6">
-        <v>1681674.7747747749</v>
+        <v>1729607.2072072071</v>
       </c>
       <c r="BM35" s="6">
-        <v>1544945.045045045</v>
+        <v>1615129.7297297299</v>
       </c>
       <c r="BN35" s="6">
-        <v>1581314.414414414</v>
+        <v>1629246.8468468471</v>
       </c>
       <c r="BO35" s="6">
         <v>80481.981981981982</v>
@@ -8361,13 +8364,13 @@
         <v>100360.3603603604</v>
       </c>
       <c r="BQ35" s="6">
-        <v>1395101.8018018019</v>
+        <v>1465286.4864864859</v>
       </c>
       <c r="BR35" s="6">
-        <v>1541274.7747747749</v>
+        <v>1553738.7387387389</v>
       </c>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>68</v>
       </c>
@@ -8387,34 +8390,34 @@
         <v>44</v>
       </c>
       <c r="G36" s="6">
-        <v>9666783.7567567565</v>
+        <v>10060260.33333333</v>
       </c>
       <c r="H36" s="6">
-        <v>10655583.162162161</v>
+        <v>11023374.153153149</v>
       </c>
       <c r="I36" s="6">
-        <v>8783345.9549549557</v>
+        <v>9176822.5315315314</v>
       </c>
       <c r="J36" s="6">
-        <v>9493674.9639639631</v>
+        <v>9845610.0990990996</v>
       </c>
       <c r="K36" s="6">
         <v>883437.80180180178</v>
       </c>
       <c r="L36" s="6">
-        <v>1161908.1981981981</v>
+        <v>1177764.054054054</v>
       </c>
       <c r="M36" s="6">
-        <v>1.7391304347826091</v>
+        <v>1.708333333333333</v>
       </c>
       <c r="N36" s="6">
-        <v>2.3913043478260869</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O36" s="6">
-        <v>5251316.2162162159</v>
+        <v>5479098.1981981983</v>
       </c>
       <c r="P36" s="6">
-        <v>5750980.2072072076</v>
+        <v>5790320.7477477482</v>
       </c>
       <c r="Q36" s="6">
         <v>29729.72972972973</v>
@@ -8429,10 +8432,10 @@
         <v>0</v>
       </c>
       <c r="U36" s="6">
-        <v>5088550.4504504502</v>
+        <v>5250624.3243243247</v>
       </c>
       <c r="V36" s="6">
-        <v>5132061.2882882878</v>
+        <v>5171401.8288288284</v>
       </c>
       <c r="W36" s="6">
         <v>42945.945945945947</v>
@@ -8441,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="6">
-        <v>1369554.054054054</v>
+        <v>1506854.054054054</v>
       </c>
       <c r="Z36" s="6">
         <v>4331221.6486486495</v>
@@ -8453,16 +8456,16 @@
         <v>109472.0720720721</v>
       </c>
       <c r="AC36" s="6">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD36" s="6">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE36" s="6">
-        <v>57612886.876126133</v>
+        <v>60140093.317567557</v>
       </c>
       <c r="AF36" s="6">
-        <v>53113868.6581982</v>
+        <v>55396872.342882879</v>
       </c>
       <c r="AG36" s="6">
         <v>13</v>
@@ -8477,10 +8480,10 @@
         <v>11</v>
       </c>
       <c r="AK36" s="6">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL36" s="6">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM36" s="6">
         <v>1</v>
@@ -8498,7 +8501,7 @@
         <v>208</v>
       </c>
       <c r="AR36" s="6">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AS36" s="6">
         <v>1</v>
@@ -8507,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AU36" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AV36" s="6">
         <v>137</v>
@@ -8519,10 +8522,10 @@
         <v>5</v>
       </c>
       <c r="AY36" s="6">
-        <v>9950000</v>
+        <v>10328378.37837838</v>
       </c>
       <c r="AZ36" s="6">
-        <v>11627477.47747748</v>
+        <v>11717567.56756757</v>
       </c>
       <c r="BA36" s="6">
         <v>3</v>
@@ -8543,43 +8546,43 @@
         <v>0</v>
       </c>
       <c r="BG36" s="6">
-        <v>8783345.9549549557</v>
+        <v>9176822.5315315314</v>
       </c>
       <c r="BH36" s="6">
-        <v>9493674.9639639631</v>
+        <v>9845610.0990990996</v>
       </c>
       <c r="BI36" s="6">
         <v>883437.80180180178</v>
       </c>
       <c r="BJ36" s="6">
-        <v>1161908.1981981981</v>
+        <v>1177764.054054054</v>
       </c>
       <c r="BK36" s="6">
-        <v>7176333.333333333</v>
+        <v>7545074.7747747749</v>
       </c>
       <c r="BL36" s="6">
-        <v>8269027.927927928</v>
+        <v>8570649.5495495498</v>
       </c>
       <c r="BM36" s="6">
-        <v>6535666.666666667</v>
+        <v>6904408.1081081079</v>
       </c>
       <c r="BN36" s="6">
-        <v>7384683.7837837841</v>
+        <v>7670449.5495495498</v>
       </c>
       <c r="BO36" s="6">
         <v>640666.66666666663</v>
       </c>
       <c r="BP36" s="6">
-        <v>884344.14414414414</v>
+        <v>900200</v>
       </c>
       <c r="BQ36" s="6">
-        <v>6662748.6486486495</v>
+        <v>7058517.1171171172</v>
       </c>
       <c r="BR36" s="6">
-        <v>9690099.0990990996</v>
+        <v>10041711.71171171</v>
       </c>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>93</v>
       </c>
@@ -8599,16 +8602,16 @@
         <v>44</v>
       </c>
       <c r="G37" s="6">
-        <v>5066966.9009009013</v>
+        <v>5112313.7477477482</v>
       </c>
       <c r="H37" s="6">
-        <v>3858059.4594594589</v>
+        <v>4011267.5675675669</v>
       </c>
       <c r="I37" s="6">
-        <v>3967040.5495495489</v>
+        <v>4012387.3963963962</v>
       </c>
       <c r="J37" s="6">
-        <v>2716681.0810810812</v>
+        <v>2869889.1891891891</v>
       </c>
       <c r="K37" s="6">
         <v>1099926.351351351</v>
@@ -8617,13 +8620,13 @@
         <v>1141378.378378378</v>
       </c>
       <c r="M37" s="6">
-        <v>1.130434782608696</v>
+        <v>1.125</v>
       </c>
       <c r="N37" s="6">
-        <v>0.47826086956521741</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="O37" s="6">
-        <v>4312551.3423423423</v>
+        <v>4477803.6126126125</v>
       </c>
       <c r="P37" s="6">
         <v>965541.44144144142</v>
@@ -8641,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="6">
-        <v>3821769.3603603598</v>
+        <v>3957291.9009009008</v>
       </c>
       <c r="V37" s="6">
         <v>748478.37837837834</v>
@@ -8665,16 +8668,16 @@
         <v>264084.68468468467</v>
       </c>
       <c r="AC37" s="6">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AD37" s="6">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AE37" s="6">
-        <v>38985947.203963973</v>
+        <v>40699486.97873874</v>
       </c>
       <c r="AF37" s="6">
-        <v>37962497.642342336</v>
+        <v>39767017.21891892</v>
       </c>
       <c r="AG37" s="6">
         <v>5</v>
@@ -8686,10 +8689,10 @@
         <v>5</v>
       </c>
       <c r="AJ37" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK37" s="6">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL37" s="6">
         <v>19</v>
@@ -8734,7 +8737,7 @@
         <v>1549549.5495495501</v>
       </c>
       <c r="AZ37" s="6">
-        <v>5117117.1171171172</v>
+        <v>5207207.2072072076</v>
       </c>
       <c r="BA37" s="6">
         <v>3</v>
@@ -8755,10 +8758,10 @@
         <v>0</v>
       </c>
       <c r="BG37" s="6">
-        <v>3967040.5495495489</v>
+        <v>4012387.3963963962</v>
       </c>
       <c r="BH37" s="6">
-        <v>2716681.0810810812</v>
+        <v>2869889.1891891891</v>
       </c>
       <c r="BI37" s="6">
         <v>1099926.351351351</v>
@@ -8767,16 +8770,16 @@
         <v>1141378.378378378</v>
       </c>
       <c r="BK37" s="6">
-        <v>3884681.981981982</v>
+        <v>3930028.8288288289</v>
       </c>
       <c r="BL37" s="6">
-        <v>2903511.7117117122</v>
+        <v>3050813.5135135129</v>
       </c>
       <c r="BM37" s="6">
-        <v>3222132.4324324331</v>
+        <v>3267479.2792792791</v>
       </c>
       <c r="BN37" s="6">
-        <v>1993581.981981982</v>
+        <v>2140883.7837837841</v>
       </c>
       <c r="BO37" s="6">
         <v>662549.54954954959</v>
@@ -8785,13 +8788,13 @@
         <v>909929.7297297297</v>
       </c>
       <c r="BQ37" s="6">
-        <v>1185363.963963964</v>
+        <v>1200981.0810810809</v>
       </c>
       <c r="BR37" s="6">
-        <v>1723810.8108108109</v>
+        <v>1919265.7657657659</v>
       </c>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>93</v>
       </c>
@@ -8811,31 +8814,31 @@
         <v>44</v>
       </c>
       <c r="G38" s="6">
-        <v>2805963.441441441</v>
+        <v>3026337.315315315</v>
       </c>
       <c r="H38" s="6">
-        <v>2501786.0630630632</v>
+        <v>2674061.0450450452</v>
       </c>
       <c r="I38" s="6">
-        <v>1749578.378378378</v>
+        <v>1969952.2522522521</v>
       </c>
       <c r="J38" s="6">
-        <v>1670283.7837837839</v>
+        <v>1823729.7297297299</v>
       </c>
       <c r="K38" s="6">
         <v>1056385.063063063</v>
       </c>
       <c r="L38" s="6">
-        <v>831502.27927927929</v>
+        <v>850331.31531531527</v>
       </c>
       <c r="M38" s="6">
-        <v>1.2608695652173909</v>
+        <v>1.208333333333333</v>
       </c>
       <c r="N38" s="6">
-        <v>0.56521739130434789</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O38" s="6">
-        <v>1033266.666666667</v>
+        <v>1061769.369369369</v>
       </c>
       <c r="P38" s="6">
         <v>890462.25225225231</v>
@@ -8853,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="6">
-        <v>758041.44144144142</v>
+        <v>771708.10810810816</v>
       </c>
       <c r="V38" s="6">
         <v>418536.93693693692</v>
@@ -8871,22 +8874,22 @@
         <v>0</v>
       </c>
       <c r="AA38" s="6">
-        <v>13514.41441441441</v>
+        <v>24009.909909909911</v>
       </c>
       <c r="AB38" s="6">
         <v>62933.333333333343</v>
       </c>
       <c r="AC38" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD38" s="6">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AE38" s="6">
-        <v>36523802.478378378</v>
+        <v>38387006.127027027</v>
       </c>
       <c r="AF38" s="6">
-        <v>31931352.38774775</v>
+        <v>33611344.820180178</v>
       </c>
       <c r="AG38" s="6">
         <v>7</v>
@@ -8901,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL38" s="6">
         <v>14</v>
@@ -8943,7 +8946,7 @@
         <v>2</v>
       </c>
       <c r="AY38" s="6">
-        <v>1558558.558558559</v>
+        <v>1756756.7567567569</v>
       </c>
       <c r="AZ38" s="6">
         <v>576576.57657657657</v>
@@ -8967,28 +8970,28 @@
         <v>0</v>
       </c>
       <c r="BG38" s="6">
-        <v>1749578.378378378</v>
+        <v>1969952.2522522521</v>
       </c>
       <c r="BH38" s="6">
-        <v>1670283.7837837839</v>
+        <v>1823729.7297297299</v>
       </c>
       <c r="BI38" s="6">
         <v>1056385.063063063</v>
       </c>
       <c r="BJ38" s="6">
-        <v>831502.27927927929</v>
+        <v>850331.31531531527</v>
       </c>
       <c r="BK38" s="6">
-        <v>1848778.378378378</v>
+        <v>2031494.594594595</v>
       </c>
       <c r="BL38" s="6">
-        <v>1572127.927927928</v>
+        <v>1725573.8738738741</v>
       </c>
       <c r="BM38" s="6">
-        <v>1347751.351351351</v>
+        <v>1530467.567567568</v>
       </c>
       <c r="BN38" s="6">
-        <v>1066907.2072072071</v>
+        <v>1220353.1531531529</v>
       </c>
       <c r="BO38" s="6">
         <v>501027.02702702698</v>
@@ -8997,10 +9000,10 @@
         <v>505220.72072072071</v>
       </c>
       <c r="BQ38" s="6">
-        <v>1345603.603603604</v>
+        <v>1555346.8468468471</v>
       </c>
       <c r="BR38" s="6">
-        <v>597100</v>
+        <v>621502.70270270272</v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -9023,34 +9026,34 @@
         <v>44</v>
       </c>
       <c r="G39" s="6">
-        <v>16082558.423423421</v>
+        <v>16907953.018018018</v>
       </c>
       <c r="H39" s="6">
-        <v>13363315.765765769</v>
+        <v>13955170.72072072</v>
       </c>
       <c r="I39" s="6">
-        <v>13611004.54954955</v>
+        <v>14436399.14414414</v>
       </c>
       <c r="J39" s="6">
-        <v>10549221.675675681</v>
+        <v>11033355.90990991</v>
       </c>
       <c r="K39" s="6">
         <v>2471553.8738738741</v>
       </c>
       <c r="L39" s="6">
-        <v>2814094.0900900899</v>
+        <v>2921814.8108108109</v>
       </c>
       <c r="M39" s="6">
-        <v>2.304347826086957</v>
+        <v>2.25</v>
       </c>
       <c r="N39" s="6">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="O39" s="6">
-        <v>4709800.0090090092</v>
+        <v>4828841.4504504502</v>
       </c>
       <c r="P39" s="6">
-        <v>4548649.5495495498</v>
+        <v>4792016.2162162159</v>
       </c>
       <c r="Q39" s="6">
         <v>0</v>
@@ -9065,10 +9068,10 @@
         <v>0</v>
       </c>
       <c r="U39" s="6">
-        <v>4709800.0090090092</v>
+        <v>4729741.4504504502</v>
       </c>
       <c r="V39" s="6">
-        <v>3936270.2702702698</v>
+        <v>4179636.9369369368</v>
       </c>
       <c r="W39" s="6">
         <v>0</v>
@@ -9077,46 +9080,46 @@
         <v>107226.1261261261</v>
       </c>
       <c r="Y39" s="6">
-        <v>2543105.405405405</v>
+        <v>2549096.3963963962</v>
       </c>
       <c r="Z39" s="6">
-        <v>2677558.558558559</v>
+        <v>2884885.5855855858</v>
       </c>
       <c r="AA39" s="6">
-        <v>408247.75675675669</v>
+        <v>507347.75675675669</v>
       </c>
       <c r="AB39" s="6">
-        <v>896500</v>
+        <v>932539.63963963964</v>
       </c>
       <c r="AC39" s="6">
         <v>126</v>
       </c>
       <c r="AD39" s="6">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AE39" s="6">
-        <v>71741666.625855863</v>
+        <v>74755310.229459465</v>
       </c>
       <c r="AF39" s="6">
-        <v>67023779.908108108</v>
+        <v>70182058.763963968</v>
       </c>
       <c r="AG39" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH39" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI39" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ39" s="6">
         <v>19</v>
       </c>
       <c r="AK39" s="6">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL39" s="6">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AM39" s="6">
         <v>0</v>
@@ -9134,7 +9137,7 @@
         <v>151</v>
       </c>
       <c r="AR39" s="6">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AS39" s="6">
         <v>0</v>
@@ -9146,19 +9149,19 @@
         <v>56</v>
       </c>
       <c r="AV39" s="6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AW39" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX39" s="6">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AY39" s="6">
-        <v>13907207.20720721</v>
+        <v>15303603.6036036</v>
       </c>
       <c r="AZ39" s="6">
-        <v>11868468.46846847</v>
+        <v>12138738.73873874</v>
       </c>
       <c r="BA39" s="6">
         <v>2</v>
@@ -9179,43 +9182,43 @@
         <v>1</v>
       </c>
       <c r="BG39" s="6">
-        <v>13611004.54954955</v>
+        <v>14436399.14414414</v>
       </c>
       <c r="BH39" s="6">
-        <v>10549221.675675681</v>
+        <v>11033355.90990991</v>
       </c>
       <c r="BI39" s="6">
         <v>2471553.8738738741</v>
       </c>
       <c r="BJ39" s="6">
-        <v>2814094.0900900899</v>
+        <v>2921814.8108108109</v>
       </c>
       <c r="BK39" s="6">
-        <v>10387354.05405405</v>
+        <v>10754370.270270269</v>
       </c>
       <c r="BL39" s="6">
-        <v>10241806.30630631</v>
+        <v>10777174.774774769</v>
       </c>
       <c r="BM39" s="6">
-        <v>8519894.5945945941</v>
+        <v>8886910.81081081</v>
       </c>
       <c r="BN39" s="6">
-        <v>7941143.2432432435</v>
+        <v>8387619.8198198201</v>
       </c>
       <c r="BO39" s="6">
         <v>1867459.4594594589</v>
       </c>
       <c r="BP39" s="6">
-        <v>2300663.0630630632</v>
+        <v>2389554.9549549548</v>
       </c>
       <c r="BQ39" s="6">
-        <v>9718450.4504504502</v>
+        <v>10346727.02702703</v>
       </c>
       <c r="BR39" s="6">
-        <v>8829863.0630630627</v>
+        <v>9217570.2702702694</v>
       </c>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
@@ -9253,10 +9256,10 @@
         <v>237357.66666666669</v>
       </c>
       <c r="M40" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="N40" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="O40" s="6">
         <v>145496.39639639639</v>
@@ -9307,10 +9310,10 @@
         <v>7</v>
       </c>
       <c r="AE40" s="6">
-        <v>4748115.0659459457</v>
+        <v>5006029.4082882879</v>
       </c>
       <c r="AF40" s="6">
-        <v>4959058.9233333329</v>
+        <v>5128485.7972072074</v>
       </c>
       <c r="AG40" s="6">
         <v>0</v>
@@ -9427,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
@@ -9468,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>0.125</v>
       </c>
       <c r="O41" s="6">
         <v>154279.27927927929</v>
@@ -9519,16 +9522,16 @@
         <v>21</v>
       </c>
       <c r="AE41" s="6">
-        <v>10144712.858108111</v>
+        <v>10613817.813063061</v>
       </c>
       <c r="AF41" s="6">
-        <v>9591543.8620720729</v>
+        <v>10014479.66387387</v>
       </c>
       <c r="AG41" s="6">
         <v>0</v>
       </c>
       <c r="AH41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" s="6">
         <v>0</v>
@@ -9639,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
@@ -9659,34 +9662,34 @@
         <v>44</v>
       </c>
       <c r="G42" s="6">
-        <v>7785626.5585585581</v>
+        <v>8052569.8018018017</v>
       </c>
       <c r="H42" s="6">
-        <v>7087938.7387387389</v>
+        <v>7553720.7207207195</v>
       </c>
       <c r="I42" s="6">
-        <v>6753591.6486486495</v>
+        <v>7020534.8918918921</v>
       </c>
       <c r="J42" s="6">
-        <v>6044549.5495495498</v>
+        <v>6466277.4774774779</v>
       </c>
       <c r="K42" s="6">
         <v>1032034.9099099101</v>
       </c>
       <c r="L42" s="6">
-        <v>1043389.189189189</v>
+        <v>1087443.2432432431</v>
       </c>
       <c r="M42" s="6">
-        <v>0.56521739130434789</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="N42" s="6">
-        <v>0.65217391304347827</v>
+        <v>0.875</v>
       </c>
       <c r="O42" s="6">
-        <v>604744.14414414414</v>
+        <v>664428.82882882887</v>
       </c>
       <c r="P42" s="6">
-        <v>1156030.630630631</v>
+        <v>1354245.945945946</v>
       </c>
       <c r="Q42" s="6">
         <v>67027.027027027027</v>
@@ -9701,10 +9704,10 @@
         <v>0</v>
       </c>
       <c r="U42" s="6">
-        <v>537717.11711711716</v>
+        <v>570374.77477477479</v>
       </c>
       <c r="V42" s="6">
-        <v>749273.87387387385</v>
+        <v>947489.18918918923</v>
       </c>
       <c r="W42" s="6">
         <v>0</v>
@@ -9713,16 +9716,16 @@
         <v>0</v>
       </c>
       <c r="Y42" s="6">
-        <v>227612.6126126126</v>
+        <v>282792.79279279278</v>
       </c>
       <c r="Z42" s="6">
-        <v>247927.9279279279</v>
+        <v>274954.95495495503</v>
       </c>
       <c r="AA42" s="6">
-        <v>112843.2432432432</v>
+        <v>117347.7477477478</v>
       </c>
       <c r="AB42" s="6">
-        <v>262628.82882882882</v>
+        <v>433817.1171171171</v>
       </c>
       <c r="AC42" s="6">
         <v>26</v>
@@ -9731,16 +9734,16 @@
         <v>39</v>
       </c>
       <c r="AE42" s="6">
-        <v>26301502.88351351</v>
+        <v>27380122.306936938</v>
       </c>
       <c r="AF42" s="6">
-        <v>23943597.022432432</v>
+        <v>24976401.950360361</v>
       </c>
       <c r="AG42" s="6">
         <v>2</v>
       </c>
       <c r="AH42" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI42" s="6">
         <v>6</v>
@@ -9749,10 +9752,10 @@
         <v>7</v>
       </c>
       <c r="AK42" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL42" s="6">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AM42" s="6">
         <v>1</v>
@@ -9770,7 +9773,7 @@
         <v>15</v>
       </c>
       <c r="AR42" s="6">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AS42" s="6">
         <v>0</v>
@@ -9779,34 +9782,34 @@
         <v>0</v>
       </c>
       <c r="AU42" s="6">
+        <v>7</v>
+      </c>
+      <c r="AV42" s="6">
         <v>6</v>
-      </c>
-      <c r="AV42" s="6">
-        <v>5</v>
       </c>
       <c r="AW42" s="6">
         <v>3</v>
       </c>
       <c r="AX42" s="6">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AY42" s="6">
         <v>5817567.5675675673</v>
       </c>
       <c r="AZ42" s="6">
-        <v>7073873.8738738736</v>
+        <v>7254054.0540540544</v>
       </c>
       <c r="BA42" s="6">
         <v>0</v>
       </c>
       <c r="BB42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC42" s="6">
         <v>0</v>
       </c>
       <c r="BD42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE42" s="6">
         <v>0</v>
@@ -9815,43 +9818,43 @@
         <v>0</v>
       </c>
       <c r="BG42" s="6">
-        <v>6753591.6486486495</v>
+        <v>7020534.8918918921</v>
       </c>
       <c r="BH42" s="6">
-        <v>6044549.5495495498</v>
+        <v>6466277.4774774779</v>
       </c>
       <c r="BI42" s="6">
         <v>1032034.9099099101</v>
       </c>
       <c r="BJ42" s="6">
-        <v>1043389.189189189</v>
+        <v>1087443.2432432431</v>
       </c>
       <c r="BK42" s="6">
-        <v>5214083.7837837841</v>
+        <v>5267167.5675675673</v>
       </c>
       <c r="BL42" s="6">
-        <v>5334688.2882882878</v>
+        <v>5703331.5315315314</v>
       </c>
       <c r="BM42" s="6">
-        <v>4577775.6756756753</v>
+        <v>4630859.4594594594</v>
       </c>
       <c r="BN42" s="6">
-        <v>4546445.0450450452</v>
+        <v>4889863.0630630627</v>
       </c>
       <c r="BO42" s="6">
         <v>636308.10810810816</v>
       </c>
       <c r="BP42" s="6">
-        <v>788243.2432432432</v>
+        <v>813468.46846846852</v>
       </c>
       <c r="BQ42" s="6">
-        <v>3599180.1801801799</v>
+        <v>3643254.054054054</v>
       </c>
       <c r="BR42" s="6">
-        <v>3683609.9099099101</v>
+        <v>3791429.7297297302</v>
       </c>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>101</v>
       </c>
@@ -9871,28 +9874,28 @@
         <v>44</v>
       </c>
       <c r="G43" s="6">
-        <v>8486549.8738738745</v>
+        <v>8506549.8738738745</v>
       </c>
       <c r="H43" s="6">
-        <v>3763603.612612613</v>
+        <v>3785678.387387387</v>
       </c>
       <c r="I43" s="6">
-        <v>4312742.3423423423</v>
+        <v>4332742.3423423423</v>
       </c>
       <c r="J43" s="6">
-        <v>2977745.945945946</v>
+        <v>2985705.405405405</v>
       </c>
       <c r="K43" s="6">
         <v>4173807.5315315309</v>
       </c>
       <c r="L43" s="6">
-        <v>785857.66666666663</v>
+        <v>799972.98198198201</v>
       </c>
       <c r="M43" s="6">
-        <v>1.043478260869565</v>
+        <v>1</v>
       </c>
       <c r="N43" s="6">
-        <v>0.13043478260869559</v>
+        <v>0.125</v>
       </c>
       <c r="O43" s="6">
         <v>5860336.036036036</v>
@@ -9937,16 +9940,16 @@
         <v>2153414.4144144142</v>
       </c>
       <c r="AC43" s="6">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AD43" s="6">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AE43" s="6">
-        <v>30815350.73234234</v>
+        <v>32129861.570180181</v>
       </c>
       <c r="AF43" s="6">
-        <v>27701968.952882878</v>
+        <v>28874263.529459462</v>
       </c>
       <c r="AG43" s="6">
         <v>15</v>
@@ -10006,7 +10009,7 @@
         <v>6972972.9729729732</v>
       </c>
       <c r="AZ43" s="6">
-        <v>4640540.5405405406</v>
+        <v>8482944.1441441439</v>
       </c>
       <c r="BA43" s="6">
         <v>3</v>
@@ -10027,43 +10030,43 @@
         <v>8</v>
       </c>
       <c r="BG43" s="6">
-        <v>4312742.3423423423</v>
+        <v>4332742.3423423423</v>
       </c>
       <c r="BH43" s="6">
-        <v>2977745.945945946</v>
+        <v>2985705.405405405</v>
       </c>
       <c r="BI43" s="6">
         <v>4173807.5315315309</v>
       </c>
       <c r="BJ43" s="6">
-        <v>785857.66666666663</v>
+        <v>799972.98198198201</v>
       </c>
       <c r="BK43" s="6">
-        <v>7441782.8828828828</v>
+        <v>7461782.8828828828</v>
       </c>
       <c r="BL43" s="6">
-        <v>3222446.8468468469</v>
+        <v>3234190.0900900899</v>
       </c>
       <c r="BM43" s="6">
-        <v>3914688.2882882878</v>
+        <v>3934688.2882882878</v>
       </c>
       <c r="BN43" s="6">
-        <v>2695068.4684684691</v>
+        <v>2703027.927927928</v>
       </c>
       <c r="BO43" s="6">
         <v>3527094.594594595</v>
       </c>
       <c r="BP43" s="6">
-        <v>527378.37837837834</v>
+        <v>531162.16216216213</v>
       </c>
       <c r="BQ43" s="6">
         <v>4196319.8198198201</v>
       </c>
       <c r="BR43" s="6">
-        <v>2229225.2252252251</v>
+        <v>2382671.1711711711</v>
       </c>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>103</v>
       </c>
@@ -10083,31 +10086,31 @@
         <v>44</v>
       </c>
       <c r="G44" s="6">
-        <v>4489680.4594594594</v>
+        <v>4500011.9909909908</v>
       </c>
       <c r="H44" s="6">
-        <v>7365315.6396396393</v>
+        <v>7450771.3063063063</v>
       </c>
       <c r="I44" s="6">
-        <v>2809338.7387387389</v>
+        <v>2819670.2702702698</v>
       </c>
       <c r="J44" s="6">
-        <v>5662711.0180180185</v>
+        <v>5696455.1621621624</v>
       </c>
       <c r="K44" s="6">
         <v>1680341.7207207209</v>
       </c>
       <c r="L44" s="6">
-        <v>1702604.621621622</v>
+        <v>1754316.1441441439</v>
       </c>
       <c r="M44" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="N44" s="6">
         <v>0</v>
       </c>
       <c r="O44" s="6">
-        <v>946581.10810810816</v>
+        <v>1033116.243243243</v>
       </c>
       <c r="P44" s="6">
         <v>4411458.7657657657</v>
@@ -10125,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="6">
-        <v>946581.10810810816</v>
+        <v>975094.62162162166</v>
       </c>
       <c r="V44" s="6">
         <v>4060557.8468468469</v>
@@ -10152,13 +10155,13 @@
         <v>32</v>
       </c>
       <c r="AD44" s="6">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AE44" s="6">
-        <v>59053179.104324333</v>
+        <v>61414674.275495492</v>
       </c>
       <c r="AF44" s="6">
-        <v>55647363.498558559</v>
+        <v>58342546.831891887</v>
       </c>
       <c r="AG44" s="6">
         <v>0</v>
@@ -10173,7 +10176,7 @@
         <v>5</v>
       </c>
       <c r="AK44" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL44" s="6">
         <v>115</v>
@@ -10218,7 +10221,7 @@
         <v>1549549.5495495501</v>
       </c>
       <c r="AZ44" s="6">
-        <v>1936936.936936937</v>
+        <v>2036036.036036036</v>
       </c>
       <c r="BA44" s="6">
         <v>0</v>
@@ -10239,43 +10242,43 @@
         <v>0</v>
       </c>
       <c r="BG44" s="6">
-        <v>2809338.7387387389</v>
+        <v>2819670.2702702698</v>
       </c>
       <c r="BH44" s="6">
-        <v>5662711.0180180185</v>
+        <v>5696455.1621621624</v>
       </c>
       <c r="BI44" s="6">
         <v>1680341.7207207209</v>
       </c>
       <c r="BJ44" s="6">
-        <v>1702604.621621622</v>
+        <v>1754316.1441441439</v>
       </c>
       <c r="BK44" s="6">
         <v>2281793.6936936942</v>
       </c>
       <c r="BL44" s="6">
-        <v>4812510.8108108109</v>
+        <v>4854402.702702703</v>
       </c>
       <c r="BM44" s="6">
         <v>1756502.702702703</v>
       </c>
       <c r="BN44" s="6">
-        <v>4225892.7927927924</v>
+        <v>4234901.8018018017</v>
       </c>
       <c r="BO44" s="6">
         <v>525290.99099099101</v>
       </c>
       <c r="BP44" s="6">
-        <v>586618.01801801799</v>
+        <v>619500.90090090095</v>
       </c>
       <c r="BQ44" s="6">
         <v>838752.25225225231</v>
       </c>
       <c r="BR44" s="6">
-        <v>1315091.8918918921</v>
+        <v>1450889.1891891891</v>
       </c>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>105</v>
       </c>
@@ -10295,31 +10298,31 @@
         <v>44</v>
       </c>
       <c r="G45" s="6">
-        <v>20126305.31531531</v>
+        <v>21358621.639639638</v>
       </c>
       <c r="H45" s="6">
-        <v>19589992.333333328</v>
+        <v>20488046.810810812</v>
       </c>
       <c r="I45" s="6">
-        <v>17597199.108108111</v>
+        <v>18829515.432432432</v>
       </c>
       <c r="J45" s="6">
-        <v>17330015.036036041</v>
+        <v>18083170.41441441</v>
       </c>
       <c r="K45" s="6">
         <v>2529106.2072072071</v>
       </c>
       <c r="L45" s="6">
-        <v>2259977.297297298</v>
+        <v>2404876.3963963962</v>
       </c>
       <c r="M45" s="6">
-        <v>0.69565217391304346</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N45" s="6">
-        <v>1.2608695652173909</v>
+        <v>1.208333333333333</v>
       </c>
       <c r="O45" s="6">
-        <v>5007929.7927927924</v>
+        <v>5315441.5675675673</v>
       </c>
       <c r="P45" s="6">
         <v>1784794.8828828831</v>
@@ -10337,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="6">
-        <v>5007929.7927927924</v>
+        <v>5147225.3243243247</v>
       </c>
       <c r="V45" s="6">
         <v>1484794.8828828831</v>
@@ -10349,7 +10352,7 @@
         <v>16216.21621621622</v>
       </c>
       <c r="Y45" s="6">
-        <v>1751967.63963964</v>
+        <v>2059479.414414414</v>
       </c>
       <c r="Z45" s="6">
         <v>1141112.8288288291</v>
@@ -10364,13 +10367,13 @@
         <v>46</v>
       </c>
       <c r="AD45" s="6">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AE45" s="6">
-        <v>71908149.064684689</v>
+        <v>74878321.010630637</v>
       </c>
       <c r="AF45" s="6">
-        <v>63338701.626126133</v>
+        <v>66328150.545045048</v>
       </c>
       <c r="AG45" s="6">
         <v>5</v>
@@ -10385,7 +10388,7 @@
         <v>8</v>
       </c>
       <c r="AK45" s="6">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AL45" s="6">
         <v>38</v>
@@ -10415,7 +10418,7 @@
         <v>4</v>
       </c>
       <c r="AU45" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AV45" s="6">
         <v>26</v>
@@ -10427,10 +10430,10 @@
         <v>4</v>
       </c>
       <c r="AY45" s="6">
-        <v>20962666.666666672</v>
+        <v>21683387.387387391</v>
       </c>
       <c r="AZ45" s="6">
-        <v>18450450.45045045</v>
+        <v>19171171.17117117</v>
       </c>
       <c r="BA45" s="6">
         <v>2</v>
@@ -10451,43 +10454,43 @@
         <v>0</v>
       </c>
       <c r="BG45" s="6">
-        <v>17597199.108108111</v>
+        <v>18829515.432432432</v>
       </c>
       <c r="BH45" s="6">
-        <v>17330015.036036041</v>
+        <v>18083170.41441441</v>
       </c>
       <c r="BI45" s="6">
         <v>2529106.2072072071</v>
       </c>
       <c r="BJ45" s="6">
-        <v>2259977.297297298</v>
+        <v>2404876.3963963962</v>
       </c>
       <c r="BK45" s="6">
-        <v>15911067.56756757</v>
+        <v>17044950.45045045</v>
       </c>
       <c r="BL45" s="6">
-        <v>13350172.07207207</v>
+        <v>13913855.85585586</v>
       </c>
       <c r="BM45" s="6">
-        <v>14081828.82882883</v>
+        <v>15215711.71171171</v>
       </c>
       <c r="BN45" s="6">
-        <v>11766075.675675681</v>
+        <v>12214020.72072072</v>
       </c>
       <c r="BO45" s="6">
         <v>1829238.7387387389</v>
       </c>
       <c r="BP45" s="6">
-        <v>1584096.396396396</v>
+        <v>1699835.1351351349</v>
       </c>
       <c r="BQ45" s="6">
-        <v>15034729.729729731</v>
+        <v>15671315.315315319</v>
       </c>
       <c r="BR45" s="6">
-        <v>13031722.52252252</v>
+        <v>13496904.5045045</v>
       </c>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>87</v>
       </c>
@@ -10510,22 +10513,22 @@
         <v>185763.22522522521</v>
       </c>
       <c r="H46" s="6">
-        <v>312549.57657657663</v>
+        <v>344387.41441441438</v>
       </c>
       <c r="I46" s="6">
         <v>106778.3783783784</v>
       </c>
       <c r="J46" s="6">
-        <v>119828.84684684681</v>
+        <v>127788.3063063063</v>
       </c>
       <c r="K46" s="6">
         <v>78984.846846846849</v>
       </c>
       <c r="L46" s="6">
-        <v>192720.7297297297</v>
+        <v>216599.10810810811</v>
       </c>
       <c r="M46" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="N46" s="6">
         <v>0</v>
@@ -10579,10 +10582,10 @@
         <v>3</v>
       </c>
       <c r="AE46" s="6">
-        <v>7827344.8270270266</v>
+        <v>8200593.5567567572</v>
       </c>
       <c r="AF46" s="6">
-        <v>7785989.4088288276</v>
+        <v>8111821.9763963968</v>
       </c>
       <c r="AG46" s="6">
         <v>0</v>
@@ -10666,31 +10669,31 @@
         <v>106778.3783783784</v>
       </c>
       <c r="BH46" s="6">
-        <v>119828.84684684681</v>
+        <v>127788.3063063063</v>
       </c>
       <c r="BI46" s="6">
         <v>78984.846846846849</v>
       </c>
       <c r="BJ46" s="6">
-        <v>192720.7297297297</v>
+        <v>216599.10810810811</v>
       </c>
       <c r="BK46" s="6">
         <v>49824.324324324327</v>
       </c>
       <c r="BL46" s="6">
-        <v>77713.513513513521</v>
+        <v>109551.3513513513</v>
       </c>
       <c r="BM46" s="6">
         <v>0</v>
       </c>
       <c r="BN46" s="6">
-        <v>27126.126126126121</v>
+        <v>35085.585585585577</v>
       </c>
       <c r="BO46" s="6">
         <v>49824.324324324327</v>
       </c>
       <c r="BP46" s="6">
-        <v>50587.387387387389</v>
+        <v>74465.765765765769</v>
       </c>
       <c r="BQ46" s="6">
         <v>0</v>
@@ -10699,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>65</v>
       </c>
@@ -10911,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
@@ -11003,10 +11006,10 @@
         <v>0</v>
       </c>
       <c r="AE48" s="6">
-        <v>71609.593693693692</v>
+        <v>75004.296396396399</v>
       </c>
       <c r="AF48" s="6">
-        <v>86412.398558558561</v>
+        <v>87861.948108108103</v>
       </c>
       <c r="AG48" s="6">
         <v>0</v>
@@ -11123,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>110</v>
       </c>
@@ -11143,40 +11146,40 @@
         <v>44</v>
       </c>
       <c r="G49" s="6">
-        <v>5138202.0270270268</v>
+        <v>5437652.4774774779</v>
       </c>
       <c r="H49" s="6">
-        <v>4257972.7747747749</v>
+        <v>4432149.5405405406</v>
       </c>
       <c r="I49" s="6">
-        <v>4436227.0270270268</v>
+        <v>4735677.4774774779</v>
       </c>
       <c r="J49" s="6">
-        <v>3563541.441441441</v>
+        <v>3718889.1891891891</v>
       </c>
       <c r="K49" s="6">
         <v>701975</v>
       </c>
       <c r="L49" s="6">
-        <v>694431.33333333337</v>
+        <v>713260.35135135136</v>
       </c>
       <c r="M49" s="6">
-        <v>1.3913043478260869</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="N49" s="6">
-        <v>0.91304347826086951</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="O49" s="6">
-        <v>1434121.621621622</v>
+        <v>1664021.621621622</v>
       </c>
       <c r="P49" s="6">
-        <v>2060935.1351351349</v>
+        <v>2151025.2252252251</v>
       </c>
       <c r="Q49" s="6">
         <v>409909.90990990988</v>
       </c>
       <c r="R49" s="6">
-        <v>377477.47747747751</v>
+        <v>467567.56756756757</v>
       </c>
       <c r="S49" s="6">
         <v>0</v>
@@ -11185,13 +11188,13 @@
         <v>0</v>
       </c>
       <c r="U49" s="6">
-        <v>997183.78378378379</v>
+        <v>1093704.5045045051</v>
       </c>
       <c r="V49" s="6">
         <v>1683457.657657658</v>
       </c>
       <c r="W49" s="6">
-        <v>27027.927927927929</v>
+        <v>37523.423423423417</v>
       </c>
       <c r="X49" s="6">
         <v>0</v>
@@ -11203,28 +11206,28 @@
         <v>0</v>
       </c>
       <c r="AA49" s="6">
-        <v>677103.60360360355</v>
+        <v>746048.64864864864</v>
       </c>
       <c r="AB49" s="6">
         <v>913470.2702702703</v>
       </c>
       <c r="AC49" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD49" s="6">
         <v>155</v>
       </c>
       <c r="AE49" s="6">
-        <v>44772442.996846847</v>
+        <v>46848515.456306309</v>
       </c>
       <c r="AF49" s="6">
-        <v>36659974.28585586</v>
+        <v>38506605.73630631</v>
       </c>
       <c r="AG49" s="6">
         <v>2</v>
       </c>
       <c r="AH49" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI49" s="6">
         <v>6</v>
@@ -11233,16 +11236,16 @@
         <v>4</v>
       </c>
       <c r="AK49" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AL49" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM49" s="6">
         <v>5</v>
       </c>
       <c r="AN49" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO49" s="6">
         <v>0</v>
@@ -11269,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="AW49" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX49" s="6">
         <v>14</v>
@@ -11299,28 +11302,28 @@
         <v>0</v>
       </c>
       <c r="BG49" s="6">
-        <v>4436227.0270270268</v>
+        <v>4735677.4774774779</v>
       </c>
       <c r="BH49" s="6">
-        <v>3563541.441441441</v>
+        <v>3718889.1891891891</v>
       </c>
       <c r="BI49" s="6">
         <v>701975</v>
       </c>
       <c r="BJ49" s="6">
-        <v>694431.33333333337</v>
+        <v>713260.35135135136</v>
       </c>
       <c r="BK49" s="6">
-        <v>2678944.1441441439</v>
+        <v>2858243.2432432431</v>
       </c>
       <c r="BL49" s="6">
-        <v>2429134.2342342339</v>
+        <v>2539945.0450450452</v>
       </c>
       <c r="BM49" s="6">
-        <v>2476893.6936936942</v>
+        <v>2656192.7927927929</v>
       </c>
       <c r="BN49" s="6">
-        <v>2234557.6576576582</v>
+        <v>2345368.4684684691</v>
       </c>
       <c r="BO49" s="6">
         <v>202050.45045045039</v>
@@ -11329,13 +11332,13 @@
         <v>194576.5765765766</v>
       </c>
       <c r="BQ49" s="6">
-        <v>3120693.6936936942</v>
+        <v>3205396.3963963962</v>
       </c>
       <c r="BR49" s="6">
         <v>1470166.666666667</v>
       </c>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>81</v>
       </c>
@@ -11358,31 +11361,31 @@
         <v>1531086.630630631</v>
       </c>
       <c r="H50" s="6">
-        <v>1556400.396396396</v>
+        <v>1794688.684684685</v>
       </c>
       <c r="I50" s="6">
         <v>876566.66666666663</v>
       </c>
       <c r="J50" s="6">
-        <v>1015454.054054054</v>
+        <v>1231670.2702702701</v>
       </c>
       <c r="K50" s="6">
         <v>654519.96396396391</v>
       </c>
       <c r="L50" s="6">
-        <v>540946.34234234237</v>
+        <v>563018.41441441444</v>
       </c>
       <c r="M50" s="6">
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="O50" s="6">
         <v>483732.43243243243</v>
       </c>
       <c r="P50" s="6">
-        <v>1159826.1261261259</v>
+        <v>1383745.045045045</v>
       </c>
       <c r="Q50" s="6">
         <v>0</v>
@@ -11400,7 +11403,7 @@
         <v>483732.43243243243</v>
       </c>
       <c r="V50" s="6">
-        <v>1159826.1261261259</v>
+        <v>1383745.045045045</v>
       </c>
       <c r="W50" s="6">
         <v>0</v>
@@ -11412,7 +11415,7 @@
         <v>326576.57657657663</v>
       </c>
       <c r="Z50" s="6">
-        <v>672193.69369369373</v>
+        <v>896112.61261261266</v>
       </c>
       <c r="AA50" s="6">
         <v>66067.567567567574</v>
@@ -11427,10 +11430,10 @@
         <v>56</v>
       </c>
       <c r="AE50" s="6">
-        <v>20721188.861981981</v>
+        <v>21554687.23135135</v>
       </c>
       <c r="AF50" s="6">
-        <v>19767851.25756757</v>
+        <v>20611128.57288288</v>
       </c>
       <c r="AG50" s="6">
         <v>0</v>
@@ -11448,7 +11451,7 @@
         <v>11</v>
       </c>
       <c r="AL50" s="6">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AM50" s="6">
         <v>0</v>
@@ -11466,7 +11469,7 @@
         <v>11</v>
       </c>
       <c r="AR50" s="6">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AS50" s="6">
         <v>0</v>
@@ -11478,7 +11481,7 @@
         <v>7</v>
       </c>
       <c r="AV50" s="6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AW50" s="6">
         <v>2</v>
@@ -11514,31 +11517,31 @@
         <v>876566.66666666663</v>
       </c>
       <c r="BH50" s="6">
-        <v>1015454.054054054</v>
+        <v>1231670.2702702701</v>
       </c>
       <c r="BI50" s="6">
         <v>654519.96396396391</v>
       </c>
       <c r="BJ50" s="6">
-        <v>540946.34234234237</v>
+        <v>563018.41441441444</v>
       </c>
       <c r="BK50" s="6">
         <v>983134.2342342342</v>
       </c>
       <c r="BL50" s="6">
-        <v>803697.29729729728</v>
+        <v>1023156.756756757</v>
       </c>
       <c r="BM50" s="6">
         <v>645954.05405405408</v>
       </c>
       <c r="BN50" s="6">
-        <v>678823.42342342343</v>
+        <v>895039.63963963964</v>
       </c>
       <c r="BO50" s="6">
         <v>337180.18018018018</v>
       </c>
       <c r="BP50" s="6">
-        <v>124873.8738738739</v>
+        <v>128117.1171171171</v>
       </c>
       <c r="BQ50" s="6">
         <v>7207.2072072072069</v>
@@ -11547,7 +11550,7 @@
         <v>63675.675675675673</v>
       </c>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>87</v>
       </c>
@@ -11567,31 +11570,31 @@
         <v>44</v>
       </c>
       <c r="G51" s="6">
-        <v>8647346.4504504502</v>
+        <v>9031868.9729729723</v>
       </c>
       <c r="H51" s="6">
-        <v>9159441.9189189188</v>
+        <v>9595203.1801801808</v>
       </c>
       <c r="I51" s="6">
-        <v>7613744.1441441439</v>
+        <v>7998266.666666667</v>
       </c>
       <c r="J51" s="6">
-        <v>7871660.3603603607</v>
+        <v>8291502.702702703</v>
       </c>
       <c r="K51" s="6">
         <v>1033602.306306306</v>
       </c>
       <c r="L51" s="6">
-        <v>1287781.558558559</v>
+        <v>1303700.4774774769</v>
       </c>
       <c r="M51" s="6">
         <v>1</v>
       </c>
       <c r="N51" s="6">
-        <v>0.82608695652173914</v>
+        <v>0.875</v>
       </c>
       <c r="O51" s="6">
-        <v>2756664.8468468469</v>
+        <v>2799850.4324324331</v>
       </c>
       <c r="P51" s="6">
         <v>2540409.9099099101</v>
@@ -11609,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="6">
-        <v>2566574.7567567569</v>
+        <v>2571079.2612612611</v>
       </c>
       <c r="V51" s="6">
         <v>2157630.630630631</v>
@@ -11633,22 +11636,22 @@
         <v>491769.36936936929</v>
       </c>
       <c r="AC51" s="6">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AD51" s="6">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AE51" s="6">
-        <v>49495227.722792789</v>
+        <v>51660630.713783793</v>
       </c>
       <c r="AF51" s="6">
-        <v>44924049.809819818</v>
+        <v>47053359.215225227</v>
       </c>
       <c r="AG51" s="6">
         <v>10</v>
       </c>
       <c r="AH51" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI51" s="6">
         <v>8</v>
@@ -11657,7 +11660,7 @@
         <v>10</v>
       </c>
       <c r="AK51" s="6">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AL51" s="6">
         <v>68</v>
@@ -11699,10 +11702,10 @@
         <v>20</v>
       </c>
       <c r="AY51" s="6">
-        <v>11125225.225225231</v>
+        <v>12026126.126126129</v>
       </c>
       <c r="AZ51" s="6">
-        <v>8744144.1441441439</v>
+        <v>8843243.2432432435</v>
       </c>
       <c r="BA51" s="6">
         <v>1</v>
@@ -11714,7 +11717,7 @@
         <v>3</v>
       </c>
       <c r="BD51" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE51" s="6">
         <v>0</v>
@@ -11723,43 +11726,43 @@
         <v>0</v>
       </c>
       <c r="BG51" s="6">
-        <v>7613744.1441441439</v>
+        <v>7998266.666666667</v>
       </c>
       <c r="BH51" s="6">
-        <v>7871660.3603603607</v>
+        <v>8291502.702702703</v>
       </c>
       <c r="BI51" s="6">
         <v>1033602.306306306</v>
       </c>
       <c r="BJ51" s="6">
-        <v>1287781.558558559</v>
+        <v>1303700.4774774769</v>
       </c>
       <c r="BK51" s="6">
-        <v>5624064.8648648653</v>
+        <v>5899027.0270270268</v>
       </c>
       <c r="BL51" s="6">
-        <v>6333150.4504504502</v>
+        <v>6644677.4774774779</v>
       </c>
       <c r="BM51" s="6">
-        <v>5108497.297297297</v>
+        <v>5383459.4594594594</v>
       </c>
       <c r="BN51" s="6">
-        <v>5415955.8558558561</v>
+        <v>5711563.963963964</v>
       </c>
       <c r="BO51" s="6">
         <v>515567.56756756757</v>
       </c>
       <c r="BP51" s="6">
-        <v>917194.59459459456</v>
+        <v>933113.51351351349</v>
       </c>
       <c r="BQ51" s="6">
-        <v>6015458.5585585581</v>
+        <v>6280089.1891891891</v>
       </c>
       <c r="BR51" s="6">
-        <v>6351183.7837837841</v>
+        <v>6666116.2162162159</v>
       </c>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>87</v>
       </c>
@@ -11800,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="O52" s="6">
         <v>0</v>
@@ -11851,10 +11854,10 @@
         <v>0</v>
       </c>
       <c r="AE52" s="6">
-        <v>1252668.534144144</v>
+        <v>1312220.0206306309</v>
       </c>
       <c r="AF52" s="6">
-        <v>1005095.691621622</v>
+        <v>1072004.9078378379</v>
       </c>
       <c r="AG52" s="6">
         <v>0</v>
@@ -11971,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>115</v>
       </c>
@@ -11991,31 +11994,31 @@
         <v>44</v>
       </c>
       <c r="G53" s="6">
-        <v>14292507.24324324</v>
+        <v>16195078.414414421</v>
       </c>
       <c r="H53" s="6">
-        <v>10895646.3963964</v>
+        <v>11304355.40540541</v>
       </c>
       <c r="I53" s="6">
-        <v>11792918.92792793</v>
+        <v>13695490.0990991</v>
       </c>
       <c r="J53" s="6">
-        <v>8726969.5945945941</v>
+        <v>9020093.9189189188</v>
       </c>
       <c r="K53" s="6">
         <v>2499588.315315315</v>
       </c>
       <c r="L53" s="6">
-        <v>2168676.8018018021</v>
+        <v>2284261.4864864871</v>
       </c>
       <c r="M53" s="6">
-        <v>1.6086956521739131</v>
+        <v>2.208333333333333</v>
       </c>
       <c r="N53" s="6">
-        <v>2.5217391304347831</v>
+        <v>2.5</v>
       </c>
       <c r="O53" s="6">
-        <v>9422642.6126126125</v>
+        <v>11877109.27927928</v>
       </c>
       <c r="P53" s="6">
         <v>1989788.333333333</v>
@@ -12033,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="6">
-        <v>9422642.6126126125</v>
+        <v>9663490.3603603598</v>
       </c>
       <c r="V53" s="6">
         <v>1528616.2612612611</v>
@@ -12051,37 +12054,37 @@
         <v>359873.91891891888</v>
       </c>
       <c r="AA53" s="6">
-        <v>117527.027027027</v>
+        <v>172032.4324324324</v>
       </c>
       <c r="AB53" s="6">
         <v>388565.76576576568</v>
       </c>
       <c r="AC53" s="6">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AD53" s="6">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AE53" s="6">
-        <v>102788308.23837841</v>
+        <v>107353248.2203604</v>
       </c>
       <c r="AF53" s="6">
-        <v>90772259.580900908</v>
+        <v>94950331.761081085</v>
       </c>
       <c r="AG53" s="6">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AH53" s="6">
         <v>6</v>
       </c>
       <c r="AI53" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ53" s="6">
         <v>10</v>
       </c>
       <c r="AK53" s="6">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="AL53" s="6">
         <v>50</v>
@@ -12117,25 +12120,25 @@
         <v>9</v>
       </c>
       <c r="AW53" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX53" s="6">
         <v>12</v>
       </c>
       <c r="AY53" s="6">
-        <v>20563063.063063059</v>
+        <v>21734234.234234229</v>
       </c>
       <c r="AZ53" s="6">
-        <v>10568018.01801802</v>
+        <v>11630007.20720721</v>
       </c>
       <c r="BA53" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB53" s="6">
         <v>0</v>
       </c>
       <c r="BC53" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD53" s="6">
         <v>0</v>
@@ -12147,43 +12150,43 @@
         <v>0</v>
       </c>
       <c r="BG53" s="6">
-        <v>11792918.92792793</v>
+        <v>13695490.0990991</v>
       </c>
       <c r="BH53" s="6">
-        <v>8726969.5945945941</v>
+        <v>9020093.9189189188</v>
       </c>
       <c r="BI53" s="6">
         <v>2499588.315315315</v>
       </c>
       <c r="BJ53" s="6">
-        <v>2168676.8018018021</v>
+        <v>2284261.4864864871</v>
       </c>
       <c r="BK53" s="6">
-        <v>7516838.7387387389</v>
+        <v>8989435.1351351347</v>
       </c>
       <c r="BL53" s="6">
-        <v>5189054.0540540544</v>
+        <v>5274369.369369369</v>
       </c>
       <c r="BM53" s="6">
-        <v>6552771.1711711716</v>
+        <v>8025367.5675675673</v>
       </c>
       <c r="BN53" s="6">
-        <v>4139870.2702702698</v>
+        <v>4200140.5405405406</v>
       </c>
       <c r="BO53" s="6">
         <v>964067.56756756757</v>
       </c>
       <c r="BP53" s="6">
-        <v>1049183.7837837839</v>
+        <v>1074228.8288288291</v>
       </c>
       <c r="BQ53" s="6">
-        <v>9199896.3963963967</v>
+        <v>9423040.5405405406</v>
       </c>
       <c r="BR53" s="6">
-        <v>3562177.4774774769</v>
+        <v>3765632.4324324331</v>
       </c>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>68</v>
       </c>
@@ -12203,16 +12206,16 @@
         <v>44</v>
       </c>
       <c r="G54" s="6">
-        <v>1690456.2522522521</v>
+        <v>1698113.9099099101</v>
       </c>
       <c r="H54" s="6">
-        <v>1961636.936936937</v>
+        <v>2023680.1801801799</v>
       </c>
       <c r="I54" s="6">
-        <v>1319626.1261261259</v>
+        <v>1327283.7837837839</v>
       </c>
       <c r="J54" s="6">
-        <v>1652304.5045045051</v>
+        <v>1714347.7477477479</v>
       </c>
       <c r="K54" s="6">
         <v>370830.12612612621</v>
@@ -12221,10 +12224,10 @@
         <v>309332.43243243243</v>
       </c>
       <c r="M54" s="6">
-        <v>0.43478260869565222</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N54" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="O54" s="6">
         <v>0</v>
@@ -12275,10 +12278,10 @@
         <v>6</v>
       </c>
       <c r="AE54" s="6">
-        <v>15828507.930450451</v>
+        <v>16440089.10162162</v>
       </c>
       <c r="AF54" s="6">
-        <v>15166378.41306306</v>
+        <v>15750626.214864859</v>
       </c>
       <c r="AG54" s="6">
         <v>7</v>
@@ -12359,10 +12362,10 @@
         <v>0</v>
       </c>
       <c r="BG54" s="6">
-        <v>1319626.1261261259</v>
+        <v>1327283.7837837839</v>
       </c>
       <c r="BH54" s="6">
-        <v>1652304.5045045051</v>
+        <v>1714347.7477477479</v>
       </c>
       <c r="BI54" s="6">
         <v>370830.12612612621</v>
@@ -12371,13 +12374,13 @@
         <v>309332.43243243243</v>
       </c>
       <c r="BK54" s="6">
-        <v>388274.77477477479</v>
+        <v>395932.43243243243</v>
       </c>
       <c r="BL54" s="6">
         <v>409518.01801801799</v>
       </c>
       <c r="BM54" s="6">
-        <v>326833.33333333331</v>
+        <v>334490.99099099101</v>
       </c>
       <c r="BN54" s="6">
         <v>285882.8828828829</v>
@@ -12389,13 +12392,13 @@
         <v>123635.1351351351</v>
       </c>
       <c r="BQ54" s="6">
-        <v>583454.95495495491</v>
+        <v>591112.61261261266</v>
       </c>
       <c r="BR54" s="6">
         <v>663472.97297297302</v>
       </c>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>68</v>
       </c>
@@ -12433,10 +12436,10 @@
         <v>13963.963963963961</v>
       </c>
       <c r="M55" s="6">
-        <v>0.2608695652173913</v>
+        <v>0.25</v>
       </c>
       <c r="N55" s="6">
-        <v>0.21739130434782611</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="O55" s="6">
         <v>0</v>
@@ -12487,10 +12490,10 @@
         <v>14</v>
       </c>
       <c r="AE55" s="6">
-        <v>2618135.6691891891</v>
+        <v>2717970.8403603602</v>
       </c>
       <c r="AF55" s="6">
-        <v>2780521.502432432</v>
+        <v>2889191.6645945939</v>
       </c>
       <c r="AG55" s="6">
         <v>4</v>
@@ -12607,7 +12610,7 @@
         <v>1380378.378378378</v>
       </c>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -12630,25 +12633,25 @@
         <v>778855.67567567562</v>
       </c>
       <c r="H56" s="6">
-        <v>478736.03603603598</v>
+        <v>531141.44144144142</v>
       </c>
       <c r="I56" s="6">
         <v>314666.66666666669</v>
       </c>
       <c r="J56" s="6">
-        <v>384857.65765765758</v>
+        <v>421344.14414414408</v>
       </c>
       <c r="K56" s="6">
         <v>464189.00900900899</v>
       </c>
       <c r="L56" s="6">
-        <v>93878.378378378373</v>
+        <v>109797.29729729729</v>
       </c>
       <c r="M56" s="6">
         <v>0</v>
       </c>
       <c r="N56" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="O56" s="6">
         <v>38693.693693693691</v>
@@ -12699,10 +12702,10 @@
         <v>2</v>
       </c>
       <c r="AE56" s="6">
-        <v>2690538.744144144</v>
+        <v>2799427.5009009009</v>
       </c>
       <c r="AF56" s="6">
-        <v>2776559.2834234228</v>
+        <v>2887151.5356756761</v>
       </c>
       <c r="AG56" s="6">
         <v>0</v>
@@ -12759,7 +12762,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="6">
-        <v>598648.64864864864</v>
+        <v>868918.91891891893</v>
       </c>
       <c r="AZ56" s="6">
         <v>1126126.1261261259</v>
@@ -12786,19 +12789,19 @@
         <v>314666.66666666669</v>
       </c>
       <c r="BH56" s="6">
-        <v>384857.65765765758</v>
+        <v>421344.14414414408</v>
       </c>
       <c r="BI56" s="6">
         <v>464189.00900900899</v>
       </c>
       <c r="BJ56" s="6">
-        <v>93878.378378378373</v>
+        <v>109797.29729729729</v>
       </c>
       <c r="BK56" s="6">
         <v>693990.99099099101</v>
       </c>
       <c r="BL56" s="6">
-        <v>390537.83783783781</v>
+        <v>406456.75675675669</v>
       </c>
       <c r="BM56" s="6">
         <v>248630.63063063059</v>
@@ -12810,7 +12813,7 @@
         <v>445360.36036036041</v>
       </c>
       <c r="BP56" s="6">
-        <v>75049.549549549542</v>
+        <v>90968.468468468462</v>
       </c>
       <c r="BQ56" s="6">
         <v>311084.68468468467</v>
@@ -12839,16 +12842,16 @@
         <v>44</v>
       </c>
       <c r="G57" s="6">
-        <v>4246286.0900900904</v>
+        <v>4256617.6216216218</v>
       </c>
       <c r="H57" s="6">
-        <v>3185643.333333333</v>
+        <v>3234720.8108108109</v>
       </c>
       <c r="I57" s="6">
-        <v>3430529.7297297302</v>
+        <v>3440861.2612612611</v>
       </c>
       <c r="J57" s="6">
-        <v>2571400.9009009008</v>
+        <v>2620478.3783783782</v>
       </c>
       <c r="K57" s="6">
         <v>815756.36036036036</v>
@@ -12857,16 +12860,16 @@
         <v>614242.43243243243</v>
       </c>
       <c r="M57" s="6">
-        <v>0.60869565217391308</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="N57" s="6">
-        <v>0.34782608695652167</v>
+        <v>0.375</v>
       </c>
       <c r="O57" s="6">
-        <v>3154680.1801801799</v>
+        <v>3315572.072072072</v>
       </c>
       <c r="P57" s="6">
-        <v>1256998.1981981981</v>
+        <v>1389160.36036036</v>
       </c>
       <c r="Q57" s="6">
         <v>0</v>
@@ -12881,10 +12884,10 @@
         <v>0</v>
       </c>
       <c r="U57" s="6">
-        <v>3154680.1801801799</v>
+        <v>3218869.369369369</v>
       </c>
       <c r="V57" s="6">
-        <v>760827.02702702698</v>
+        <v>892989.18918918923</v>
       </c>
       <c r="W57" s="6">
         <v>0</v>
@@ -12899,7 +12902,7 @@
         <v>232207.20720720719</v>
       </c>
       <c r="AA57" s="6">
-        <v>251513.51351351349</v>
+        <v>296558.55855855858</v>
       </c>
       <c r="AB57" s="6">
         <v>344385.58558558562</v>
@@ -12911,16 +12914,16 @@
         <v>116</v>
       </c>
       <c r="AE57" s="6">
-        <v>24701128.7518018</v>
+        <v>25754093.067117121</v>
       </c>
       <c r="AF57" s="6">
-        <v>24094961.502162158</v>
+        <v>25118506.916576579</v>
       </c>
       <c r="AG57" s="6">
         <v>5</v>
       </c>
       <c r="AH57" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI57" s="6">
         <v>5</v>
@@ -12929,10 +12932,10 @@
         <v>3</v>
       </c>
       <c r="AK57" s="6">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AL57" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM57" s="6">
         <v>0</v>
@@ -12950,7 +12953,7 @@
         <v>125</v>
       </c>
       <c r="AR57" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS57" s="6">
         <v>0</v>
@@ -12974,7 +12977,7 @@
         <v>1957207.2072072071</v>
       </c>
       <c r="AZ57" s="6">
-        <v>3027027.0270270272</v>
+        <v>3081081.0810810812</v>
       </c>
       <c r="BA57" s="6">
         <v>2</v>
@@ -12995,10 +12998,10 @@
         <v>0</v>
       </c>
       <c r="BG57" s="6">
-        <v>3430529.7297297302</v>
+        <v>3440861.2612612611</v>
       </c>
       <c r="BH57" s="6">
-        <v>2571400.9009009008</v>
+        <v>2620478.3783783782</v>
       </c>
       <c r="BI57" s="6">
         <v>815756.36036036036</v>
@@ -13010,13 +13013,13 @@
         <v>3370790.9909909908</v>
       </c>
       <c r="BL57" s="6">
-        <v>2566400</v>
+        <v>2609571.1711711711</v>
       </c>
       <c r="BM57" s="6">
         <v>2840893.6936936942</v>
       </c>
       <c r="BN57" s="6">
-        <v>2190269.369369369</v>
+        <v>2233440.5405405411</v>
       </c>
       <c r="BO57" s="6">
         <v>529897.29729729728</v>
@@ -13028,7 +13031,7 @@
         <v>2041651.351351351</v>
       </c>
       <c r="BR57" s="6">
-        <v>1525701.8018018019</v>
+        <v>1687863.963963964</v>
       </c>
     </row>
     <row r="58" spans="1:70" x14ac:dyDescent="0.25">
@@ -13069,7 +13072,7 @@
         <v>34747.747747747751</v>
       </c>
       <c r="M58" s="6">
-        <v>0.17391304347826089</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="N58" s="6">
         <v>0</v>
@@ -13123,10 +13126,10 @@
         <v>0</v>
       </c>
       <c r="AE58" s="6">
-        <v>906269.85189189191</v>
+        <v>936286.68072072067</v>
       </c>
       <c r="AF58" s="6">
-        <v>1123012.67</v>
+        <v>1172356.264594594</v>
       </c>
       <c r="AG58" s="6">
         <v>1</v>
@@ -13263,28 +13266,28 @@
         <v>44</v>
       </c>
       <c r="G59" s="6">
-        <v>2459335.9549549548</v>
+        <v>2658795.4144144142</v>
       </c>
       <c r="H59" s="6">
-        <v>1533602.702702703</v>
+        <v>1574256.7567567569</v>
       </c>
       <c r="I59" s="6">
-        <v>2052054.054054054</v>
+        <v>2251513.5135135129</v>
       </c>
       <c r="J59" s="6">
-        <v>1231830.630630631</v>
+        <v>1256565.7657657659</v>
       </c>
       <c r="K59" s="6">
         <v>407281.90090090089</v>
       </c>
       <c r="L59" s="6">
-        <v>301772.07207207207</v>
+        <v>317690.99099099101</v>
       </c>
       <c r="M59" s="6">
-        <v>0.39130434782608697</v>
+        <v>0.375</v>
       </c>
       <c r="N59" s="6">
-        <v>0.13043478260869559</v>
+        <v>0.125</v>
       </c>
       <c r="O59" s="6">
         <v>239990.09009009009</v>
@@ -13335,10 +13338,10 @@
         <v>13</v>
       </c>
       <c r="AE59" s="6">
-        <v>10742320.846936939</v>
+        <v>11179938.396486489</v>
       </c>
       <c r="AF59" s="6">
-        <v>10227247.47198198</v>
+        <v>10626989.273783781</v>
       </c>
       <c r="AG59" s="6">
         <v>5</v>
@@ -13347,7 +13350,7 @@
         <v>2</v>
       </c>
       <c r="AI59" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ59" s="6">
         <v>2</v>
@@ -13395,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="AY59" s="6">
-        <v>2807207.2072072071</v>
+        <v>2987387.387387387</v>
       </c>
       <c r="AZ59" s="6">
         <v>1486486.4864864859</v>
@@ -13413,28 +13416,28 @@
         <v>0</v>
       </c>
       <c r="BE59" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF59" s="6">
         <v>0</v>
       </c>
       <c r="BG59" s="6">
-        <v>2052054.054054054</v>
+        <v>2251513.5135135129</v>
       </c>
       <c r="BH59" s="6">
-        <v>1231830.630630631</v>
+        <v>1256565.7657657659</v>
       </c>
       <c r="BI59" s="6">
         <v>407281.90090090089</v>
       </c>
       <c r="BJ59" s="6">
-        <v>301772.07207207207</v>
+        <v>317690.99099099101</v>
       </c>
       <c r="BK59" s="6">
         <v>1168150.4504504499</v>
       </c>
       <c r="BL59" s="6">
-        <v>789991.89189189184</v>
+        <v>805910.81081081077</v>
       </c>
       <c r="BM59" s="6">
         <v>879344.14414414414</v>
@@ -13446,7 +13449,7 @@
         <v>288806.30630630627</v>
       </c>
       <c r="BP59" s="6">
-        <v>234954.05405405411</v>
+        <v>250872.97297297299</v>
       </c>
       <c r="BQ59" s="6">
         <v>1261117.1171171169</v>
@@ -13455,7 +13458,7 @@
         <v>408492.79279279278</v>
       </c>
     </row>
-    <row r="60" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
@@ -13478,13 +13481,13 @@
         <v>2130044.2342342339</v>
       </c>
       <c r="H60" s="6">
-        <v>2377143.441441441</v>
+        <v>2460747.945945946</v>
       </c>
       <c r="I60" s="6">
         <v>1854588.2882882881</v>
       </c>
       <c r="J60" s="6">
-        <v>1889575.675675676</v>
+        <v>1973180.1801801799</v>
       </c>
       <c r="K60" s="6">
         <v>275455.94594594592</v>
@@ -13499,10 +13502,10 @@
         <v>0</v>
       </c>
       <c r="O60" s="6">
-        <v>1262343.2432432431</v>
+        <v>1271901.8018018019</v>
       </c>
       <c r="P60" s="6">
-        <v>935386.48648648651</v>
+        <v>971423.42342342343</v>
       </c>
       <c r="Q60" s="6">
         <v>0</v>
@@ -13517,10 +13520,10 @@
         <v>0</v>
       </c>
       <c r="U60" s="6">
-        <v>1262343.2432432431</v>
+        <v>1271901.8018018019</v>
       </c>
       <c r="V60" s="6">
-        <v>762863.96396396391</v>
+        <v>798900.90090090095</v>
       </c>
       <c r="W60" s="6">
         <v>0</v>
@@ -13535,10 +13538,10 @@
         <v>0</v>
       </c>
       <c r="AA60" s="6">
-        <v>1006663.963963964</v>
+        <v>1011718.018018018</v>
       </c>
       <c r="AB60" s="6">
-        <v>678269.36936936935</v>
+        <v>714306.30630630627</v>
       </c>
       <c r="AC60" s="6">
         <v>46</v>
@@ -13547,10 +13550,10 @@
         <v>45</v>
       </c>
       <c r="AE60" s="6">
-        <v>40027988.037207209</v>
+        <v>41580178.208378367</v>
       </c>
       <c r="AF60" s="6">
-        <v>38303574.368288293</v>
+        <v>39840391.64756757</v>
       </c>
       <c r="AG60" s="6">
         <v>0</v>
@@ -13568,7 +13571,7 @@
         <v>18</v>
       </c>
       <c r="AL60" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM60" s="6">
         <v>0</v>
@@ -13586,7 +13589,7 @@
         <v>18</v>
       </c>
       <c r="AR60" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS60" s="6">
         <v>0</v>
@@ -13604,7 +13607,7 @@
         <v>13</v>
       </c>
       <c r="AX60" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY60" s="6">
         <v>0</v>
@@ -13634,7 +13637,7 @@
         <v>1854588.2882882881</v>
       </c>
       <c r="BH60" s="6">
-        <v>1889575.675675676</v>
+        <v>1973180.1801801799</v>
       </c>
       <c r="BI60" s="6">
         <v>275455.94594594592</v>
@@ -13646,13 +13649,13 @@
         <v>1854588.2882882881</v>
       </c>
       <c r="BL60" s="6">
-        <v>1889575.675675676</v>
+        <v>1973180.1801801799</v>
       </c>
       <c r="BM60" s="6">
         <v>1854588.2882882881</v>
       </c>
       <c r="BN60" s="6">
-        <v>1889575.675675676</v>
+        <v>1973180.1801801799</v>
       </c>
       <c r="BO60" s="6">
         <v>0</v>
@@ -13667,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
@@ -13690,13 +13693,13 @@
         <v>1102065.018018018</v>
       </c>
       <c r="H61" s="6">
-        <v>1122691.8828828831</v>
+        <v>1159989.1801801799</v>
       </c>
       <c r="I61" s="6">
         <v>549404.99099099101</v>
       </c>
       <c r="J61" s="6">
-        <v>572947.74774774769</v>
+        <v>610245.04504504509</v>
       </c>
       <c r="K61" s="6">
         <v>552660.02702702698</v>
@@ -13705,10 +13708,10 @@
         <v>549744.13513513515</v>
       </c>
       <c r="M61" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="N61" s="6">
-        <v>0.17391304347826089</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="O61" s="6">
         <v>131220.72072072071</v>
@@ -13756,13 +13759,13 @@
         <v>174</v>
       </c>
       <c r="AD61" s="6">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE61" s="6">
-        <v>8476013.9972972982</v>
+        <v>8832497.285585586</v>
       </c>
       <c r="AF61" s="6">
-        <v>8257468.4037837833</v>
+        <v>8658611.8542342335</v>
       </c>
       <c r="AG61" s="6">
         <v>1</v>
@@ -13846,7 +13849,7 @@
         <v>549404.99099099101</v>
       </c>
       <c r="BH61" s="6">
-        <v>572947.74774774769</v>
+        <v>610245.04504504509</v>
       </c>
       <c r="BI61" s="6">
         <v>552660.02702702698</v>
@@ -13858,13 +13861,13 @@
         <v>544486.48648648651</v>
       </c>
       <c r="BL61" s="6">
-        <v>658392.79279279278</v>
+        <v>695690.09009009006</v>
       </c>
       <c r="BM61" s="6">
         <v>258504.5045045045</v>
       </c>
       <c r="BN61" s="6">
-        <v>332825.22522522521</v>
+        <v>370122.52252252249</v>
       </c>
       <c r="BO61" s="6">
         <v>285981.98198198201</v>
@@ -13879,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>50</v>
       </c>
@@ -14091,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>68</v>
       </c>
@@ -14114,13 +14117,13 @@
         <v>608113.4954954955</v>
       </c>
       <c r="H63" s="6">
-        <v>447103.60360360361</v>
+        <v>465932.43243243243</v>
       </c>
       <c r="I63" s="6">
         <v>516881.08108108112</v>
       </c>
       <c r="J63" s="6">
-        <v>381366.66666666669</v>
+        <v>400195.4954954955</v>
       </c>
       <c r="K63" s="6">
         <v>91232.414414414408</v>
@@ -14129,10 +14132,10 @@
         <v>65736.936936936938</v>
       </c>
       <c r="M63" s="6">
-        <v>0.17391304347826089</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="N63" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="O63" s="6">
         <v>95136.036036036036</v>
@@ -14183,10 +14186,10 @@
         <v>3</v>
       </c>
       <c r="AE63" s="6">
-        <v>7642571.2009009011</v>
+        <v>7905169.6603603614</v>
       </c>
       <c r="AF63" s="6">
-        <v>6751638.9628828829</v>
+        <v>7069755.8277477473</v>
       </c>
       <c r="AG63" s="6">
         <v>3</v>
@@ -14270,7 +14273,7 @@
         <v>516881.08108108112</v>
       </c>
       <c r="BH63" s="6">
-        <v>381366.66666666669</v>
+        <v>400195.4954954955</v>
       </c>
       <c r="BI63" s="6">
         <v>91232.414414414408</v>
@@ -14303,7 +14306,7 @@
         <v>364000</v>
       </c>
     </row>
-    <row r="64" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>84</v>
       </c>
@@ -14323,40 +14326,40 @@
         <v>44</v>
       </c>
       <c r="G64" s="6">
-        <v>12530167.045045041</v>
+        <v>12934365.24324324</v>
       </c>
       <c r="H64" s="6">
-        <v>10136987.33333333</v>
+        <v>10665765.71171171</v>
       </c>
       <c r="I64" s="6">
-        <v>8420475.9099099096</v>
+        <v>8824674.1081081089</v>
       </c>
       <c r="J64" s="6">
-        <v>6046608.1801801799</v>
+        <v>6386700.9729729732</v>
       </c>
       <c r="K64" s="6">
         <v>4109691.1351351351</v>
       </c>
       <c r="L64" s="6">
-        <v>4090379.1531531531</v>
+        <v>4279064.7387387389</v>
       </c>
       <c r="M64" s="6">
-        <v>2.9130434782608701</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="N64" s="6">
-        <v>1.2608695652173909</v>
+        <v>2.5</v>
       </c>
       <c r="O64" s="6">
-        <v>5294986.4234234234</v>
+        <v>5578630.5855855858</v>
       </c>
       <c r="P64" s="6">
-        <v>1497544.1441441439</v>
+        <v>2637391.018018018</v>
       </c>
       <c r="Q64" s="6">
         <v>188459.4594594595</v>
       </c>
       <c r="R64" s="6">
-        <v>292792.79279279278</v>
+        <v>322522.52252252249</v>
       </c>
       <c r="S64" s="6">
         <v>0</v>
@@ -14365,10 +14368,10 @@
         <v>0</v>
       </c>
       <c r="U64" s="6">
-        <v>5061481.9189189188</v>
+        <v>5143391.8468468469</v>
       </c>
       <c r="V64" s="6">
-        <v>1159706.306306306</v>
+        <v>2269823.4504504511</v>
       </c>
       <c r="W64" s="6">
         <v>0</v>
@@ -14377,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="6">
-        <v>474243.24324324331</v>
+        <v>617418.91891891893</v>
       </c>
       <c r="Z64" s="6">
         <v>316509.00900900899</v>
@@ -14386,25 +14389,25 @@
         <v>108113.51351351351</v>
       </c>
       <c r="AB64" s="6">
-        <v>472907.20720720722</v>
+        <v>492051.35135135142</v>
       </c>
       <c r="AC64" s="6">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD64" s="6">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE64" s="6">
-        <v>140807054.81405401</v>
+        <v>147186329.2735135</v>
       </c>
       <c r="AF64" s="6">
-        <v>121073630.4427928</v>
+        <v>127235127.4247748</v>
       </c>
       <c r="AG64" s="6">
         <v>32</v>
       </c>
       <c r="AH64" s="6">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="AI64" s="6">
         <v>30</v>
@@ -14413,16 +14416,16 @@
         <v>10</v>
       </c>
       <c r="AK64" s="6">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL64" s="6">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="AM64" s="6">
         <v>2</v>
       </c>
       <c r="AN64" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO64" s="6">
         <v>0</v>
@@ -14434,7 +14437,7 @@
         <v>235</v>
       </c>
       <c r="AR64" s="6">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="AS64" s="6">
         <v>0</v>
@@ -14443,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV64" s="6">
         <v>3</v>
@@ -14452,25 +14455,25 @@
         <v>11</v>
       </c>
       <c r="AX64" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY64" s="6">
-        <v>16662117.11711712</v>
+        <v>16932387.387387391</v>
       </c>
       <c r="AZ64" s="6">
-        <v>6680630.630630631</v>
+        <v>8586936.9369369373</v>
       </c>
       <c r="BA64" s="6">
         <v>3</v>
       </c>
       <c r="BB64" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC64" s="6">
         <v>8</v>
       </c>
       <c r="BD64" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BE64" s="6">
         <v>2</v>
@@ -14479,43 +14482,43 @@
         <v>0</v>
       </c>
       <c r="BG64" s="6">
-        <v>8420475.9099099096</v>
+        <v>8824674.1081081089</v>
       </c>
       <c r="BH64" s="6">
-        <v>6046608.1801801799</v>
+        <v>6386700.9729729732</v>
       </c>
       <c r="BI64" s="6">
         <v>4109691.1351351351</v>
       </c>
       <c r="BJ64" s="6">
-        <v>4090379.1531531531</v>
+        <v>4279064.7387387389</v>
       </c>
       <c r="BK64" s="6">
-        <v>8193109.9099099096</v>
+        <v>8532983.7837837841</v>
       </c>
       <c r="BL64" s="6">
-        <v>6016849.5495495498</v>
+        <v>6487696.3963963967</v>
       </c>
       <c r="BM64" s="6">
-        <v>6270180.1801801799</v>
+        <v>6610054.0540540544</v>
       </c>
       <c r="BN64" s="6">
-        <v>3721087.387387387</v>
+        <v>4032019.8198198201</v>
       </c>
       <c r="BO64" s="6">
         <v>1922929.7297297299</v>
       </c>
       <c r="BP64" s="6">
-        <v>2295762.1621621619</v>
+        <v>2455676.576576577</v>
       </c>
       <c r="BQ64" s="6">
-        <v>10650776.576576579</v>
+        <v>10835677.47747748</v>
       </c>
       <c r="BR64" s="6">
-        <v>5377920.7207207195</v>
+        <v>5674709.0090090092</v>
       </c>
     </row>
-    <row r="65" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>110</v>
       </c>
@@ -14607,10 +14610,10 @@
         <v>0</v>
       </c>
       <c r="AE65" s="6">
-        <v>295928.68612612621</v>
+        <v>313900.1726126126</v>
       </c>
       <c r="AF65" s="6">
-        <v>274415.57495495502</v>
+        <v>284902.92630630633</v>
       </c>
       <c r="AG65" s="6">
         <v>0</v>
@@ -14727,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
@@ -14747,16 +14750,16 @@
         <v>44</v>
       </c>
       <c r="G66" s="6">
-        <v>357090.32432432432</v>
+        <v>384117.35135135142</v>
       </c>
       <c r="H66" s="6">
-        <v>121621.6216216216</v>
+        <v>131953.15315315319</v>
       </c>
       <c r="I66" s="6">
-        <v>285648.64864864858</v>
+        <v>312675.67567567568</v>
       </c>
       <c r="J66" s="6">
-        <v>83963.963963963964</v>
+        <v>94295.495495495488</v>
       </c>
       <c r="K66" s="6">
         <v>71441.67567567568</v>
@@ -14765,10 +14768,10 @@
         <v>37657.657657657663</v>
       </c>
       <c r="M66" s="6">
-        <v>0.2608695652173913</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="N66" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="O66" s="6">
         <v>299324.32432432432</v>
@@ -14819,16 +14822,16 @@
         <v>6</v>
       </c>
       <c r="AE66" s="6">
-        <v>4066911.9849549551</v>
+        <v>4218335.9759459458</v>
       </c>
       <c r="AF66" s="6">
-        <v>4257391.0714414418</v>
+        <v>4418804.0984684695</v>
       </c>
       <c r="AG66" s="6">
         <v>2</v>
       </c>
       <c r="AH66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI66" s="6">
         <v>1</v>
@@ -14879,10 +14882,10 @@
         <v>0</v>
       </c>
       <c r="AY66" s="6">
-        <v>351351.35135135142</v>
+        <v>360360.36036036041</v>
       </c>
       <c r="AZ66" s="6">
-        <v>846846.84684684686</v>
+        <v>855855.85585585586</v>
       </c>
       <c r="BA66" s="6">
         <v>0</v>
@@ -14903,10 +14906,10 @@
         <v>0</v>
       </c>
       <c r="BG66" s="6">
-        <v>285648.64864864858</v>
+        <v>312675.67567567568</v>
       </c>
       <c r="BH66" s="6">
-        <v>83963.963963963964</v>
+        <v>94295.495495495488</v>
       </c>
       <c r="BI66" s="6">
         <v>71441.67567567568</v>
@@ -14915,13 +14918,13 @@
         <v>37657.657657657663</v>
       </c>
       <c r="BK66" s="6">
-        <v>267180.18018018018</v>
+        <v>294207.20720720722</v>
       </c>
       <c r="BL66" s="6">
         <v>83963.963963963964</v>
       </c>
       <c r="BM66" s="6">
-        <v>233396.39639639639</v>
+        <v>260423.4234234234</v>
       </c>
       <c r="BN66" s="6">
         <v>83963.963963963964</v>
@@ -14933,13 +14936,13 @@
         <v>0</v>
       </c>
       <c r="BQ66" s="6">
-        <v>349215.31531531533</v>
+        <v>376242.34234234242</v>
       </c>
       <c r="BR66" s="6">
-        <v>643082.88288288284</v>
+        <v>674614.41441441444</v>
       </c>
     </row>
-    <row r="67" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -14959,16 +14962,16 @@
         <v>44</v>
       </c>
       <c r="G67" s="6">
-        <v>2040810.0990990989</v>
+        <v>2210756.0450450452</v>
       </c>
       <c r="H67" s="6">
-        <v>1620124.9099099101</v>
+        <v>1696784.981981982</v>
       </c>
       <c r="I67" s="6">
-        <v>1525837.8198198201</v>
+        <v>1695783.7657657659</v>
       </c>
       <c r="J67" s="6">
-        <v>897627.61261261266</v>
+        <v>974287.68468468473</v>
       </c>
       <c r="K67" s="6">
         <v>514972.27927927929</v>
@@ -14983,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="6">
-        <v>149655.7657657658</v>
+        <v>150448.55855855861</v>
       </c>
       <c r="P67" s="6">
         <v>214727.99099099101</v>
@@ -15001,7 +15004,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <v>149655.7657657658</v>
+        <v>150448.55855855861</v>
       </c>
       <c r="V67" s="6">
         <v>214727.99099099101</v>
@@ -15019,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="AA67" s="6">
-        <v>130315.22522522519</v>
+        <v>131108.01801801799</v>
       </c>
       <c r="AB67" s="6">
         <v>214727.99099099101</v>
@@ -15031,10 +15034,10 @@
         <v>8</v>
       </c>
       <c r="AE67" s="6">
-        <v>14102218.81297297</v>
+        <v>14690106.17333333</v>
       </c>
       <c r="AF67" s="6">
-        <v>13999343.044234229</v>
+        <v>14586825.494684691</v>
       </c>
       <c r="AG67" s="6">
         <v>0</v>
@@ -15094,7 +15097,7 @@
         <v>2784454.054054054</v>
       </c>
       <c r="AZ67" s="6">
-        <v>540540.54054054059</v>
+        <v>765765.7657657658</v>
       </c>
       <c r="BA67" s="6">
         <v>0</v>
@@ -15115,10 +15118,10 @@
         <v>0</v>
       </c>
       <c r="BG67" s="6">
-        <v>1525837.8198198201</v>
+        <v>1695783.7657657659</v>
       </c>
       <c r="BH67" s="6">
-        <v>897627.61261261266</v>
+        <v>974287.68468468473</v>
       </c>
       <c r="BI67" s="6">
         <v>514972.27927927929</v>
@@ -15127,16 +15130,16 @@
         <v>722497.29729729728</v>
       </c>
       <c r="BK67" s="6">
-        <v>1524024.324324324</v>
+        <v>1629645.945945946</v>
       </c>
       <c r="BL67" s="6">
-        <v>1080545.945945946</v>
+        <v>1128045.945945946</v>
       </c>
       <c r="BM67" s="6">
-        <v>1184014.414414414</v>
+        <v>1289636.036036036</v>
       </c>
       <c r="BN67" s="6">
-        <v>692138.7387387387</v>
+        <v>739638.7387387387</v>
       </c>
       <c r="BO67" s="6">
         <v>340009.90990990988</v>
@@ -15145,13 +15148,13 @@
         <v>388407.20720720722</v>
       </c>
       <c r="BQ67" s="6">
-        <v>1785299.0990990989</v>
+        <v>1890920.7207207209</v>
       </c>
       <c r="BR67" s="6">
-        <v>570778.37837837834</v>
+        <v>594656.7567567568</v>
       </c>
     </row>
-    <row r="68" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>110</v>
       </c>
@@ -15171,16 +15174,16 @@
         <v>44</v>
       </c>
       <c r="G68" s="6">
-        <v>1485941.7387387389</v>
+        <v>1560536.333333333</v>
       </c>
       <c r="H68" s="6">
-        <v>1881102.8738738741</v>
+        <v>1970021.7927927929</v>
       </c>
       <c r="I68" s="6">
-        <v>1151285.585585586</v>
+        <v>1225880.1801801799</v>
       </c>
       <c r="J68" s="6">
-        <v>1417100.9009009011</v>
+        <v>1506019.8198198201</v>
       </c>
       <c r="K68" s="6">
         <v>334656.15315315308</v>
@@ -15189,16 +15192,16 @@
         <v>464001.97297297302</v>
       </c>
       <c r="M68" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="N68" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="O68" s="6">
-        <v>479078.3873873874</v>
+        <v>515115.32432432432</v>
       </c>
       <c r="P68" s="6">
-        <v>1270162.1621621619</v>
+        <v>1380252.2522522521</v>
       </c>
       <c r="Q68" s="6">
         <v>0</v>
@@ -15213,10 +15216,10 @@
         <v>0</v>
       </c>
       <c r="U68" s="6">
-        <v>479078.3873873874</v>
+        <v>506105.41441441438</v>
       </c>
       <c r="V68" s="6">
-        <v>1270162.1621621619</v>
+        <v>1380252.2522522521</v>
       </c>
       <c r="W68" s="6">
         <v>0</v>
@@ -15231,7 +15234,7 @@
         <v>109245.9459459459</v>
       </c>
       <c r="AA68" s="6">
-        <v>403539.64864864858</v>
+        <v>412549.55855855858</v>
       </c>
       <c r="AB68" s="6">
         <v>1141366.666666667</v>
@@ -15240,13 +15243,13 @@
         <v>43</v>
       </c>
       <c r="AD68" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE68" s="6">
-        <v>34921940.11225225</v>
+        <v>36434152.950090088</v>
       </c>
       <c r="AF68" s="6">
-        <v>32648488.65612613</v>
+        <v>34050933.502972983</v>
       </c>
       <c r="AG68" s="6">
         <v>0</v>
@@ -15261,10 +15264,10 @@
         <v>2</v>
       </c>
       <c r="AK68" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL68" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM68" s="6">
         <v>0</v>
@@ -15282,7 +15285,7 @@
         <v>13</v>
       </c>
       <c r="AR68" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS68" s="6">
         <v>0</v>
@@ -15297,13 +15300,13 @@
         <v>2</v>
       </c>
       <c r="AW68" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX68" s="6">
         <v>14</v>
       </c>
       <c r="AY68" s="6">
-        <v>945945.94594594592</v>
+        <v>1036036.036036036</v>
       </c>
       <c r="AZ68" s="6">
         <v>909909.90990990994</v>
@@ -15327,10 +15330,10 @@
         <v>0</v>
       </c>
       <c r="BG68" s="6">
-        <v>1151285.585585586</v>
+        <v>1225880.1801801799</v>
       </c>
       <c r="BH68" s="6">
-        <v>1417100.9009009011</v>
+        <v>1506019.8198198201</v>
       </c>
       <c r="BI68" s="6">
         <v>334656.15315315308</v>
@@ -15339,16 +15342,16 @@
         <v>464001.97297297302</v>
       </c>
       <c r="BK68" s="6">
-        <v>934355.85585585586</v>
+        <v>1008950.4504504499</v>
       </c>
       <c r="BL68" s="6">
-        <v>865446.84684684686</v>
+        <v>884996.39639639645</v>
       </c>
       <c r="BM68" s="6">
-        <v>850842.34234234237</v>
+        <v>925436.93693693692</v>
       </c>
       <c r="BN68" s="6">
-        <v>849590.99099099101</v>
+        <v>869140.54054054059</v>
       </c>
       <c r="BO68" s="6">
         <v>83513.513513513521</v>
@@ -15357,13 +15360,13 @@
         <v>15855.85585585586</v>
       </c>
       <c r="BQ68" s="6">
-        <v>628427.92792792793</v>
+        <v>703022.52252252249</v>
       </c>
       <c r="BR68" s="6">
         <v>515623.42342342337</v>
       </c>
     </row>
-    <row r="69" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>110</v>
       </c>
@@ -15401,13 +15404,13 @@
         <v>617906.52252252249</v>
       </c>
       <c r="M69" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="N69" s="6">
         <v>0</v>
       </c>
       <c r="O69" s="6">
-        <v>422203.60360360361</v>
+        <v>428194.59459459462</v>
       </c>
       <c r="P69" s="6">
         <v>157119.81981981979</v>
@@ -15425,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="6">
-        <v>422203.60360360361</v>
+        <v>428194.59459459462</v>
       </c>
       <c r="V69" s="6">
         <v>157119.81981981979</v>
@@ -15455,10 +15458,10 @@
         <v>29</v>
       </c>
       <c r="AE69" s="6">
-        <v>22185358.154054049</v>
+        <v>23178643.87477478</v>
       </c>
       <c r="AF69" s="6">
-        <v>20855904.262792788</v>
+        <v>21755407.740270268</v>
       </c>
       <c r="AG69" s="6">
         <v>0</v>
@@ -15575,7 +15578,7 @@
         <v>22720.720720720721</v>
       </c>
     </row>
-    <row r="70" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>110</v>
       </c>
@@ -15613,13 +15616,13 @@
         <v>74594.5945945946</v>
       </c>
       <c r="M70" s="6">
-        <v>0.47826086956521741</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N70" s="6">
-        <v>0.69565217391304346</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O70" s="6">
-        <v>148936.93693693689</v>
+        <v>159268.46846846849</v>
       </c>
       <c r="P70" s="6">
         <v>18019.819819819819</v>
@@ -15637,7 +15640,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="6">
-        <v>148936.93693693689</v>
+        <v>159268.46846846849</v>
       </c>
       <c r="V70" s="6">
         <v>18019.819819819819</v>
@@ -15655,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="AA70" s="6">
-        <v>129387.3873873874</v>
+        <v>139718.91891891891</v>
       </c>
       <c r="AB70" s="6">
         <v>18019.819819819819</v>
@@ -15667,10 +15670,10 @@
         <v>9</v>
       </c>
       <c r="AE70" s="6">
-        <v>6852511.0436036037</v>
+        <v>7106856.2958558556</v>
       </c>
       <c r="AF70" s="6">
-        <v>5255899.5220720721</v>
+        <v>5579117.2247747751</v>
       </c>
       <c r="AG70" s="6">
         <v>1</v>
@@ -15787,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>110</v>
       </c>
@@ -15810,13 +15813,13 @@
         <v>1068985.954954955</v>
       </c>
       <c r="H71" s="6">
-        <v>658293.78378378379</v>
+        <v>734870.36036036036</v>
       </c>
       <c r="I71" s="6">
         <v>1021807.207207207</v>
       </c>
       <c r="J71" s="6">
-        <v>521537.02702702698</v>
+        <v>598113.60360360355</v>
       </c>
       <c r="K71" s="6">
         <v>47178.747747747751</v>
@@ -15828,19 +15831,19 @@
         <v>0</v>
       </c>
       <c r="N71" s="6">
-        <v>4.3478260869565223E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="O71" s="6">
-        <v>302929.7297297297</v>
+        <v>311938.73873873882</v>
       </c>
       <c r="P71" s="6">
-        <v>207662.16216216219</v>
+        <v>284238.73873873882</v>
       </c>
       <c r="Q71" s="6">
         <v>0</v>
       </c>
       <c r="R71" s="6">
-        <v>0</v>
+        <v>76576.576576576583</v>
       </c>
       <c r="S71" s="6">
         <v>0</v>
@@ -15849,7 +15852,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="6">
-        <v>302929.7297297297</v>
+        <v>311938.73873873882</v>
       </c>
       <c r="V71" s="6">
         <v>207662.16216216219</v>
@@ -15867,7 +15870,7 @@
         <v>0</v>
       </c>
       <c r="AA71" s="6">
-        <v>37389.189189189186</v>
+        <v>46398.198198198203</v>
       </c>
       <c r="AB71" s="6">
         <v>207662.16216216219</v>
@@ -15879,10 +15882,10 @@
         <v>13</v>
       </c>
       <c r="AE71" s="6">
-        <v>11874100.324864861</v>
+        <v>12398005.595135139</v>
       </c>
       <c r="AF71" s="6">
-        <v>11363859.065945949</v>
+        <v>11867085.50738739</v>
       </c>
       <c r="AG71" s="6">
         <v>0</v>
@@ -15900,13 +15903,13 @@
         <v>8</v>
       </c>
       <c r="AL71" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM71" s="6">
         <v>0</v>
       </c>
       <c r="AN71" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO71" s="6">
         <v>0</v>
@@ -15942,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="AZ71" s="6">
-        <v>0</v>
+        <v>900900.90090090095</v>
       </c>
       <c r="BA71" s="6">
         <v>0</v>
@@ -15966,7 +15969,7 @@
         <v>1021807.207207207</v>
       </c>
       <c r="BH71" s="6">
-        <v>521537.02702702698</v>
+        <v>598113.60360360355</v>
       </c>
       <c r="BI71" s="6">
         <v>47178.747747747751</v>
@@ -15978,13 +15981,13 @@
         <v>300181.98198198201</v>
       </c>
       <c r="BL71" s="6">
-        <v>68833.333333333328</v>
+        <v>145409.90990990991</v>
       </c>
       <c r="BM71" s="6">
         <v>282163.96396396402</v>
       </c>
       <c r="BN71" s="6">
-        <v>45049.549549549549</v>
+        <v>121626.1261261261</v>
       </c>
       <c r="BO71" s="6">
         <v>18018.018018018021</v>
@@ -15999,7 +16002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>110</v>
       </c>
@@ -16022,13 +16025,13 @@
         <v>1030842.333333333</v>
       </c>
       <c r="H72" s="6">
-        <v>986427.02702702698</v>
+        <v>1007198.198198198</v>
       </c>
       <c r="I72" s="6">
         <v>489204.5045045045</v>
       </c>
       <c r="J72" s="6">
-        <v>227931.53153153151</v>
+        <v>248702.70270270269</v>
       </c>
       <c r="K72" s="6">
         <v>541637.82882882887</v>
@@ -16085,16 +16088,16 @@
         <v>0</v>
       </c>
       <c r="AC72" s="6">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD72" s="6">
         <v>5</v>
       </c>
       <c r="AE72" s="6">
-        <v>9605541.3805405404</v>
+        <v>9979357.9661261253</v>
       </c>
       <c r="AF72" s="6">
-        <v>10332280.189279281</v>
+        <v>10737918.783873869</v>
       </c>
       <c r="AG72" s="6">
         <v>0</v>
@@ -16178,7 +16181,7 @@
         <v>489204.5045045045</v>
       </c>
       <c r="BH72" s="6">
-        <v>227931.53153153151</v>
+        <v>248702.70270270269</v>
       </c>
       <c r="BI72" s="6">
         <v>541637.82882882887</v>
@@ -16211,7 +16214,7 @@
         <v>69333.333333333328</v>
       </c>
     </row>
-    <row r="73" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>110</v>
       </c>
@@ -16303,10 +16306,10 @@
         <v>0</v>
       </c>
       <c r="AE73" s="6">
-        <v>1473143.5802702699</v>
+        <v>1510268.6433333331</v>
       </c>
       <c r="AF73" s="6">
-        <v>471027.14549549553</v>
+        <v>484512.61396396399</v>
       </c>
       <c r="AG73" s="6">
         <v>0</v>
@@ -16423,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>137</v>
       </c>
@@ -16515,10 +16518,10 @@
         <v>5</v>
       </c>
       <c r="AE74" s="6">
-        <v>16923794.024414409</v>
+        <v>17623422.16855856</v>
       </c>
       <c r="AF74" s="6">
-        <v>16905671.992342342</v>
+        <v>17595597.334684681</v>
       </c>
       <c r="AG74" s="6">
         <v>0</v>
@@ -16635,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>137</v>
       </c>
@@ -16673,10 +16676,10 @@
         <v>625118.91891891893</v>
       </c>
       <c r="M75" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="N75" s="6">
-        <v>0.21739130434782611</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="O75" s="6">
         <v>95888.288288288284</v>
@@ -16721,16 +16724,16 @@
         <v>258788.28828828831</v>
       </c>
       <c r="AC75" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD75" s="6">
         <v>22</v>
       </c>
       <c r="AE75" s="6">
-        <v>34795947.468018018</v>
+        <v>36221739.918468468</v>
       </c>
       <c r="AF75" s="6">
-        <v>33694445.251981981</v>
+        <v>35004543.540270269</v>
       </c>
       <c r="AG75" s="6">
         <v>0</v>
@@ -16847,7 +16850,7 @@
         <v>27027.02702702703</v>
       </c>
     </row>
-    <row r="76" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>105</v>
       </c>
@@ -16867,28 +16870,28 @@
         <v>44</v>
       </c>
       <c r="G76" s="6">
-        <v>1509978.369369369</v>
+        <v>1520310</v>
       </c>
       <c r="H76" s="6">
-        <v>2336916.297297298</v>
+        <v>2422628.3963963962</v>
       </c>
       <c r="I76" s="6">
-        <v>1089435.306306306</v>
+        <v>1099766.936936937</v>
       </c>
       <c r="J76" s="6">
-        <v>2008976.657657658</v>
+        <v>2066490.1711711709</v>
       </c>
       <c r="K76" s="6">
         <v>420543.06306306308</v>
       </c>
       <c r="L76" s="6">
-        <v>327939.63963963959</v>
+        <v>356138.22522522521</v>
       </c>
       <c r="M76" s="6">
         <v>0</v>
       </c>
       <c r="N76" s="6">
-        <v>0.17391304347826089</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="O76" s="6">
         <v>0</v>
@@ -16939,10 +16942,10 @@
         <v>5</v>
       </c>
       <c r="AE76" s="6">
-        <v>12157005.96369369</v>
+        <v>12693936.88261261</v>
       </c>
       <c r="AF76" s="6">
-        <v>11379394.950810811</v>
+        <v>11832199.022882881</v>
       </c>
       <c r="AG76" s="6">
         <v>0</v>
@@ -17023,43 +17026,43 @@
         <v>0</v>
       </c>
       <c r="BG76" s="6">
-        <v>1089435.306306306</v>
+        <v>1099766.936936937</v>
       </c>
       <c r="BH76" s="6">
-        <v>2008976.657657658</v>
+        <v>2066490.1711711709</v>
       </c>
       <c r="BI76" s="6">
         <v>420543.06306306308</v>
       </c>
       <c r="BJ76" s="6">
-        <v>327939.63963963959</v>
+        <v>356138.22522522521</v>
       </c>
       <c r="BK76" s="6">
         <v>1058529.7297297299</v>
       </c>
       <c r="BL76" s="6">
-        <v>1636371.1711711709</v>
+        <v>1703254.054054054</v>
       </c>
       <c r="BM76" s="6">
         <v>769032.43243243243</v>
       </c>
       <c r="BN76" s="6">
-        <v>1412907.2072072071</v>
+        <v>1470420.7207207209</v>
       </c>
       <c r="BO76" s="6">
         <v>289497.29729729728</v>
       </c>
       <c r="BP76" s="6">
-        <v>223463.96396396399</v>
+        <v>232833.33333333331</v>
       </c>
       <c r="BQ76" s="6">
         <v>833077.47747747751</v>
       </c>
       <c r="BR76" s="6">
-        <v>1100974.7747747749</v>
+        <v>1207407.2072072071</v>
       </c>
     </row>
-    <row r="77" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>141</v>
       </c>
@@ -17079,34 +17082,34 @@
         <v>44</v>
       </c>
       <c r="G77" s="6">
-        <v>3584157.9369369368</v>
+        <v>3616788.5675675669</v>
       </c>
       <c r="H77" s="6">
-        <v>4351440.5405405406</v>
+        <v>4502302.702702703</v>
       </c>
       <c r="I77" s="6">
-        <v>2971398.1981981979</v>
+        <v>3004028.8288288289</v>
       </c>
       <c r="J77" s="6">
-        <v>3810655.8558558561</v>
+        <v>3829536.036036036</v>
       </c>
       <c r="K77" s="6">
         <v>612759.7387387387</v>
       </c>
       <c r="L77" s="6">
-        <v>540784.68468468473</v>
+        <v>672766.66666666663</v>
       </c>
       <c r="M77" s="6">
-        <v>1.173913043478261</v>
+        <v>1.125</v>
       </c>
       <c r="N77" s="6">
-        <v>1.0869565217391299</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="O77" s="6">
         <v>1680794.594594595</v>
       </c>
       <c r="P77" s="6">
-        <v>3062324.3243243238</v>
+        <v>3098361.2612612611</v>
       </c>
       <c r="Q77" s="6">
         <v>0</v>
@@ -17124,7 +17127,7 @@
         <v>1649788.2882882881</v>
       </c>
       <c r="V77" s="6">
-        <v>2823585.5855855858</v>
+        <v>2859622.5225225231</v>
       </c>
       <c r="W77" s="6">
         <v>31006.306306306309</v>
@@ -17136,25 +17139,25 @@
         <v>103528.8288288288</v>
       </c>
       <c r="Z77" s="6">
-        <v>2548581.0810810812</v>
+        <v>2575608.1081081079</v>
       </c>
       <c r="AA77" s="6">
         <v>108559.4594594595</v>
       </c>
       <c r="AB77" s="6">
-        <v>183382.8828828829</v>
+        <v>192392.79279279281</v>
       </c>
       <c r="AC77" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD77" s="6">
         <v>160</v>
       </c>
       <c r="AE77" s="6">
-        <v>25110354.415945951</v>
+        <v>26330671.433963969</v>
       </c>
       <c r="AF77" s="6">
-        <v>21610948.894234229</v>
+        <v>22693029.461801801</v>
       </c>
       <c r="AG77" s="6">
         <v>23</v>
@@ -17172,7 +17175,7 @@
         <v>77</v>
       </c>
       <c r="AL77" s="6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AM77" s="6">
         <v>0</v>
@@ -17190,7 +17193,7 @@
         <v>76</v>
       </c>
       <c r="AR77" s="6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AS77" s="6">
         <v>1</v>
@@ -17202,25 +17205,25 @@
         <v>2</v>
       </c>
       <c r="AV77" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AW77" s="6">
         <v>1</v>
       </c>
       <c r="AX77" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY77" s="6">
         <v>2018018.018018018</v>
       </c>
       <c r="AZ77" s="6">
-        <v>3108108.1081081079</v>
+        <v>4928209.0090090092</v>
       </c>
       <c r="BA77" s="6">
         <v>0</v>
       </c>
       <c r="BB77" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC77" s="6">
         <v>6</v>
@@ -17235,43 +17238,43 @@
         <v>0</v>
       </c>
       <c r="BG77" s="6">
-        <v>2971398.1981981979</v>
+        <v>3004028.8288288289</v>
       </c>
       <c r="BH77" s="6">
-        <v>3810655.8558558561</v>
+        <v>3829536.036036036</v>
       </c>
       <c r="BI77" s="6">
         <v>612759.7387387387</v>
       </c>
       <c r="BJ77" s="6">
-        <v>540784.68468468473</v>
+        <v>672766.66666666663</v>
       </c>
       <c r="BK77" s="6">
-        <v>2396599.0990990992</v>
+        <v>2429229.7297297302</v>
       </c>
       <c r="BL77" s="6">
-        <v>3295545.0450450452</v>
+        <v>3440500.9009009008</v>
       </c>
       <c r="BM77" s="6">
-        <v>2134547.7477477482</v>
+        <v>2167178.3783783782</v>
       </c>
       <c r="BN77" s="6">
-        <v>3171045.0450450452</v>
+        <v>3184018.9189189188</v>
       </c>
       <c r="BO77" s="6">
         <v>262051.35135135139</v>
       </c>
       <c r="BP77" s="6">
-        <v>124500</v>
+        <v>256481.98198198201</v>
       </c>
       <c r="BQ77" s="6">
-        <v>1408990.0900900899</v>
+        <v>1441620.7207207209</v>
       </c>
       <c r="BR77" s="6">
-        <v>2575450.4504504511</v>
+        <v>2656891.8918918921</v>
       </c>
     </row>
-    <row r="78" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>75</v>
       </c>
@@ -17294,13 +17297,13 @@
         <v>472983.51351351349</v>
       </c>
       <c r="H78" s="6">
-        <v>546438.72072072071</v>
+        <v>561354.03603603609</v>
       </c>
       <c r="I78" s="6">
         <v>248110.6216216216</v>
       </c>
       <c r="J78" s="6">
-        <v>346613.51351351349</v>
+        <v>361528.82882882882</v>
       </c>
       <c r="K78" s="6">
         <v>224872.89189189189</v>
@@ -17363,10 +17366,10 @@
         <v>0</v>
       </c>
       <c r="AE78" s="6">
-        <v>8139199.6515315305</v>
+        <v>8427261.5073873866</v>
       </c>
       <c r="AF78" s="6">
-        <v>7648285.0513513517</v>
+        <v>7956590.4387387391</v>
       </c>
       <c r="AG78" s="6">
         <v>0</v>
@@ -17450,7 +17453,7 @@
         <v>248110.6216216216</v>
       </c>
       <c r="BH78" s="6">
-        <v>346613.51351351349</v>
+        <v>361528.82882882882</v>
       </c>
       <c r="BI78" s="6">
         <v>224872.89189189189</v>
@@ -17462,13 +17465,13 @@
         <v>141418.91891891891</v>
       </c>
       <c r="BL78" s="6">
-        <v>196406.3063063063</v>
+        <v>205415.3153153153</v>
       </c>
       <c r="BM78" s="6">
         <v>109581.08108108109</v>
       </c>
       <c r="BN78" s="6">
-        <v>167874.77477477479</v>
+        <v>176883.78378378379</v>
       </c>
       <c r="BO78" s="6">
         <v>31837.83783783784</v>
@@ -17483,7 +17486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>65</v>
       </c>
@@ -17503,34 +17506,34 @@
         <v>44</v>
       </c>
       <c r="G79" s="6">
-        <v>8111042.7567567565</v>
+        <v>8611281.5135135129</v>
       </c>
       <c r="H79" s="6">
-        <v>7486112.1801801799</v>
+        <v>7960124.1711711716</v>
       </c>
       <c r="I79" s="6">
-        <v>6961759.1351351347</v>
+        <v>7461997.8918918921</v>
       </c>
       <c r="J79" s="6">
-        <v>6486434.666666667</v>
+        <v>6944527.7387387389</v>
       </c>
       <c r="K79" s="6">
         <v>1149283.621621622</v>
       </c>
       <c r="L79" s="6">
-        <v>999677.51351351349</v>
+        <v>1015596.432432432</v>
       </c>
       <c r="M79" s="6">
-        <v>0.69565217391304346</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N79" s="6">
-        <v>0.95652173913043481</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="O79" s="6">
-        <v>1467353.1531531529</v>
+        <v>1588218.018018018</v>
       </c>
       <c r="P79" s="6">
-        <v>1460732.5045045051</v>
+        <v>1632355.027027027</v>
       </c>
       <c r="Q79" s="6">
         <v>0</v>
@@ -17545,10 +17548,10 @@
         <v>0</v>
       </c>
       <c r="U79" s="6">
-        <v>1467353.1531531529</v>
+        <v>1588218.018018018</v>
       </c>
       <c r="V79" s="6">
-        <v>1460732.5045045051</v>
+        <v>1469742.414414414</v>
       </c>
       <c r="W79" s="6">
         <v>0</v>
@@ -17557,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="Y79" s="6">
-        <v>432432.43243243243</v>
+        <v>522972.98198198201</v>
       </c>
       <c r="Z79" s="6">
         <v>72072.072072072071</v>
@@ -17566,19 +17569,19 @@
         <v>48018.91891891892</v>
       </c>
       <c r="AB79" s="6">
-        <v>1101453.2072072071</v>
+        <v>1110463.1171171169</v>
       </c>
       <c r="AC79" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD79" s="6">
         <v>93</v>
       </c>
       <c r="AE79" s="6">
-        <v>36284549.88747748</v>
+        <v>37842394.509099104</v>
       </c>
       <c r="AF79" s="6">
-        <v>33296491.381621622</v>
+        <v>34778904.219459459</v>
       </c>
       <c r="AG79" s="6">
         <v>5</v>
@@ -17596,7 +17599,7 @@
         <v>54</v>
       </c>
       <c r="AL79" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM79" s="6">
         <v>0</v>
@@ -17614,7 +17617,7 @@
         <v>54</v>
       </c>
       <c r="AR79" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS79" s="6">
         <v>0</v>
@@ -17632,13 +17635,13 @@
         <v>2</v>
       </c>
       <c r="AX79" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY79" s="6">
-        <v>7787672.072072072</v>
+        <v>7877762.1621621624</v>
       </c>
       <c r="AZ79" s="6">
-        <v>5990990.9909909908</v>
+        <v>6081081.0810810812</v>
       </c>
       <c r="BA79" s="6">
         <v>1</v>
@@ -17659,43 +17662,43 @@
         <v>1</v>
       </c>
       <c r="BG79" s="6">
-        <v>6961759.1351351347</v>
+        <v>7461997.8918918921</v>
       </c>
       <c r="BH79" s="6">
-        <v>6486434.666666667</v>
+        <v>6944527.7387387389</v>
       </c>
       <c r="BI79" s="6">
         <v>1149283.621621622</v>
       </c>
       <c r="BJ79" s="6">
-        <v>999677.51351351349</v>
+        <v>1015596.432432432</v>
       </c>
       <c r="BK79" s="6">
-        <v>5416978.3783783782</v>
+        <v>5728208.1081081079</v>
       </c>
       <c r="BL79" s="6">
-        <v>5156293.6936936937</v>
+        <v>5383580.1801801799</v>
       </c>
       <c r="BM79" s="6">
-        <v>4568035.1351351347</v>
+        <v>4879264.8648648653</v>
       </c>
       <c r="BN79" s="6">
-        <v>4513607.2072072076</v>
+        <v>4724974.7747747749</v>
       </c>
       <c r="BO79" s="6">
         <v>848943.2432432432</v>
       </c>
       <c r="BP79" s="6">
-        <v>642686.48648648651</v>
+        <v>658605.40540540544</v>
       </c>
       <c r="BQ79" s="6">
-        <v>4409378.3783783782</v>
+        <v>4659346.8468468469</v>
       </c>
       <c r="BR79" s="6">
-        <v>4255829.7297297297</v>
+        <v>4431092.7927927924</v>
       </c>
     </row>
-    <row r="80" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>62</v>
       </c>
@@ -17715,16 +17718,16 @@
         <v>44</v>
       </c>
       <c r="G80" s="6">
-        <v>3196959.441441441</v>
+        <v>3262944.1261261259</v>
       </c>
       <c r="H80" s="6">
-        <v>3139463.0630630632</v>
+        <v>3299737.8378378381</v>
       </c>
       <c r="I80" s="6">
-        <v>2985634.2342342339</v>
+        <v>3051618.9189189188</v>
       </c>
       <c r="J80" s="6">
-        <v>2785032.4324324331</v>
+        <v>2945307.2072072071</v>
       </c>
       <c r="K80" s="6">
         <v>211325.20720720719</v>
@@ -17733,10 +17736,10 @@
         <v>354430.63063063071</v>
       </c>
       <c r="M80" s="6">
-        <v>0.13043478260869559</v>
+        <v>0.125</v>
       </c>
       <c r="N80" s="6">
-        <v>0.2608695652173913</v>
+        <v>0.25</v>
       </c>
       <c r="O80" s="6">
         <v>302476.57657657663</v>
@@ -17787,10 +17790,10 @@
         <v>17</v>
       </c>
       <c r="AE80" s="6">
-        <v>11305994.011711709</v>
+        <v>11744339.23693694</v>
       </c>
       <c r="AF80" s="6">
-        <v>10478302.439099099</v>
+        <v>10938164.70036036</v>
       </c>
       <c r="AG80" s="6">
         <v>1</v>
@@ -17850,7 +17853,7 @@
         <v>3063063.0630630632</v>
       </c>
       <c r="AZ80" s="6">
-        <v>2846846.8468468469</v>
+        <v>2936936.9369369368</v>
       </c>
       <c r="BA80" s="6">
         <v>0</v>
@@ -17871,10 +17874,10 @@
         <v>0</v>
       </c>
       <c r="BG80" s="6">
-        <v>2985634.2342342339</v>
+        <v>3051618.9189189188</v>
       </c>
       <c r="BH80" s="6">
-        <v>2785032.4324324331</v>
+        <v>2945307.2072072071</v>
       </c>
       <c r="BI80" s="6">
         <v>211325.20720720719</v>
@@ -17883,16 +17886,16 @@
         <v>354430.63063063071</v>
       </c>
       <c r="BK80" s="6">
-        <v>2510534.2342342339</v>
+        <v>2566187.387387387</v>
       </c>
       <c r="BL80" s="6">
-        <v>2593030.630630631</v>
+        <v>2753305.405405405</v>
       </c>
       <c r="BM80" s="6">
-        <v>2319872.072072072</v>
+        <v>2375525.2252252251</v>
       </c>
       <c r="BN80" s="6">
-        <v>2397580.1801801799</v>
+        <v>2557854.9549549548</v>
       </c>
       <c r="BO80" s="6">
         <v>190662.16216216219</v>
@@ -17901,10 +17904,10 @@
         <v>195450.45045045039</v>
       </c>
       <c r="BQ80" s="6">
-        <v>2218988.2882882878</v>
+        <v>2274641.441441441</v>
       </c>
       <c r="BR80" s="6">
-        <v>2426449.5495495489</v>
+        <v>2677147.7477477482</v>
       </c>
     </row>
     <row r="81" spans="1:70" x14ac:dyDescent="0.25">
@@ -17930,7 +17933,7 @@
         <v>807413.4954954955</v>
       </c>
       <c r="H81" s="6">
-        <v>694876.57657657657</v>
+        <v>713795.4954954955</v>
       </c>
       <c r="I81" s="6">
         <v>716609.90990990994</v>
@@ -17942,13 +17945,13 @@
         <v>90803.585585585592</v>
       </c>
       <c r="L81" s="6">
-        <v>401812.6126126126</v>
+        <v>420731.53153153148</v>
       </c>
       <c r="M81" s="6">
-        <v>8.6956521739130432E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="N81" s="6">
-        <v>0.21739130434782611</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="O81" s="6">
         <v>160695.4954954955</v>
@@ -17999,10 +18002,10 @@
         <v>7</v>
       </c>
       <c r="AE81" s="6">
-        <v>5330714.9822522523</v>
+        <v>5550113.5137837837</v>
       </c>
       <c r="AF81" s="6">
-        <v>5266899.2393693691</v>
+        <v>5488186.6357657658</v>
       </c>
       <c r="AG81" s="6">
         <v>1</v>
@@ -18092,13 +18095,13 @@
         <v>90803.585585585592</v>
       </c>
       <c r="BJ81" s="6">
-        <v>401812.6126126126</v>
+        <v>420731.53153153148</v>
       </c>
       <c r="BK81" s="6">
         <v>375168.46846846852</v>
       </c>
       <c r="BL81" s="6">
-        <v>359597.29729729728</v>
+        <v>378516.21621621621</v>
       </c>
       <c r="BM81" s="6">
         <v>329763.06306306308</v>
@@ -18110,7 +18113,7 @@
         <v>45405.405405405407</v>
       </c>
       <c r="BP81" s="6">
-        <v>205783.78378378379</v>
+        <v>224702.70270270269</v>
       </c>
       <c r="BQ81" s="6">
         <v>316248.64864864858</v>
@@ -18119,7 +18122,7 @@
         <v>11938.738738738741</v>
       </c>
     </row>
-    <row r="82" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>50</v>
       </c>
@@ -18139,13 +18142,13 @@
         <v>44</v>
       </c>
       <c r="G82" s="6">
-        <v>791953.52252252249</v>
+        <v>828291.36036036036</v>
       </c>
       <c r="H82" s="6">
         <v>373429.7297297297</v>
       </c>
       <c r="I82" s="6">
-        <v>442036.93693693692</v>
+        <v>478374.77477477479</v>
       </c>
       <c r="J82" s="6">
         <v>179454.05405405411</v>
@@ -18157,10 +18160,10 @@
         <v>193975.67567567571</v>
       </c>
       <c r="M82" s="6">
-        <v>0.21739130434782611</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="N82" s="6">
-        <v>0.2608695652173913</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O82" s="6">
         <v>38681.08108108108</v>
@@ -18211,16 +18214,16 @@
         <v>4</v>
       </c>
       <c r="AE82" s="6">
-        <v>9777621.8421621621</v>
+        <v>10240708.88720721</v>
       </c>
       <c r="AF82" s="6">
-        <v>8857727.8826126121</v>
+        <v>9252632.990720721</v>
       </c>
       <c r="AG82" s="6">
         <v>4</v>
       </c>
       <c r="AH82" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI82" s="6">
         <v>1</v>
@@ -18295,7 +18298,7 @@
         <v>0</v>
       </c>
       <c r="BG82" s="6">
-        <v>442036.93693693692</v>
+        <v>478374.77477477479</v>
       </c>
       <c r="BH82" s="6">
         <v>179454.05405405411</v>
@@ -18307,13 +18310,13 @@
         <v>193975.67567567571</v>
       </c>
       <c r="BK82" s="6">
-        <v>287952.25225225219</v>
+        <v>295911.71171171172</v>
       </c>
       <c r="BL82" s="6">
         <v>152972.0720720721</v>
       </c>
       <c r="BM82" s="6">
-        <v>177438.7387387387</v>
+        <v>185398.1981981982</v>
       </c>
       <c r="BN82" s="6">
         <v>115129.7297297297</v>
@@ -18325,13 +18328,13 @@
         <v>37842.342342342337</v>
       </c>
       <c r="BQ82" s="6">
-        <v>360223.42342342337</v>
+        <v>368182.8828828829</v>
       </c>
       <c r="BR82" s="6">
-        <v>651382.88288288284</v>
+        <v>727959.45945945941</v>
       </c>
     </row>
-    <row r="83" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
@@ -18351,34 +18354,34 @@
         <v>44</v>
       </c>
       <c r="G83" s="6">
-        <v>5477604.630630631</v>
+        <v>5567574</v>
       </c>
       <c r="H83" s="6">
-        <v>4881602.702702703</v>
+        <v>5086139.6486486495</v>
       </c>
       <c r="I83" s="6">
-        <v>3767027.927927928</v>
+        <v>3856997.297297298</v>
       </c>
       <c r="J83" s="6">
-        <v>3890429.7297297302</v>
+        <v>4035957.6576576582</v>
       </c>
       <c r="K83" s="6">
         <v>1710576.702702703</v>
       </c>
       <c r="L83" s="6">
-        <v>991172.97297297302</v>
+        <v>1050181.990990991</v>
       </c>
       <c r="M83" s="6">
-        <v>0.82608695652173914</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="N83" s="6">
-        <v>1.695652173913043</v>
+        <v>1.708333333333333</v>
       </c>
       <c r="O83" s="6">
-        <v>820000.90090090095</v>
+        <v>1044062.162162162</v>
       </c>
       <c r="P83" s="6">
-        <v>2708879.2792792791</v>
+        <v>2777934.2342342339</v>
       </c>
       <c r="Q83" s="6">
         <v>0</v>
@@ -18393,10 +18396,10 @@
         <v>0</v>
       </c>
       <c r="U83" s="6">
-        <v>820000.90090090095</v>
+        <v>1044062.162162162</v>
       </c>
       <c r="V83" s="6">
-        <v>2690860.3603603598</v>
+        <v>2759915.315315315</v>
       </c>
       <c r="W83" s="6">
         <v>0</v>
@@ -18408,31 +18411,31 @@
         <v>152747.74774774781</v>
       </c>
       <c r="Z83" s="6">
-        <v>2035909.9099099101</v>
+        <v>2095954.954954955</v>
       </c>
       <c r="AA83" s="6">
-        <v>222874.77477477479</v>
+        <v>261748.64864864861</v>
       </c>
       <c r="AB83" s="6">
-        <v>432068.46846846852</v>
+        <v>441078.3783783784</v>
       </c>
       <c r="AC83" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD83" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE83" s="6">
-        <v>39489550.427387387</v>
+        <v>41222790.823783793</v>
       </c>
       <c r="AF83" s="6">
-        <v>35630369.969009012</v>
+        <v>37286139.122162163</v>
       </c>
       <c r="AG83" s="6">
         <v>4</v>
       </c>
       <c r="AH83" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI83" s="6">
         <v>2</v>
@@ -18444,7 +18447,7 @@
         <v>27</v>
       </c>
       <c r="AL83" s="6">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM83" s="6">
         <v>0</v>
@@ -18462,7 +18465,7 @@
         <v>27</v>
       </c>
       <c r="AR83" s="6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AS83" s="6">
         <v>0</v>
@@ -18474,19 +18477,19 @@
         <v>4</v>
       </c>
       <c r="AV83" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AW83" s="6">
         <v>6</v>
       </c>
       <c r="AX83" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY83" s="6">
-        <v>2950450.4504504511</v>
+        <v>3400900.9009009008</v>
       </c>
       <c r="AZ83" s="6">
-        <v>4975675.6756756753</v>
+        <v>5336036.036036036</v>
       </c>
       <c r="BA83" s="6">
         <v>0</v>
@@ -18498,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="BD83" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE83" s="6">
         <v>0</v>
@@ -18507,43 +18510,43 @@
         <v>0</v>
       </c>
       <c r="BG83" s="6">
-        <v>3767027.927927928</v>
+        <v>3856997.297297298</v>
       </c>
       <c r="BH83" s="6">
-        <v>3890429.7297297302</v>
+        <v>4035957.6576576582</v>
       </c>
       <c r="BI83" s="6">
         <v>1710576.702702703</v>
       </c>
       <c r="BJ83" s="6">
-        <v>991172.97297297302</v>
+        <v>1050181.990990991</v>
       </c>
       <c r="BK83" s="6">
-        <v>3743575.6756756762</v>
+        <v>3799260.3603603598</v>
       </c>
       <c r="BL83" s="6">
-        <v>3884179.2792792791</v>
+        <v>4038716.2162162159</v>
       </c>
       <c r="BM83" s="6">
-        <v>2400966.666666667</v>
+        <v>2456651.351351351</v>
       </c>
       <c r="BN83" s="6">
-        <v>3086444.1441441439</v>
+        <v>3231972.072072072</v>
       </c>
       <c r="BO83" s="6">
         <v>1342609.009009009</v>
       </c>
       <c r="BP83" s="6">
-        <v>797735.13513513515</v>
+        <v>806744.14414414414</v>
       </c>
       <c r="BQ83" s="6">
-        <v>2227519.8198198201</v>
+        <v>2283204.5045045051</v>
       </c>
       <c r="BR83" s="6">
-        <v>3812716.2162162159</v>
+        <v>3963770.2702702698</v>
       </c>
     </row>
-    <row r="84" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:70" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>81</v>
       </c>
@@ -18566,13 +18569,13 @@
         <v>1166464.054054054</v>
       </c>
       <c r="H84" s="6">
-        <v>1060356.963963964</v>
+        <v>1096694.8018018019</v>
       </c>
       <c r="I84" s="6">
         <v>666712.61261261266</v>
       </c>
       <c r="J84" s="6">
-        <v>539680.18018018024</v>
+        <v>576018.01801801799</v>
       </c>
       <c r="K84" s="6">
         <v>499751.44144144142</v>
@@ -18587,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="6">
-        <v>338079.27927927929</v>
+        <v>357899.09909909911</v>
       </c>
       <c r="P84" s="6">
         <v>713346.84684684686</v>
@@ -18605,7 +18608,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="6">
-        <v>305646.84684684692</v>
+        <v>325466.66666666669</v>
       </c>
       <c r="V84" s="6">
         <v>713346.84684684686</v>
@@ -18635,10 +18638,10 @@
         <v>32</v>
       </c>
       <c r="AE84" s="6">
-        <v>12793080.075585591</v>
+        <v>13279843.5890991</v>
       </c>
       <c r="AF84" s="6">
-        <v>12415417.796666671</v>
+        <v>12977640.679549551</v>
       </c>
       <c r="AG84" s="6">
         <v>0</v>
@@ -18722,7 +18725,7 @@
         <v>666712.61261261266</v>
       </c>
       <c r="BH84" s="6">
-        <v>539680.18018018024</v>
+        <v>576018.01801801799</v>
       </c>
       <c r="BI84" s="6">
         <v>499751.44144144142</v>
@@ -18734,13 +18737,13 @@
         <v>789141.44144144142</v>
       </c>
       <c r="BL84" s="6">
-        <v>586990.99099099101</v>
+        <v>594950.45045045041</v>
       </c>
       <c r="BM84" s="6">
         <v>334788.28828828828</v>
       </c>
       <c r="BN84" s="6">
-        <v>292112.6126126126</v>
+        <v>300072.07207207207</v>
       </c>
       <c r="BO84" s="6">
         <v>454353.15315315308</v>
@@ -18756,10 +18759,45 @@
       </c>
     </row>
     <row r="85" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="G85" s="8">
+        <f>SUBTOTAL(9,G3:G84)</f>
+        <v>25004504.774774771</v>
+      </c>
+      <c r="H85" s="8">
+        <f>SUBTOTAL(9,H3:H84)</f>
+        <v>19604352.79279279</v>
+      </c>
+      <c r="I85" s="8">
+        <f t="shared" ref="I85:L85" si="0">SUBTOTAL(9,I3:I84)</f>
+        <v>21123487.432432432</v>
+      </c>
+      <c r="J85" s="8">
+        <f t="shared" si="0"/>
+        <v>15295125.27927928</v>
+      </c>
+      <c r="K85" s="8">
+        <f t="shared" si="0"/>
+        <v>3881017.3423423427</v>
+      </c>
+      <c r="L85" s="8">
+        <f t="shared" si="0"/>
+        <v>4309227.5135135138</v>
+      </c>
+      <c r="AQ85" s="1">
+        <f>SUBTOTAL(9,AQ3:AQ84)</f>
+        <v>290</v>
+      </c>
       <c r="BK85" s="7"/>
       <c r="BL85" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:BR84" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1-168821337284"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>